--- a/Datasheet.xlsx
+++ b/Datasheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woute\AirlinePlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E346F-CD43-4C53-8E9E-EC04CF5AA87B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29914976-1F2C-4739-BA0A-CE1754920B6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1229,8 +1229,8 @@
   </sheetPr>
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1815,7 +1815,9 @@
       <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
       <c r="D10" s="3">
         <v>23</v>
       </c>

--- a/Datasheet.xlsx
+++ b/Datasheet.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woute\AirlinePlanning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29914976-1F2C-4739-BA0A-CE1754920B6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8410588F-62F4-4D8A-BC0C-1A1C5ED29CBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Group 6" sheetId="7" r:id="rId2"/>
+    <sheet name="AircraftSpecs" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="99">
   <si>
     <t>Population data per city</t>
   </si>
@@ -296,19 +297,104 @@
   </si>
   <si>
     <t>Competition (number of flights) per week</t>
+  </si>
+  <si>
+    <t>Seats</t>
+  </si>
+  <si>
+    <t>Speed [km/h]</t>
+  </si>
+  <si>
+    <t>TAT [mins]</t>
+  </si>
+  <si>
+    <t>Max range [km]</t>
+  </si>
+  <si>
+    <t>RWY req [m]</t>
+  </si>
+  <si>
+    <r>
+      <t>Fuel cost parameter C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <t>Weekly lease cost [€]</t>
+  </si>
+  <si>
+    <r>
+      <t>Fixed operating cost C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [€]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Time cost parameter C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [€/hr]</t>
+    </r>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -334,11 +420,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,8 +1316,8 @@
   </sheetPr>
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9303,4 +9390,223 @@
     <oddFooter>&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6092B407-C333-4804-A3D9-CC17E9ABA8CB}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>550</v>
+      </c>
+      <c r="C2">
+        <v>820</v>
+      </c>
+      <c r="D2">
+        <v>850</v>
+      </c>
+      <c r="E2">
+        <v>870</v>
+      </c>
+      <c r="F2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>320</v>
+      </c>
+      <c r="F3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5">
+        <v>1500</v>
+      </c>
+      <c r="C5">
+        <v>3300</v>
+      </c>
+      <c r="D5">
+        <v>6300</v>
+      </c>
+      <c r="E5">
+        <v>12000</v>
+      </c>
+      <c r="F5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6">
+        <v>1400</v>
+      </c>
+      <c r="C6">
+        <v>1600</v>
+      </c>
+      <c r="D6">
+        <v>1800</v>
+      </c>
+      <c r="E6">
+        <v>2600</v>
+      </c>
+      <c r="F6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>15000</v>
+      </c>
+      <c r="C7">
+        <v>34000</v>
+      </c>
+      <c r="D7">
+        <v>80000</v>
+      </c>
+      <c r="E7">
+        <v>190000</v>
+      </c>
+      <c r="F7">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8">
+        <v>600</v>
+      </c>
+      <c r="D8">
+        <v>1250</v>
+      </c>
+      <c r="E8">
+        <v>2000</v>
+      </c>
+      <c r="F8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <v>750</v>
+      </c>
+      <c r="C9">
+        <v>775</v>
+      </c>
+      <c r="D9">
+        <v>1400</v>
+      </c>
+      <c r="E9">
+        <v>2800</v>
+      </c>
+      <c r="F9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3.5</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Datasheet.xlsx
+++ b/Datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\AirlinePlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE346C-A9AD-4933-A0A5-C9B5D3DD6427}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009E4C79-4547-4B00-BE42-3BAFBFA48483}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="123">
   <si>
     <t>Population data per city</t>
   </si>
@@ -474,6 +474,12 @@
   <si>
     <t>TOTAL DEM 17</t>
   </si>
+  <si>
+    <t>b1=0,5745256 b2=0,565937 b3=1,18872</t>
+  </si>
+  <si>
+    <t>k=0,0007196</t>
+  </si>
 </sst>
 </file>
 
@@ -484,7 +490,7 @@
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -498,6 +504,12 @@
     <font>
       <vertAlign val="subscript"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF444950"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -610,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -628,6 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11652,8 +11665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A7E274-3790-4FC3-A361-86E6193B7861}">
   <dimension ref="A1:Y268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11688,6 +11701,9 @@
       <c r="E1" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="F1" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="G1" s="6" t="s">
         <v>98</v>
       </c>
@@ -11709,35 +11725,38 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>2.1262757131184657E-2</v>
+        <v>8.2347913885855932E-4</v>
       </c>
       <c r="B2" s="12">
-        <v>0.48352080764188682</v>
+        <v>0.51344371069037642</v>
       </c>
       <c r="C2" s="12">
-        <v>0.46328845633794558</v>
+        <v>0.58050798027648043</v>
       </c>
       <c r="D2" s="13">
-        <v>1.1615825517669567</v>
+        <v>1.117402283990534</v>
       </c>
       <c r="E2" s="10">
         <v>1.42</v>
       </c>
+      <c r="F2" s="17" t="s">
+        <v>122</v>
+      </c>
       <c r="G2" s="11">
-        <v>2.1262757131184657E-2</v>
+        <v>8.2347913885855932E-4</v>
       </c>
       <c r="H2" s="12">
-        <v>0.48352080764188682</v>
+        <v>0.51344371069037642</v>
       </c>
       <c r="I2" s="12">
-        <v>0.46328845633794558</v>
+        <v>0.58050798027648043</v>
       </c>
       <c r="J2" s="13">
-        <v>1.1615825517669567</v>
+        <v>1.117402283990534</v>
       </c>
       <c r="K2" s="10">
         <f>G2*10</f>
-        <v>0.21262757131184656</v>
+        <v>8.2347913885855925E-3</v>
       </c>
       <c r="L2" s="10">
         <v>1.6</v>
@@ -11749,7 +11768,10 @@
       </c>
       <c r="B3">
         <f>SUM(B116:U135)</f>
-        <v>3038.1353959299131</v>
+        <v>2848.6221832498959</v>
+      </c>
+      <c r="G3">
+        <v>2848.6221832498959</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -18090,79 +18112,79 @@
       </c>
       <c r="C94">
         <f t="shared" ref="C94:U94" si="0">IF(C72&gt;0,$A$2*(((C6^$B$2)*(C28^$C$2))/($E$2*C72)^$D$2),0)</f>
-        <v>957.00038221781233</v>
+        <v>960.91699570612366</v>
       </c>
       <c r="D94">
         <f t="shared" si="0"/>
-        <v>615.39395647597416</v>
+        <v>617.98486777480127</v>
       </c>
       <c r="E94">
         <f t="shared" si="0"/>
-        <v>285.52489870847029</v>
+        <v>290.01805473266148</v>
       </c>
       <c r="F94">
         <f t="shared" si="0"/>
-        <v>221.69094555044504</v>
+        <v>229.42672957046639</v>
       </c>
       <c r="G94">
         <f t="shared" si="0"/>
-        <v>175.76779370524471</v>
+        <v>177.61008128070114</v>
       </c>
       <c r="H94">
         <f t="shared" si="0"/>
-        <v>260.22557146947258</v>
+        <v>274.14296574429528</v>
       </c>
       <c r="I94">
         <f t="shared" si="0"/>
-        <v>188.97500024067352</v>
+        <v>199.20797564091635</v>
       </c>
       <c r="J94">
         <f t="shared" si="0"/>
-        <v>482.76504311136426</v>
+        <v>504.37407702939015</v>
       </c>
       <c r="K94">
         <f t="shared" si="0"/>
-        <v>135.58795134723078</v>
+        <v>146.75885921299067</v>
       </c>
       <c r="L94">
         <f t="shared" si="0"/>
-        <v>61.655235484517192</v>
+        <v>59.006535304094221</v>
       </c>
       <c r="M94">
         <f t="shared" si="0"/>
-        <v>396.62816743528032</v>
+        <v>429.19849109293176</v>
       </c>
       <c r="N94">
         <f t="shared" si="0"/>
-        <v>80.722126247269642</v>
+        <v>85.749595920169199</v>
       </c>
       <c r="O94">
         <f t="shared" si="0"/>
-        <v>98.614397827154463</v>
+        <v>92.898046544228549</v>
       </c>
       <c r="P94">
         <f t="shared" si="0"/>
-        <v>282.8487862941704</v>
+        <v>277.6043748308399</v>
       </c>
       <c r="Q94">
         <f t="shared" si="0"/>
-        <v>59.558890471161192</v>
+        <v>55.478515689663368</v>
       </c>
       <c r="R94">
         <f t="shared" si="0"/>
-        <v>18.211403903155503</v>
+        <v>17.037692168390858</v>
       </c>
       <c r="S94">
         <f t="shared" si="0"/>
-        <v>43.378828367709957</v>
+        <v>46.186801176591466</v>
       </c>
       <c r="T94">
         <f t="shared" si="0"/>
-        <v>71.063200808694575</v>
+        <v>72.495659508660268</v>
       </c>
       <c r="U94">
         <f t="shared" si="0"/>
-        <v>25.91071944094892</v>
+        <v>24.784804033730619</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
@@ -18171,7 +18193,7 @@
       </c>
       <c r="B95">
         <f>IF(B73&gt;0,$A$2*(((B7^$B$2)*(B29^$C$2))/($E$2*B73)^$D$2),0)</f>
-        <v>957.00038221781233</v>
+        <v>960.91699570612366</v>
       </c>
       <c r="C95">
         <f t="shared" ref="C95:U95" si="1">IF(C73&gt;0,$A$2*(((C7^$B$2)*(C29^$C$2))/($E$2*C73)^$D$2),0)</f>
@@ -18179,75 +18201,75 @@
       </c>
       <c r="D95">
         <f t="shared" si="1"/>
-        <v>288.34805452375963</v>
+        <v>277.85637190793221</v>
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>225.38821223284268</v>
+        <v>215.36506335516634</v>
       </c>
       <c r="F95">
         <f t="shared" si="1"/>
-        <v>135.82178127604348</v>
+        <v>133.51030461364303</v>
       </c>
       <c r="G95">
         <f t="shared" si="1"/>
-        <v>125.54616225754641</v>
+        <v>119.79710842470871</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>193.21900510798125</v>
+        <v>191.93369326686948</v>
       </c>
       <c r="I95">
         <f t="shared" si="1"/>
-        <v>132.06255680234989</v>
+        <v>131.57020550694173</v>
       </c>
       <c r="J95">
         <f t="shared" si="1"/>
-        <v>128.66875683435032</v>
+        <v>131.79175477000388</v>
       </c>
       <c r="K95">
         <f t="shared" si="1"/>
-        <v>65.146677996171192</v>
+        <v>67.598859232049833</v>
       </c>
       <c r="L95">
         <f t="shared" si="1"/>
-        <v>33.791181897119003</v>
+        <v>30.847733470649978</v>
       </c>
       <c r="M95">
         <f t="shared" si="1"/>
-        <v>229.33067309755464</v>
+        <v>236.23398874797516</v>
       </c>
       <c r="N95">
         <f t="shared" si="1"/>
-        <v>39.959595561523088</v>
+        <v>40.647291460305794</v>
       </c>
       <c r="O95">
         <f t="shared" si="1"/>
-        <v>55.906516201597476</v>
+        <v>50.171805634049072</v>
       </c>
       <c r="P95">
         <f t="shared" si="1"/>
-        <v>81.866104952359649</v>
+        <v>78.525768446251021</v>
       </c>
       <c r="Q95">
         <f t="shared" si="1"/>
-        <v>35.270626186006432</v>
+        <v>31.246538035124424</v>
       </c>
       <c r="R95">
         <f t="shared" si="1"/>
-        <v>10.770275125695576</v>
+        <v>9.5835590251384932</v>
       </c>
       <c r="S95">
         <f t="shared" si="1"/>
-        <v>18.207108956635341</v>
+        <v>18.680042256795854</v>
       </c>
       <c r="T95">
         <f t="shared" si="1"/>
-        <v>46.239775579640593</v>
+        <v>44.703104029206813</v>
       </c>
       <c r="U95">
         <f t="shared" si="1"/>
-        <v>13.531689868762165</v>
+        <v>12.369296891447517</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
@@ -18256,11 +18278,11 @@
       </c>
       <c r="B96">
         <f t="shared" ref="B96:U96" si="2">IF(B74&gt;0,$A$2*(((B8^$B$2)*(B30^$C$2))/($E$2*B74)^$D$2),0)</f>
-        <v>615.39395647597416</v>
+        <v>617.98486777480127</v>
       </c>
       <c r="C96">
         <f t="shared" si="2"/>
-        <v>288.34805452375963</v>
+        <v>277.85637190793221</v>
       </c>
       <c r="D96">
         <f t="shared" si="2"/>
@@ -18268,71 +18290,71 @@
       </c>
       <c r="E96">
         <f t="shared" si="2"/>
-        <v>197.99599473938557</v>
+        <v>186.9813252822785</v>
       </c>
       <c r="F96">
         <f t="shared" si="2"/>
-        <v>65.106831880575442</v>
+        <v>64.725494507305655</v>
       </c>
       <c r="G96">
         <f t="shared" si="2"/>
-        <v>56.731520202338338</v>
+        <v>54.871372617673572</v>
       </c>
       <c r="H96">
         <f t="shared" si="2"/>
-        <v>137.85417652853369</v>
+        <v>136.41298032307003</v>
       </c>
       <c r="I96">
         <f t="shared" si="2"/>
-        <v>75.639221496775079</v>
+        <v>75.698607846974539</v>
       </c>
       <c r="J96">
         <f t="shared" si="2"/>
-        <v>93.993803343514372</v>
+        <v>95.820551385824771</v>
       </c>
       <c r="K96">
         <f t="shared" si="2"/>
-        <v>63.185917372887666</v>
+        <v>64.554952977344101</v>
       </c>
       <c r="L96">
         <f t="shared" si="2"/>
-        <v>17.968971476827583</v>
+        <v>16.524662835223367</v>
       </c>
       <c r="M96">
         <f t="shared" si="2"/>
-        <v>248.67601796741741</v>
+        <v>251.15034990636568</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
-        <v>35.761206358108815</v>
+        <v>35.926398333697286</v>
       </c>
       <c r="O96">
         <f t="shared" si="2"/>
-        <v>48.745568192326211</v>
+        <v>43.246794196983011</v>
       </c>
       <c r="P96">
         <f t="shared" si="2"/>
-        <v>77.153565839591181</v>
+        <v>72.945881393571369</v>
       </c>
       <c r="Q96">
         <f t="shared" si="2"/>
-        <v>25.50581493225986</v>
+        <v>22.497776745047108</v>
       </c>
       <c r="R96">
         <f t="shared" si="2"/>
-        <v>7.1448426216962755</v>
+        <v>6.3508102080349058</v>
       </c>
       <c r="S96">
         <f t="shared" si="2"/>
-        <v>14.085069400536536</v>
+        <v>14.351371599391788</v>
       </c>
       <c r="T96">
         <f t="shared" si="2"/>
-        <v>27.1989583790034</v>
+        <v>26.387436174591826</v>
       </c>
       <c r="U96">
         <f t="shared" si="2"/>
-        <v>7.9744185455096979</v>
+        <v>7.3144915191197608</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -18341,15 +18363,15 @@
       </c>
       <c r="B97">
         <f t="shared" ref="B97:U97" si="3">IF(B75&gt;0,$A$2*(((B9^$B$2)*(B31^$C$2))/($E$2*B75)^$D$2),0)</f>
-        <v>285.52489870847029</v>
+        <v>290.01805473266148</v>
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
-        <v>225.38821223284268</v>
+        <v>215.36506335516634</v>
       </c>
       <c r="D97">
         <f t="shared" si="3"/>
-        <v>197.99599473938557</v>
+        <v>186.9813252822785</v>
       </c>
       <c r="E97">
         <f t="shared" si="3"/>
@@ -18357,67 +18379,67 @@
       </c>
       <c r="F97">
         <f t="shared" si="3"/>
-        <v>60.410761514802772</v>
+        <v>59.165872745915131</v>
       </c>
       <c r="G97">
         <f t="shared" si="3"/>
-        <v>59.118854837791652</v>
+        <v>56.083886117754616</v>
       </c>
       <c r="H97">
         <f t="shared" si="3"/>
-        <v>313.14328554581778</v>
+        <v>295.05151142259388</v>
       </c>
       <c r="I97">
         <f t="shared" si="3"/>
-        <v>96.698578120908678</v>
+        <v>94.183588029452892</v>
       </c>
       <c r="J97">
         <f t="shared" si="3"/>
-        <v>54.919603500196814</v>
+        <v>56.135111484434141</v>
       </c>
       <c r="K97">
         <f t="shared" si="3"/>
-        <v>53.001456992647405</v>
+        <v>53.551533977641107</v>
       </c>
       <c r="L97">
         <f t="shared" si="3"/>
-        <v>15.876960095537374</v>
+        <v>14.410959006662948</v>
       </c>
       <c r="M97">
         <f t="shared" si="3"/>
-        <v>314.42472768445742</v>
+        <v>309.18119574452868</v>
       </c>
       <c r="N97">
         <f t="shared" si="3"/>
-        <v>31.742672872164093</v>
+        <v>31.469190624031732</v>
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>55.681531796092301</v>
+        <v>48.28408802409615</v>
       </c>
       <c r="P97">
         <f t="shared" si="3"/>
-        <v>41.664530545691008</v>
+        <v>39.615074228470398</v>
       </c>
       <c r="Q97">
         <f t="shared" si="3"/>
-        <v>29.182092435745233</v>
+        <v>25.157311906888001</v>
       </c>
       <c r="R97">
         <f t="shared" si="3"/>
-        <v>7.7329964708816128</v>
+        <v>6.732078297148961</v>
       </c>
       <c r="S97">
         <f t="shared" si="3"/>
-        <v>10.469036356718801</v>
+        <v>10.597746495268948</v>
       </c>
       <c r="T97">
         <f t="shared" si="3"/>
-        <v>31.468434459361852</v>
+        <v>29.825186363572179</v>
       </c>
       <c r="U97">
         <f t="shared" si="3"/>
-        <v>7.0178135430156905</v>
+        <v>6.3543233718274807</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -18426,19 +18448,19 @@
       </c>
       <c r="B98">
         <f t="shared" ref="B98:U98" si="4">IF(B76&gt;0,$A$2*(((B10^$B$2)*(B32^$C$2))/($E$2*B76)^$D$2),0)</f>
-        <v>221.69094555044504</v>
+        <v>229.42672957046639</v>
       </c>
       <c r="C98">
         <f t="shared" si="4"/>
-        <v>135.82178127604348</v>
+        <v>133.51030461364303</v>
       </c>
       <c r="D98">
         <f t="shared" si="4"/>
-        <v>65.106831880575442</v>
+        <v>64.725494507305655</v>
       </c>
       <c r="E98">
         <f t="shared" si="4"/>
-        <v>60.410761514802772</v>
+        <v>59.165872745915131</v>
       </c>
       <c r="F98">
         <f t="shared" si="4"/>
@@ -18446,63 +18468,63 @@
       </c>
       <c r="G98">
         <f t="shared" si="4"/>
-        <v>250.60270140916029</v>
+        <v>227.07820729125012</v>
       </c>
       <c r="H98">
         <f t="shared" si="4"/>
-        <v>79.147107822162354</v>
+        <v>79.294542018362307</v>
       </c>
       <c r="I98">
         <f t="shared" si="4"/>
-        <v>108.43972664224431</v>
+        <v>106.11720561921045</v>
       </c>
       <c r="J98">
         <f t="shared" si="4"/>
-        <v>64.306778216315891</v>
+        <v>65.931450246165724</v>
       </c>
       <c r="K98">
         <f t="shared" si="4"/>
-        <v>36.199692532392284</v>
+        <v>37.447430600952522</v>
       </c>
       <c r="L98">
         <f t="shared" si="4"/>
-        <v>117.38486018819729</v>
+        <v>99.638381227676902</v>
       </c>
       <c r="M98">
         <f t="shared" si="4"/>
-        <v>94.793381259981018</v>
+        <v>98.449976745804733</v>
       </c>
       <c r="N98">
         <f t="shared" si="4"/>
-        <v>24.473242520590023</v>
+        <v>24.726624566304466</v>
       </c>
       <c r="O98">
         <f t="shared" si="4"/>
-        <v>31.032382040761103</v>
+        <v>27.765145759021337</v>
       </c>
       <c r="P98">
         <f t="shared" si="4"/>
-        <v>37.804540684417596</v>
+        <v>36.40650806473932</v>
       </c>
       <c r="Q98">
         <f t="shared" si="4"/>
-        <v>25.929568549227358</v>
+        <v>22.658451996976584</v>
       </c>
       <c r="R98">
         <f t="shared" si="4"/>
-        <v>10.105194468033712</v>
+        <v>8.787426196174712</v>
       </c>
       <c r="S98">
         <f t="shared" si="4"/>
-        <v>13.840349073787063</v>
+        <v>13.98871121872485</v>
       </c>
       <c r="T98">
         <f t="shared" si="4"/>
-        <v>47.81024329457491</v>
+        <v>45.00443661310193</v>
       </c>
       <c r="U98">
         <f t="shared" si="4"/>
-        <v>24.912986922095257</v>
+        <v>21.692066662997373</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -18511,23 +18533,23 @@
       </c>
       <c r="B99">
         <f t="shared" ref="B99:U99" si="5">IF(B77&gt;0,$A$2*(((B11^$B$2)*(B33^$C$2))/($E$2*B77)^$D$2),0)</f>
-        <v>175.76779370524471</v>
+        <v>177.61008128070114</v>
       </c>
       <c r="C99">
         <f t="shared" si="5"/>
-        <v>125.54616225754641</v>
+        <v>119.79710842470871</v>
       </c>
       <c r="D99">
         <f t="shared" si="5"/>
-        <v>56.731520202338338</v>
+        <v>54.871372617673572</v>
       </c>
       <c r="E99">
         <f t="shared" si="5"/>
-        <v>59.118854837791652</v>
+        <v>56.083886117754616</v>
       </c>
       <c r="F99">
         <f t="shared" si="5"/>
-        <v>250.60270140916029</v>
+        <v>227.07820729125012</v>
       </c>
       <c r="G99">
         <f t="shared" si="5"/>
@@ -18535,59 +18557,59 @@
       </c>
       <c r="H99">
         <f t="shared" si="5"/>
-        <v>82.132397560286876</v>
+        <v>79.526013559230861</v>
       </c>
       <c r="I99">
         <f t="shared" si="5"/>
-        <v>132.03479549365855</v>
+        <v>124.11717332847844</v>
       </c>
       <c r="J99">
         <f t="shared" si="5"/>
-        <v>45.235665437200346</v>
+        <v>45.491018348357713</v>
       </c>
       <c r="K99">
         <f t="shared" si="5"/>
-        <v>29.890227201907827</v>
+        <v>30.144490597439475</v>
       </c>
       <c r="L99">
         <f t="shared" si="5"/>
-        <v>39.245702929497604</v>
+        <v>33.612617043570168</v>
       </c>
       <c r="M99">
         <f t="shared" si="5"/>
-        <v>86.732088697272886</v>
+        <v>87.474912202586168</v>
       </c>
       <c r="N99">
         <f t="shared" si="5"/>
-        <v>20.161537568557868</v>
+        <v>19.860779894442196</v>
       </c>
       <c r="O99">
         <f t="shared" si="5"/>
-        <v>28.034380242342916</v>
+        <v>24.369806884610302</v>
       </c>
       <c r="P99">
         <f t="shared" si="5"/>
-        <v>28.085097029482291</v>
+        <v>26.473909149646172</v>
       </c>
       <c r="Q99">
         <f t="shared" si="5"/>
-        <v>24.015922007591904</v>
+        <v>20.37035748907326</v>
       </c>
       <c r="R99">
         <f t="shared" si="5"/>
-        <v>9.1565279237587376</v>
+        <v>7.7352487782409209</v>
       </c>
       <c r="S99">
         <f t="shared" si="5"/>
-        <v>9.6322610886629665</v>
+        <v>9.5530994989786535</v>
       </c>
       <c r="T99">
         <f t="shared" si="5"/>
-        <v>52.637792940737747</v>
+        <v>47.779448198074292</v>
       </c>
       <c r="U99">
         <f t="shared" si="5"/>
-        <v>13.049652174508662</v>
+        <v>11.270760748301337</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -18596,27 +18618,27 @@
       </c>
       <c r="B100">
         <f t="shared" ref="B100:U100" si="6">IF(B78&gt;0,$A$2*(((B12^$B$2)*(B34^$C$2))/($E$2*B78)^$D$2),0)</f>
-        <v>260.22557146947258</v>
+        <v>274.14296574429528</v>
       </c>
       <c r="C100">
         <f t="shared" si="6"/>
-        <v>193.21900510798125</v>
+        <v>191.93369326686948</v>
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
-        <v>137.85417652853369</v>
+        <v>136.41298032307003</v>
       </c>
       <c r="E100">
         <f t="shared" si="6"/>
-        <v>313.14328554581778</v>
+        <v>295.05151142259388</v>
       </c>
       <c r="F100">
         <f t="shared" si="6"/>
-        <v>79.147107822162354</v>
+        <v>79.294542018362307</v>
       </c>
       <c r="G100">
         <f t="shared" si="6"/>
-        <v>82.132397560286876</v>
+        <v>79.526013559230861</v>
       </c>
       <c r="H100">
         <f t="shared" si="6"/>
@@ -18624,55 +18646,55 @@
       </c>
       <c r="I100">
         <f t="shared" si="6"/>
-        <v>184.7046029628363</v>
+        <v>181.40802021213548</v>
       </c>
       <c r="J100">
         <f t="shared" si="6"/>
-        <v>57.838136301264406</v>
+        <v>60.978920215969787</v>
       </c>
       <c r="K100">
         <f t="shared" si="6"/>
-        <v>67.63662485832549</v>
+        <v>69.976452525463813</v>
       </c>
       <c r="L100">
         <f t="shared" si="6"/>
-        <v>20.665330616265194</v>
+        <v>19.192316823283029</v>
       </c>
       <c r="M100">
         <f t="shared" si="6"/>
-        <v>386.81061187541837</v>
+        <v>390.0190933393755</v>
       </c>
       <c r="N100">
         <f t="shared" si="6"/>
-        <v>42.943840236211756</v>
+        <v>43.497486786288363</v>
       </c>
       <c r="O100">
         <f t="shared" si="6"/>
-        <v>91.379303782422383</v>
+        <v>80.365860577388815</v>
       </c>
       <c r="P100">
         <f t="shared" si="6"/>
-        <v>43.204710256874485</v>
+        <v>42.397378147851597</v>
       </c>
       <c r="Q100">
         <f t="shared" si="6"/>
-        <v>51.978768252745397</v>
+        <v>45.305579169416362</v>
       </c>
       <c r="R100">
         <f t="shared" si="6"/>
-        <v>12.821320757997524</v>
+        <v>11.316075053200885</v>
       </c>
       <c r="S100">
         <f t="shared" si="6"/>
-        <v>12.748108331553027</v>
+        <v>13.237703439245855</v>
       </c>
       <c r="T100">
         <f t="shared" si="6"/>
-        <v>54.270896232102501</v>
+        <v>52.069819999204583</v>
       </c>
       <c r="U100">
         <f t="shared" si="6"/>
-        <v>9.3306601945121681</v>
+        <v>8.6375009437298154</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -18681,31 +18703,31 @@
       </c>
       <c r="B101">
         <f t="shared" ref="B101:U101" si="7">IF(B79&gt;0,$A$2*(((B13^$B$2)*(B35^$C$2))/($E$2*B79)^$D$2),0)</f>
-        <v>188.97500024067352</v>
+        <v>199.20797564091635</v>
       </c>
       <c r="C101">
         <f t="shared" si="7"/>
-        <v>132.06255680234989</v>
+        <v>131.57020550694173</v>
       </c>
       <c r="D101">
         <f t="shared" si="7"/>
-        <v>75.639221496775079</v>
+        <v>75.698607846974539</v>
       </c>
       <c r="E101">
         <f t="shared" si="7"/>
-        <v>96.698578120908678</v>
+        <v>94.183588029452892</v>
       </c>
       <c r="F101">
         <f t="shared" si="7"/>
-        <v>108.43972664224431</v>
+        <v>106.11720561921045</v>
       </c>
       <c r="G101">
         <f t="shared" si="7"/>
-        <v>132.03479549365855</v>
+        <v>124.11717332847844</v>
       </c>
       <c r="H101">
         <f t="shared" si="7"/>
-        <v>184.7046029628363</v>
+        <v>181.40802021213548</v>
       </c>
       <c r="I101">
         <f t="shared" si="7"/>
@@ -18713,51 +18735,51 @@
       </c>
       <c r="J101">
         <f t="shared" si="7"/>
-        <v>48.092691999887769</v>
+        <v>50.475767494511864</v>
       </c>
       <c r="K101">
         <f t="shared" si="7"/>
-        <v>49.06071607251338</v>
+        <v>50.792339682112775</v>
       </c>
       <c r="L101">
         <f t="shared" si="7"/>
-        <v>26.953224649303408</v>
+        <v>24.496175882931524</v>
       </c>
       <c r="M101">
         <f t="shared" si="7"/>
-        <v>159.11436355326333</v>
+        <v>164.04412539597496</v>
       </c>
       <c r="N101">
         <f t="shared" si="7"/>
-        <v>34.170575900984261</v>
+        <v>34.512860629894462</v>
       </c>
       <c r="O101">
         <f t="shared" si="7"/>
-        <v>58.603125075094617</v>
+        <v>51.817078404218897</v>
       </c>
       <c r="P101">
         <f t="shared" si="7"/>
-        <v>33.399106510457663</v>
+        <v>32.717896203500004</v>
       </c>
       <c r="Q101">
         <f t="shared" si="7"/>
-        <v>62.63266050099444</v>
+        <v>53.584257601903118</v>
       </c>
       <c r="R101">
         <f t="shared" si="7"/>
-        <v>21.95607197562699</v>
+        <v>18.768194478957092</v>
       </c>
       <c r="S101">
         <f t="shared" si="7"/>
-        <v>11.933042970462008</v>
+        <v>12.280045855185882</v>
       </c>
       <c r="T101">
         <f t="shared" si="7"/>
-        <v>207.77062932693082</v>
+        <v>187.24875619639622</v>
       </c>
       <c r="U101">
         <f t="shared" si="7"/>
-        <v>12.110739285472624</v>
+        <v>10.973095519311816</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -18766,35 +18788,35 @@
       </c>
       <c r="B102">
         <f t="shared" ref="B102:U102" si="8">IF(B80&gt;0,$A$2*(((B14^$B$2)*(B36^$C$2))/($E$2*B80)^$D$2),0)</f>
-        <v>482.76504311136426</v>
+        <v>504.37407702939015</v>
       </c>
       <c r="C102">
         <f t="shared" si="8"/>
-        <v>128.66875683435032</v>
+        <v>131.79175477000388</v>
       </c>
       <c r="D102">
         <f t="shared" si="8"/>
-        <v>93.993803343514372</v>
+        <v>95.820551385824771</v>
       </c>
       <c r="E102">
         <f t="shared" si="8"/>
-        <v>54.919603500196814</v>
+        <v>56.135111484434141</v>
       </c>
       <c r="F102">
         <f t="shared" si="8"/>
-        <v>64.306778216315891</v>
+        <v>65.931450246165724</v>
       </c>
       <c r="G102">
         <f t="shared" si="8"/>
-        <v>45.235665437200346</v>
+        <v>45.491018348357713</v>
       </c>
       <c r="H102">
         <f t="shared" si="8"/>
-        <v>57.838136301264406</v>
+        <v>60.978920215969787</v>
       </c>
       <c r="I102">
         <f t="shared" si="8"/>
-        <v>48.092691999887769</v>
+        <v>50.475767494511864</v>
       </c>
       <c r="J102">
         <f t="shared" si="8"/>
@@ -18802,47 +18824,47 @@
       </c>
       <c r="K102">
         <f t="shared" si="8"/>
-        <v>41.618476830113217</v>
+        <v>44.532311776898922</v>
       </c>
       <c r="L102">
         <f t="shared" si="8"/>
-        <v>20.221201908141104</v>
+        <v>19.08308670281184</v>
       </c>
       <c r="M102">
         <f t="shared" si="8"/>
-        <v>94.591315158933142</v>
+        <v>102.16454715823386</v>
       </c>
       <c r="N102">
         <f t="shared" si="8"/>
-        <v>25.219597365315526</v>
+        <v>26.466185104959351</v>
       </c>
       <c r="O102">
         <f t="shared" si="8"/>
-        <v>26.602789088867684</v>
+        <v>24.896148588907241</v>
       </c>
       <c r="P102">
         <f t="shared" si="8"/>
-        <v>167.19025560536662</v>
+        <v>158.22112482142836</v>
       </c>
       <c r="Q102">
         <f t="shared" si="8"/>
-        <v>16.684830832467583</v>
+        <v>15.417553336575189</v>
       </c>
       <c r="R102">
         <f t="shared" si="8"/>
-        <v>5.2908520714587937</v>
+        <v>4.9035111338849333</v>
       </c>
       <c r="S102">
         <f t="shared" si="8"/>
-        <v>19.781583806837226</v>
+        <v>20.510116563380866</v>
       </c>
       <c r="T102">
         <f t="shared" si="8"/>
-        <v>19.28000896777829</v>
+        <v>19.535253619380374</v>
       </c>
       <c r="U102">
         <f t="shared" si="8"/>
-        <v>9.0818013547228613</v>
+        <v>8.5446054350690268</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -18851,39 +18873,39 @@
       </c>
       <c r="B103">
         <f t="shared" ref="B103:U103" si="9">IF(B81&gt;0,$A$2*(((B15^$B$2)*(B37^$C$2))/($E$2*B81)^$D$2),0)</f>
-        <v>135.58795134723078</v>
+        <v>146.75885921299067</v>
       </c>
       <c r="C103">
         <f t="shared" si="9"/>
-        <v>65.146677996171192</v>
+        <v>67.598859232049833</v>
       </c>
       <c r="D103">
         <f t="shared" si="9"/>
-        <v>63.185917372887666</v>
+        <v>64.554952977344101</v>
       </c>
       <c r="E103">
         <f t="shared" si="9"/>
-        <v>53.001456992647405</v>
+        <v>53.551533977641107</v>
       </c>
       <c r="F103">
         <f t="shared" si="9"/>
-        <v>36.199692532392284</v>
+        <v>37.447430600952522</v>
       </c>
       <c r="G103">
         <f t="shared" si="9"/>
-        <v>29.890227201907827</v>
+        <v>30.144490597439475</v>
       </c>
       <c r="H103">
         <f t="shared" si="9"/>
-        <v>67.63662485832549</v>
+        <v>69.976452525463813</v>
       </c>
       <c r="I103">
         <f t="shared" si="9"/>
-        <v>49.06071607251338</v>
+        <v>50.792339682112775</v>
       </c>
       <c r="J103">
         <f t="shared" si="9"/>
-        <v>41.618476830113217</v>
+        <v>44.532311776898922</v>
       </c>
       <c r="K103">
         <f t="shared" si="9"/>
@@ -18891,43 +18913,43 @@
       </c>
       <c r="L103">
         <f t="shared" si="9"/>
-        <v>11.116369598536528</v>
+        <v>10.594424191144617</v>
       </c>
       <c r="M103">
         <f t="shared" si="9"/>
-        <v>175.34258977199596</v>
+        <v>182.61288030411805</v>
       </c>
       <c r="N103">
         <f t="shared" si="9"/>
-        <v>184.49148443149983</v>
+        <v>177.19370404463399</v>
       </c>
       <c r="O103">
         <f t="shared" si="9"/>
-        <v>71.272199790641466</v>
+        <v>63.421471240050273</v>
       </c>
       <c r="P103">
         <f t="shared" si="9"/>
-        <v>37.886752244540297</v>
+        <v>37.450043589064414</v>
       </c>
       <c r="Q103">
         <f t="shared" si="9"/>
-        <v>28.07249265712996</v>
+        <v>25.105567743699101</v>
       </c>
       <c r="R103">
         <f t="shared" si="9"/>
-        <v>6.8796604630899605</v>
+        <v>6.2316164059805628</v>
       </c>
       <c r="S103">
         <f t="shared" si="9"/>
-        <v>14.44284659010065</v>
+        <v>14.960474676315016</v>
       </c>
       <c r="T103">
         <f t="shared" si="9"/>
-        <v>19.797357607249982</v>
+        <v>19.78205142061875</v>
       </c>
       <c r="U103">
         <f t="shared" si="9"/>
-        <v>5.8079147895038234</v>
+        <v>5.4867402247857315</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -18936,43 +18958,43 @@
       </c>
       <c r="B104">
         <f t="shared" ref="B104:U104" si="10">IF(B82&gt;0,$A$2*(((B16^$B$2)*(B38^$C$2))/($E$2*B82)^$D$2),0)</f>
-        <v>61.655235484517192</v>
+        <v>59.006535304094221</v>
       </c>
       <c r="C104">
         <f t="shared" si="10"/>
-        <v>33.791181897119003</v>
+        <v>30.847733470649978</v>
       </c>
       <c r="D104">
         <f t="shared" si="10"/>
-        <v>17.968971476827583</v>
+        <v>16.524662835223367</v>
       </c>
       <c r="E104">
         <f t="shared" si="10"/>
-        <v>15.876960095537374</v>
+        <v>14.410959006662948</v>
       </c>
       <c r="F104">
         <f t="shared" si="10"/>
-        <v>117.38486018819729</v>
+        <v>99.638381227676902</v>
       </c>
       <c r="G104">
         <f t="shared" si="10"/>
-        <v>39.245702929497604</v>
+        <v>33.612617043570168</v>
       </c>
       <c r="H104">
         <f t="shared" si="10"/>
-        <v>20.665330616265194</v>
+        <v>19.192316823283029</v>
       </c>
       <c r="I104">
         <f t="shared" si="10"/>
-        <v>26.953224649303408</v>
+        <v>24.496175882931524</v>
       </c>
       <c r="J104">
         <f t="shared" si="10"/>
-        <v>20.221201908141104</v>
+        <v>19.08308670281184</v>
       </c>
       <c r="K104">
         <f t="shared" si="10"/>
-        <v>11.116369598536528</v>
+        <v>10.594424191144617</v>
       </c>
       <c r="L104">
         <f t="shared" si="10"/>
@@ -18980,39 +19002,39 @@
       </c>
       <c r="M104">
         <f t="shared" si="10"/>
-        <v>26.685000413763802</v>
+        <v>25.61760807363337</v>
       </c>
       <c r="N104">
         <f t="shared" si="10"/>
-        <v>7.6031166098148644</v>
+        <v>7.0740876669723498</v>
       </c>
       <c r="O104">
         <f t="shared" si="10"/>
-        <v>9.0021229044917366</v>
+        <v>7.4364822934569483</v>
       </c>
       <c r="P104">
         <f t="shared" si="10"/>
-        <v>11.799561550628558</v>
+        <v>10.462356107378223</v>
       </c>
       <c r="Q104">
         <f t="shared" si="10"/>
-        <v>7.5346806271684148</v>
+        <v>6.0786820010787812</v>
       </c>
       <c r="R104">
         <f t="shared" si="10"/>
-        <v>3.0038117414510479</v>
+        <v>2.4094859208632373</v>
       </c>
       <c r="S104">
         <f t="shared" si="10"/>
-        <v>4.9174235926081238</v>
+        <v>4.5536190603805444</v>
       </c>
       <c r="T104">
         <f t="shared" si="10"/>
-        <v>12.48469620010869</v>
+        <v>10.89399732912044</v>
       </c>
       <c r="U104">
         <f t="shared" si="10"/>
-        <v>14.59486037209069</v>
+        <v>11.423600603737444</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -19021,47 +19043,47 @@
       </c>
       <c r="B105">
         <f t="shared" ref="B105:U105" si="11">IF(B83&gt;0,$A$2*(((B17^$B$2)*(B39^$C$2))/($E$2*B83)^$D$2),0)</f>
-        <v>396.62816743528032</v>
+        <v>429.19849109293176</v>
       </c>
       <c r="C105">
         <f t="shared" si="11"/>
-        <v>229.33067309755464</v>
+        <v>236.23398874797516</v>
       </c>
       <c r="D105">
         <f t="shared" si="11"/>
-        <v>248.67601796741741</v>
+        <v>251.15034990636568</v>
       </c>
       <c r="E105">
         <f t="shared" si="11"/>
-        <v>314.42472768445742</v>
+        <v>309.18119574452868</v>
       </c>
       <c r="F105">
         <f t="shared" si="11"/>
-        <v>94.793381259981018</v>
+        <v>98.449976745804733</v>
       </c>
       <c r="G105">
         <f t="shared" si="11"/>
-        <v>86.732088697272886</v>
+        <v>87.474912202586168</v>
       </c>
       <c r="H105">
         <f t="shared" si="11"/>
-        <v>386.81061187541837</v>
+        <v>390.0190933393755</v>
       </c>
       <c r="I105">
         <f t="shared" si="11"/>
-        <v>159.11436355326333</v>
+        <v>164.04412539597496</v>
       </c>
       <c r="J105">
         <f t="shared" si="11"/>
-        <v>94.591315158933142</v>
+        <v>102.16454715823386</v>
       </c>
       <c r="K105">
         <f t="shared" si="11"/>
-        <v>175.34258977199596</v>
+        <v>182.61288030411805</v>
       </c>
       <c r="L105">
         <f t="shared" si="11"/>
-        <v>26.685000413763802</v>
+        <v>25.61760807363337</v>
       </c>
       <c r="M105">
         <f t="shared" si="11"/>
@@ -19069,35 +19091,35 @@
       </c>
       <c r="N105">
         <f t="shared" si="11"/>
-        <v>98.079517199823471</v>
+        <v>100.4866963101445</v>
       </c>
       <c r="O105">
         <f t="shared" si="11"/>
-        <v>222.22161632295561</v>
+        <v>197.21509760662195</v>
       </c>
       <c r="P105">
         <f t="shared" si="11"/>
-        <v>79.186477660416713</v>
+        <v>79.261151652598357</v>
       </c>
       <c r="Q105">
         <f t="shared" si="11"/>
-        <v>71.260760459382112</v>
+        <v>64.05803149320424</v>
       </c>
       <c r="R105">
         <f t="shared" si="11"/>
-        <v>16.360590467635717</v>
+        <v>14.932913558184667</v>
       </c>
       <c r="S105">
         <f t="shared" si="11"/>
-        <v>22.302166121521427</v>
+        <v>23.663795533154438</v>
       </c>
       <c r="T105">
         <f t="shared" si="11"/>
-        <v>56.209527721727575</v>
+        <v>56.215795100351045</v>
       </c>
       <c r="U105">
         <f t="shared" si="11"/>
-        <v>12.73323144238937</v>
+        <v>12.158718436021342</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -19106,51 +19128,51 @@
       </c>
       <c r="B106">
         <f t="shared" ref="B106:U106" si="12">IF(B84&gt;0,$A$2*(((B18^$B$2)*(B40^$C$2))/($E$2*B84)^$D$2),0)</f>
-        <v>80.722126247269642</v>
+        <v>85.749595920169199</v>
       </c>
       <c r="C106">
         <f t="shared" si="12"/>
-        <v>39.959595561523088</v>
+        <v>40.647291460305794</v>
       </c>
       <c r="D106">
         <f t="shared" si="12"/>
-        <v>35.761206358108815</v>
+        <v>35.926398333697286</v>
       </c>
       <c r="E106">
         <f t="shared" si="12"/>
-        <v>31.742672872164093</v>
+        <v>31.469190624031732</v>
       </c>
       <c r="F106">
         <f t="shared" si="12"/>
-        <v>24.473242520590023</v>
+        <v>24.726624566304466</v>
       </c>
       <c r="G106">
         <f t="shared" si="12"/>
-        <v>20.161537568557868</v>
+        <v>19.860779894442196</v>
       </c>
       <c r="H106">
         <f t="shared" si="12"/>
-        <v>42.943840236211756</v>
+        <v>43.497486786288363</v>
       </c>
       <c r="I106">
         <f t="shared" si="12"/>
-        <v>34.170575900984261</v>
+        <v>34.512860629894462</v>
       </c>
       <c r="J106">
         <f t="shared" si="12"/>
-        <v>25.219597365315526</v>
+        <v>26.466185104959351</v>
       </c>
       <c r="K106">
         <f t="shared" si="12"/>
-        <v>184.49148443149983</v>
+        <v>177.19370404463399</v>
       </c>
       <c r="L106">
         <f t="shared" si="12"/>
-        <v>7.6031166098148644</v>
+        <v>7.0740876669723498</v>
       </c>
       <c r="M106">
         <f t="shared" si="12"/>
-        <v>98.079517199823471</v>
+        <v>100.4866963101445</v>
       </c>
       <c r="N106">
         <f t="shared" si="12"/>
@@ -19158,31 +19180,31 @@
       </c>
       <c r="O106">
         <f t="shared" si="12"/>
-        <v>49.823104955287185</v>
+        <v>43.246473876988375</v>
       </c>
       <c r="P106">
         <f t="shared" si="12"/>
-        <v>21.802836929173317</v>
+        <v>21.178493764416118</v>
       </c>
       <c r="Q106">
         <f t="shared" si="12"/>
-        <v>22.100620260877783</v>
+        <v>19.192618264169404</v>
       </c>
       <c r="R106">
         <f t="shared" si="12"/>
-        <v>5.3230146575767909</v>
+        <v>4.6850968157059167</v>
       </c>
       <c r="S106">
         <f t="shared" si="12"/>
-        <v>9.6852821852823752</v>
+        <v>9.8015596087248671</v>
       </c>
       <c r="T106">
         <f t="shared" si="12"/>
-        <v>14.209458316559385</v>
+        <v>13.83596714466943</v>
       </c>
       <c r="U106">
         <f t="shared" si="12"/>
-        <v>4.082204735171941</v>
+        <v>3.760995368738163</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -19191,55 +19213,55 @@
       </c>
       <c r="B107">
         <f t="shared" ref="B107:U107" si="13">IF(B85&gt;0,$A$2*(((B19^$B$2)*(B41^$C$2))/($E$2*B85)^$D$2),0)</f>
-        <v>98.614397827154463</v>
+        <v>92.898046544228549</v>
       </c>
       <c r="C107">
         <f t="shared" si="13"/>
-        <v>55.906516201597476</v>
+        <v>50.171805634049072</v>
       </c>
       <c r="D107">
         <f t="shared" si="13"/>
-        <v>48.745568192326211</v>
+        <v>43.246794196983011</v>
       </c>
       <c r="E107">
         <f t="shared" si="13"/>
-        <v>55.681531796092301</v>
+        <v>48.28408802409615</v>
       </c>
       <c r="F107">
         <f t="shared" si="13"/>
-        <v>31.032382040761103</v>
+        <v>27.765145759021337</v>
       </c>
       <c r="G107">
         <f t="shared" si="13"/>
-        <v>28.034380242342916</v>
+        <v>24.369806884610302</v>
       </c>
       <c r="H107">
         <f t="shared" si="13"/>
-        <v>91.379303782422383</v>
+        <v>80.365860577388815</v>
       </c>
       <c r="I107">
         <f t="shared" si="13"/>
-        <v>58.603125075094617</v>
+        <v>51.817078404218897</v>
       </c>
       <c r="J107">
         <f t="shared" si="13"/>
-        <v>26.602789088867684</v>
+        <v>24.896148588907241</v>
       </c>
       <c r="K107">
         <f t="shared" si="13"/>
-        <v>71.272199790641466</v>
+        <v>63.421471240050273</v>
       </c>
       <c r="L107">
         <f t="shared" si="13"/>
-        <v>9.0021229044917366</v>
+        <v>7.4364822934569483</v>
       </c>
       <c r="M107">
         <f t="shared" si="13"/>
-        <v>222.22161632295561</v>
+        <v>197.21509760662195</v>
       </c>
       <c r="N107">
         <f t="shared" si="13"/>
-        <v>49.823104955287185</v>
+        <v>43.246473876988375</v>
       </c>
       <c r="O107">
         <f t="shared" si="13"/>
@@ -19247,27 +19269,27 @@
       </c>
       <c r="P107">
         <f t="shared" si="13"/>
-        <v>21.642440120925631</v>
+        <v>18.790746734227909</v>
       </c>
       <c r="Q107">
         <f t="shared" si="13"/>
-        <v>43.546815524732153</v>
+        <v>32.931900732421518</v>
       </c>
       <c r="R107">
         <f t="shared" si="13"/>
-        <v>7.745203121113061</v>
+        <v>6.0052711290055285</v>
       </c>
       <c r="S107">
         <f t="shared" si="13"/>
-        <v>7.7325637696030709</v>
+        <v>7.052767250388337</v>
       </c>
       <c r="T107">
         <f t="shared" si="13"/>
-        <v>22.242732892670578</v>
+        <v>19.026197568110565</v>
       </c>
       <c r="U107">
         <f t="shared" si="13"/>
-        <v>4.5381011118195795</v>
+        <v>3.7210641950976751</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
@@ -19276,59 +19298,59 @@
       </c>
       <c r="B108">
         <f t="shared" ref="B108:U108" si="14">IF(B86&gt;0,$A$2*(((B20^$B$2)*(B42^$C$2))/($E$2*B86)^$D$2),0)</f>
-        <v>282.8487862941704</v>
+        <v>277.6043748308399</v>
       </c>
       <c r="C108">
         <f t="shared" si="14"/>
-        <v>81.866104952359649</v>
+        <v>78.525768446251021</v>
       </c>
       <c r="D108">
         <f t="shared" si="14"/>
-        <v>77.153565839591181</v>
+        <v>72.945881393571369</v>
       </c>
       <c r="E108">
         <f t="shared" si="14"/>
-        <v>41.664530545691008</v>
+        <v>39.615074228470398</v>
       </c>
       <c r="F108">
         <f t="shared" si="14"/>
-        <v>37.804540684417596</v>
+        <v>36.40650806473932</v>
       </c>
       <c r="G108">
         <f t="shared" si="14"/>
-        <v>28.085097029482291</v>
+        <v>26.473909149646172</v>
       </c>
       <c r="H108">
         <f t="shared" si="14"/>
-        <v>43.204710256874485</v>
+        <v>42.397378147851597</v>
       </c>
       <c r="I108">
         <f t="shared" si="14"/>
-        <v>33.399106510457663</v>
+        <v>32.717896203500004</v>
       </c>
       <c r="J108">
         <f t="shared" si="14"/>
-        <v>167.19025560536662</v>
+        <v>158.22112482142836</v>
       </c>
       <c r="K108">
         <f t="shared" si="14"/>
-        <v>37.886752244540297</v>
+        <v>37.450043589064414</v>
       </c>
       <c r="L108">
         <f t="shared" si="14"/>
-        <v>11.799561550628558</v>
+        <v>10.462356107378223</v>
       </c>
       <c r="M108">
         <f t="shared" si="14"/>
-        <v>79.186477660416713</v>
+        <v>79.261151652598357</v>
       </c>
       <c r="N108">
         <f t="shared" si="14"/>
-        <v>21.802836929173317</v>
+        <v>21.178493764416118</v>
       </c>
       <c r="O108">
         <f t="shared" si="14"/>
-        <v>21.642440120925631</v>
+        <v>18.790746734227909</v>
       </c>
       <c r="P108">
         <f t="shared" si="14"/>
@@ -19336,23 +19358,23 @@
       </c>
       <c r="Q108">
         <f t="shared" si="14"/>
-        <v>12.568661249180471</v>
+        <v>10.8065308044366</v>
       </c>
       <c r="R108">
         <f t="shared" si="14"/>
-        <v>3.8055489773610582</v>
+        <v>3.2875021701373579</v>
       </c>
       <c r="S108">
         <f t="shared" si="14"/>
-        <v>15.493912979624529</v>
+        <v>14.92546156777922</v>
       </c>
       <c r="T108">
         <f t="shared" si="14"/>
-        <v>13.294396566544094</v>
+        <v>12.57606641696202</v>
       </c>
       <c r="U108">
         <f t="shared" si="14"/>
-        <v>5.5960074057233724</v>
+        <v>4.9365193993400904</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
@@ -19361,63 +19383,63 @@
       </c>
       <c r="B109">
         <f t="shared" ref="B109:U109" si="15">IF(B87&gt;0,$A$2*(((B21^$B$2)*(B43^$C$2))/($E$2*B87)^$D$2),0)</f>
-        <v>59.558890471161192</v>
+        <v>55.478515689663368</v>
       </c>
       <c r="C109">
         <f t="shared" si="15"/>
-        <v>35.270626186006432</v>
+        <v>31.246538035124424</v>
       </c>
       <c r="D109">
         <f t="shared" si="15"/>
-        <v>25.50581493225986</v>
+        <v>22.497776745047108</v>
       </c>
       <c r="E109">
         <f t="shared" si="15"/>
-        <v>29.182092435745233</v>
+        <v>25.157311906888001</v>
       </c>
       <c r="F109">
         <f t="shared" si="15"/>
-        <v>25.929568549227358</v>
+        <v>22.658451996976584</v>
       </c>
       <c r="G109">
         <f t="shared" si="15"/>
-        <v>24.015922007591904</v>
+        <v>20.37035748907326</v>
       </c>
       <c r="H109">
         <f t="shared" si="15"/>
-        <v>51.978768252745397</v>
+        <v>45.305579169416362</v>
       </c>
       <c r="I109">
         <f t="shared" si="15"/>
-        <v>62.63266050099444</v>
+        <v>53.584257601903118</v>
       </c>
       <c r="J109">
         <f t="shared" si="15"/>
-        <v>16.684830832467583</v>
+        <v>15.417553336575189</v>
       </c>
       <c r="K109">
         <f t="shared" si="15"/>
-        <v>28.07249265712996</v>
+        <v>25.105567743699101</v>
       </c>
       <c r="L109">
         <f t="shared" si="15"/>
-        <v>7.5346806271684148</v>
+        <v>6.0786820010787812</v>
       </c>
       <c r="M109">
         <f t="shared" si="15"/>
-        <v>71.260760459382112</v>
+        <v>64.05803149320424</v>
       </c>
       <c r="N109">
         <f t="shared" si="15"/>
-        <v>22.100620260877783</v>
+        <v>19.192618264169404</v>
       </c>
       <c r="O109">
         <f t="shared" si="15"/>
-        <v>43.546815524732153</v>
+        <v>32.931900732421518</v>
       </c>
       <c r="P109">
         <f t="shared" si="15"/>
-        <v>12.568661249180471</v>
+        <v>10.8065308044366</v>
       </c>
       <c r="Q109">
         <f t="shared" si="15"/>
@@ -19425,19 +19447,19 @@
       </c>
       <c r="R109">
         <f t="shared" si="15"/>
-        <v>14.473372942535287</v>
+        <v>10.629783725724643</v>
       </c>
       <c r="S109">
         <f t="shared" si="15"/>
-        <v>5.1509133320046896</v>
+        <v>4.6282171186038203</v>
       </c>
       <c r="T109">
         <f t="shared" si="15"/>
-        <v>27.712708605257365</v>
+        <v>22.803081140073992</v>
       </c>
       <c r="U109">
         <f t="shared" si="15"/>
-        <v>3.9299324367826718</v>
+        <v>3.1429500205329446</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -19446,67 +19468,67 @@
       </c>
       <c r="B110">
         <f t="shared" ref="B110:U110" si="16">IF(B88&gt;0,$A$2*(((B22^$B$2)*(B44^$C$2))/($E$2*B88)^$D$2),0)</f>
-        <v>18.211403903155503</v>
+        <v>17.037692168390858</v>
       </c>
       <c r="C110">
         <f t="shared" si="16"/>
-        <v>10.770275125695576</v>
+        <v>9.5835590251384932</v>
       </c>
       <c r="D110">
         <f t="shared" si="16"/>
-        <v>7.1448426216962755</v>
+        <v>6.3508102080349058</v>
       </c>
       <c r="E110">
         <f t="shared" si="16"/>
-        <v>7.7329964708816128</v>
+        <v>6.732078297148961</v>
       </c>
       <c r="F110">
         <f t="shared" si="16"/>
-        <v>10.105194468033712</v>
+        <v>8.787426196174712</v>
       </c>
       <c r="G110">
         <f t="shared" si="16"/>
-        <v>9.1565279237587376</v>
+        <v>7.7352487782409209</v>
       </c>
       <c r="H110">
         <f t="shared" si="16"/>
-        <v>12.821320757997524</v>
+        <v>11.316075053200885</v>
       </c>
       <c r="I110">
         <f t="shared" si="16"/>
-        <v>21.95607197562699</v>
+        <v>18.768194478957092</v>
       </c>
       <c r="J110">
         <f t="shared" si="16"/>
-        <v>5.2908520714587937</v>
+        <v>4.9035111338849333</v>
       </c>
       <c r="K110">
         <f t="shared" si="16"/>
-        <v>6.8796604630899605</v>
+        <v>6.2316164059805628</v>
       </c>
       <c r="L110">
         <f t="shared" si="16"/>
-        <v>3.0038117414510479</v>
+        <v>2.4094859208632373</v>
       </c>
       <c r="M110">
         <f t="shared" si="16"/>
-        <v>16.360590467635717</v>
+        <v>14.932913558184667</v>
       </c>
       <c r="N110">
         <f t="shared" si="16"/>
-        <v>5.3230146575767909</v>
+        <v>4.6850968157059167</v>
       </c>
       <c r="O110">
         <f t="shared" si="16"/>
-        <v>7.745203121113061</v>
+        <v>6.0052711290055285</v>
       </c>
       <c r="P110">
         <f t="shared" si="16"/>
-        <v>3.8055489773610582</v>
+        <v>3.2875021701373579</v>
       </c>
       <c r="Q110">
         <f t="shared" si="16"/>
-        <v>14.473372942535287</v>
+        <v>10.629783725724643</v>
       </c>
       <c r="R110">
         <f t="shared" si="16"/>
@@ -19514,15 +19536,15 @@
       </c>
       <c r="S110">
         <f t="shared" si="16"/>
-        <v>1.6792360488466251</v>
+        <v>1.5117215690352064</v>
       </c>
       <c r="T110">
         <f t="shared" si="16"/>
-        <v>13.610239232013832</v>
+        <v>11.04694761559381</v>
       </c>
       <c r="U110">
         <f t="shared" si="16"/>
-        <v>1.6397479307308609</v>
+        <v>1.3016196846783326</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -19531,71 +19553,71 @@
       </c>
       <c r="B111">
         <f t="shared" ref="B111:U111" si="17">IF(B89&gt;0,$A$2*(((B23^$B$2)*(B45^$C$2))/($E$2*B89)^$D$2),0)</f>
-        <v>43.378828367709957</v>
+        <v>46.186801176591466</v>
       </c>
       <c r="C111">
         <f t="shared" si="17"/>
-        <v>18.207108956635341</v>
+        <v>18.680042256795854</v>
       </c>
       <c r="D111">
         <f t="shared" si="17"/>
-        <v>14.085069400536536</v>
+        <v>14.351371599391788</v>
       </c>
       <c r="E111">
         <f t="shared" si="17"/>
-        <v>10.469036356718801</v>
+        <v>10.597746495268948</v>
       </c>
       <c r="F111">
         <f t="shared" si="17"/>
-        <v>13.840349073787063</v>
+        <v>13.98871121872485</v>
       </c>
       <c r="G111">
         <f t="shared" si="17"/>
-        <v>9.6322610886629665</v>
+        <v>9.5530994989786535</v>
       </c>
       <c r="H111">
         <f t="shared" si="17"/>
-        <v>12.748108331553027</v>
+        <v>13.237703439245855</v>
       </c>
       <c r="I111">
         <f t="shared" si="17"/>
-        <v>11.933042970462008</v>
+        <v>12.280045855185882</v>
       </c>
       <c r="J111">
         <f t="shared" si="17"/>
-        <v>19.781583806837226</v>
+        <v>20.510116563380866</v>
       </c>
       <c r="K111">
         <f t="shared" si="17"/>
-        <v>14.44284659010065</v>
+        <v>14.960474676315016</v>
       </c>
       <c r="L111">
         <f t="shared" si="17"/>
-        <v>4.9174235926081238</v>
+        <v>4.5536190603805444</v>
       </c>
       <c r="M111">
         <f t="shared" si="17"/>
-        <v>22.302166121521427</v>
+        <v>23.663795533154438</v>
       </c>
       <c r="N111">
         <f t="shared" si="17"/>
-        <v>9.6852821852823752</v>
+        <v>9.8015596087248671</v>
       </c>
       <c r="O111">
         <f t="shared" si="17"/>
-        <v>7.7325637696030709</v>
+        <v>7.052767250388337</v>
       </c>
       <c r="P111">
         <f t="shared" si="17"/>
-        <v>15.493912979624529</v>
+        <v>14.92546156777922</v>
       </c>
       <c r="Q111">
         <f t="shared" si="17"/>
-        <v>5.1509133320046896</v>
+        <v>4.6282171186038203</v>
       </c>
       <c r="R111">
         <f t="shared" si="17"/>
-        <v>1.6792360488466251</v>
+        <v>1.5117215690352064</v>
       </c>
       <c r="S111">
         <f t="shared" si="17"/>
@@ -19603,11 +19625,11 @@
       </c>
       <c r="T111">
         <f t="shared" si="17"/>
-        <v>5.185692137314553</v>
+        <v>5.1360736420662452</v>
       </c>
       <c r="U111">
         <f t="shared" si="17"/>
-        <v>2.8705613690035299</v>
+        <v>2.623816723102645</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -19616,75 +19638,75 @@
       </c>
       <c r="B112">
         <f t="shared" ref="B112:U112" si="18">IF(B90&gt;0,$A$2*(((B24^$B$2)*(B46^$C$2))/($E$2*B90)^$D$2),0)</f>
-        <v>71.063200808694575</v>
+        <v>72.495659508660268</v>
       </c>
       <c r="C112">
         <f t="shared" si="18"/>
-        <v>46.239775579640593</v>
+        <v>44.703104029206813</v>
       </c>
       <c r="D112">
         <f t="shared" si="18"/>
-        <v>27.1989583790034</v>
+        <v>26.387436174591826</v>
       </c>
       <c r="E112">
         <f t="shared" si="18"/>
-        <v>31.468434459361852</v>
+        <v>29.825186363572179</v>
       </c>
       <c r="F112">
         <f t="shared" si="18"/>
-        <v>47.81024329457491</v>
+        <v>45.00443661310193</v>
       </c>
       <c r="G112">
         <f t="shared" si="18"/>
-        <v>52.637792940737747</v>
+        <v>47.779448198074292</v>
       </c>
       <c r="H112">
         <f t="shared" si="18"/>
-        <v>54.270896232102501</v>
+        <v>52.069819999204583</v>
       </c>
       <c r="I112">
         <f t="shared" si="18"/>
-        <v>207.77062932693082</v>
+        <v>187.24875619639622</v>
       </c>
       <c r="J112">
         <f t="shared" si="18"/>
-        <v>19.28000896777829</v>
+        <v>19.535253619380374</v>
       </c>
       <c r="K112">
         <f t="shared" si="18"/>
-        <v>19.797357607249982</v>
+        <v>19.78205142061875</v>
       </c>
       <c r="L112">
         <f t="shared" si="18"/>
-        <v>12.48469620010869</v>
+        <v>10.89399732912044</v>
       </c>
       <c r="M112">
         <f t="shared" si="18"/>
-        <v>56.209527721727575</v>
+        <v>56.215795100351045</v>
       </c>
       <c r="N112">
         <f t="shared" si="18"/>
-        <v>14.209458316559385</v>
+        <v>13.83596714466943</v>
       </c>
       <c r="O112">
         <f t="shared" si="18"/>
-        <v>22.242732892670578</v>
+        <v>19.026197568110565</v>
       </c>
       <c r="P112">
         <f t="shared" si="18"/>
-        <v>13.294396566544094</v>
+        <v>12.57606641696202</v>
       </c>
       <c r="Q112">
         <f t="shared" si="18"/>
-        <v>27.712708605257365</v>
+        <v>22.803081140073992</v>
       </c>
       <c r="R112">
         <f t="shared" si="18"/>
-        <v>13.610239232013832</v>
+        <v>11.04694761559381</v>
       </c>
       <c r="S112">
         <f t="shared" si="18"/>
-        <v>5.185692137314553</v>
+        <v>5.1360736420662452</v>
       </c>
       <c r="T112">
         <f t="shared" si="18"/>
@@ -19692,7 +19714,7 @@
       </c>
       <c r="U112">
         <f t="shared" si="18"/>
-        <v>5.9216850839352722</v>
+        <v>5.1408087117419266</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
@@ -19701,79 +19723,79 @@
       </c>
       <c r="B113">
         <f t="shared" ref="B113:U113" si="19">IF(B91&gt;0,$A$2*(((B25^$B$2)*(B47^$C$2))/($E$2*B91)^$D$2),0)</f>
-        <v>25.91071944094892</v>
+        <v>24.784804033730619</v>
       </c>
       <c r="C113">
         <f t="shared" si="19"/>
-        <v>13.531689868762165</v>
+        <v>12.369296891447517</v>
       </c>
       <c r="D113">
         <f t="shared" si="19"/>
-        <v>7.9744185455096979</v>
+        <v>7.3144915191197608</v>
       </c>
       <c r="E113">
         <f t="shared" si="19"/>
-        <v>7.0178135430156905</v>
+        <v>6.3543233718274807</v>
       </c>
       <c r="F113">
         <f t="shared" si="19"/>
-        <v>24.912986922095257</v>
+        <v>21.692066662997373</v>
       </c>
       <c r="G113">
         <f t="shared" si="19"/>
-        <v>13.049652174508662</v>
+        <v>11.270760748301337</v>
       </c>
       <c r="H113">
         <f t="shared" si="19"/>
-        <v>9.3306601945121681</v>
+        <v>8.6375009437298154</v>
       </c>
       <c r="I113">
         <f t="shared" si="19"/>
-        <v>12.110739285472624</v>
+        <v>10.973095519311816</v>
       </c>
       <c r="J113">
         <f t="shared" si="19"/>
-        <v>9.0818013547228613</v>
+        <v>8.5446054350690268</v>
       </c>
       <c r="K113">
         <f t="shared" si="19"/>
-        <v>5.8079147895038234</v>
+        <v>5.4867402247857315</v>
       </c>
       <c r="L113">
         <f t="shared" si="19"/>
-        <v>14.59486037209069</v>
+        <v>11.423600603737444</v>
       </c>
       <c r="M113">
         <f t="shared" si="19"/>
-        <v>12.73323144238937</v>
+        <v>12.158718436021342</v>
       </c>
       <c r="N113">
         <f t="shared" si="19"/>
-        <v>4.082204735171941</v>
+        <v>3.760995368738163</v>
       </c>
       <c r="O113">
         <f t="shared" si="19"/>
-        <v>4.5381011118195795</v>
+        <v>3.7210641950976751</v>
       </c>
       <c r="P113">
         <f t="shared" si="19"/>
-        <v>5.5960074057233724</v>
+        <v>4.9365193993400904</v>
       </c>
       <c r="Q113">
         <f t="shared" si="19"/>
-        <v>3.9299324367826718</v>
+        <v>3.1429500205329446</v>
       </c>
       <c r="R113">
         <f t="shared" si="19"/>
-        <v>1.6397479307308609</v>
+        <v>1.3016196846783326</v>
       </c>
       <c r="S113">
         <f t="shared" si="19"/>
-        <v>2.8705613690035299</v>
+        <v>2.623816723102645</v>
       </c>
       <c r="T113">
         <f t="shared" si="19"/>
-        <v>5.9216850839352722</v>
+        <v>5.1408087117419266</v>
       </c>
       <c r="U113">
         <f t="shared" si="19"/>
@@ -19855,79 +19877,79 @@
       </c>
       <c r="C116">
         <f>ABS(C94-'Group 6'!D16)</f>
-        <v>3.8221781233005458E-4</v>
+        <v>3.9169957061236573</v>
       </c>
       <c r="D116">
         <f>ABS(D94-'Group 6'!E16)</f>
-        <v>14.606043524025836</v>
+        <v>12.015132225198727</v>
       </c>
       <c r="E116">
         <f>ABS(E94-'Group 6'!F16)</f>
-        <v>4.475101291529711</v>
+        <v>1.8054732661482831E-2</v>
       </c>
       <c r="F116">
         <f>ABS(F94-'Group 6'!G16)</f>
-        <v>0.69094555044503636</v>
+        <v>8.4267295704663923</v>
       </c>
       <c r="G116">
         <f>ABS(G94-'Group 6'!H16)</f>
-        <v>8.7677937052447135</v>
+        <v>10.610081280701138</v>
       </c>
       <c r="H116">
         <f>ABS(H94-'Group 6'!I16)</f>
-        <v>13.774428530527416</v>
+        <v>0.14296574429528164</v>
       </c>
       <c r="I116">
         <f>ABS(I94-'Group 6'!J16)</f>
-        <v>16.024999759326477</v>
+        <v>5.7920243590836549</v>
       </c>
       <c r="J116">
         <f>ABS(J94-'Group 6'!K16)</f>
-        <v>25.234956888635736</v>
+        <v>3.6259229706098495</v>
       </c>
       <c r="K116">
         <f>ABS(K94-'Group 6'!L16)</f>
-        <v>4.5879513472307849</v>
+        <v>15.758859212990671</v>
       </c>
       <c r="L116">
         <f>ABS(L94-'Group 6'!M16)</f>
-        <v>17.655235484517192</v>
+        <v>15.006535304094221</v>
       </c>
       <c r="M116">
         <f>ABS(M94-'Group 6'!N16)</f>
-        <v>35.371832564719682</v>
+        <v>2.8015089070682393</v>
       </c>
       <c r="N116">
         <f>ABS(N94-'Group 6'!O16)</f>
-        <v>1.7221262472696424</v>
+        <v>6.7495959201691988</v>
       </c>
       <c r="O116">
         <f>ABS(O94-'Group 6'!P16)</f>
-        <v>5.6143978271544626</v>
+        <v>0.10195345577145076</v>
       </c>
       <c r="P116">
         <f>ABS(P94-'Group 6'!Q16)</f>
-        <v>8.8487862941703952</v>
+        <v>3.6043748308399017</v>
       </c>
       <c r="Q116">
         <f>ABS(Q94-'Group 6'!R16)</f>
-        <v>9.4411095288388083</v>
+        <v>13.521484310336632</v>
       </c>
       <c r="R116">
         <f>ABS(R94-'Group 6'!S16)</f>
-        <v>1.7885960968444969</v>
+        <v>2.9623078316091416</v>
       </c>
       <c r="S116">
         <f>ABS(S94-'Group 6'!T16)</f>
-        <v>2.6211716322900429</v>
+        <v>0.18680117659146589</v>
       </c>
       <c r="T116">
         <f>ABS(T94-'Group 6'!U16)</f>
-        <v>4.0632008086945746</v>
+        <v>5.4956595086602675</v>
       </c>
       <c r="U116">
         <f>ABS(U94-'Group 6'!V16)</f>
-        <v>13.91071944094892</v>
+        <v>12.784804033730619</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -19936,7 +19958,7 @@
       </c>
       <c r="B117">
         <f>ABS(B95-'Group 6'!C17)</f>
-        <v>3.8221781233005458E-4</v>
+        <v>3.9169957061236573</v>
       </c>
       <c r="C117">
         <f>ABS(C95-'Group 6'!D17)</f>
@@ -19944,75 +19966,75 @@
       </c>
       <c r="D117">
         <f>ABS(D95-'Group 6'!E17)</f>
-        <v>14.348054523759629</v>
+        <v>3.8563719079322141</v>
       </c>
       <c r="E117">
         <f>ABS(E95-'Group 6'!F17)</f>
-        <v>10.611787767157324</v>
+        <v>20.634936644833658</v>
       </c>
       <c r="F117">
         <f>ABS(F95-'Group 6'!G17)</f>
-        <v>10.821781276043481</v>
+        <v>8.5103046136430294</v>
       </c>
       <c r="G117">
         <f>ABS(G95-'Group 6'!H17)</f>
-        <v>11.546162257546413</v>
+        <v>5.7971084247087106</v>
       </c>
       <c r="H117">
         <f>ABS(H95-'Group 6'!I17)</f>
-        <v>3.7809948920187537</v>
+        <v>5.0663067331305172</v>
       </c>
       <c r="I117">
         <f>ABS(I95-'Group 6'!J17)</f>
-        <v>11.937443197650111</v>
+        <v>12.429794493058267</v>
       </c>
       <c r="J117">
         <f>ABS(J95-'Group 6'!K17)</f>
-        <v>2.3312431656496813</v>
+        <v>0.79175477000387673</v>
       </c>
       <c r="K117">
         <f>ABS(K95-'Group 6'!L17)</f>
-        <v>6.1466779961711921</v>
+        <v>8.5988592320498327</v>
       </c>
       <c r="L117">
         <f>ABS(L95-'Group 6'!M17)</f>
-        <v>6.208818102880997</v>
+        <v>9.1522665293500225</v>
       </c>
       <c r="M117">
         <f>ABS(M95-'Group 6'!N17)</f>
-        <v>20.669326902445363</v>
+        <v>13.766011252024839</v>
       </c>
       <c r="N117">
         <f>ABS(N95-'Group 6'!O17)</f>
-        <v>6.9595955615230878</v>
+        <v>7.6472914603057944</v>
       </c>
       <c r="O117">
         <f>ABS(O95-'Group 6'!P17)</f>
-        <v>9.0934837984025236</v>
+        <v>14.828194365950928</v>
       </c>
       <c r="P117">
         <f>ABS(P95-'Group 6'!Q17)</f>
-        <v>13.866104952359649</v>
+        <v>10.525768446251021</v>
       </c>
       <c r="Q117">
         <f>ABS(Q95-'Group 6'!R17)</f>
-        <v>2.2706261860064316</v>
+        <v>1.7534619648755765</v>
       </c>
       <c r="R117">
         <f>ABS(R95-'Group 6'!S17)</f>
-        <v>13.229724874304424</v>
+        <v>14.416440974861507</v>
       </c>
       <c r="S117">
         <f>ABS(S95-'Group 6'!T17)</f>
-        <v>13.792891043364659</v>
+        <v>13.319957743204146</v>
       </c>
       <c r="T117">
         <f>ABS(T95-'Group 6'!U17)</f>
-        <v>3.2397755796405932</v>
+        <v>1.7031040292068127</v>
       </c>
       <c r="U117">
         <f>ABS(U95-'Group 6'!V17)</f>
-        <v>9.4683101312378355</v>
+        <v>10.630703108552483</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -20021,11 +20043,11 @@
       </c>
       <c r="B118">
         <f>ABS(B96-'Group 6'!C18)</f>
-        <v>14.606043524025836</v>
+        <v>12.015132225198727</v>
       </c>
       <c r="C118">
         <f>ABS(C96-'Group 6'!D18)</f>
-        <v>14.348054523759629</v>
+        <v>3.8563719079322141</v>
       </c>
       <c r="D118">
         <f>ABS(D96-'Group 6'!E18)</f>
@@ -20033,71 +20055,71 @@
       </c>
       <c r="E118">
         <f>ABS(E96-'Group 6'!F18)</f>
-        <v>8.9959947393855657</v>
+        <v>2.0186747177214954</v>
       </c>
       <c r="F118">
         <f>ABS(F96-'Group 6'!G18)</f>
-        <v>12.893168119424558</v>
+        <v>13.274505492694345</v>
       </c>
       <c r="G118">
         <f>ABS(G96-'Group 6'!H18)</f>
-        <v>14.731520202338338</v>
+        <v>12.871372617673572</v>
       </c>
       <c r="H118">
         <f>ABS(H96-'Group 6'!I18)</f>
-        <v>13.145823471466315</v>
+        <v>14.58701967692997</v>
       </c>
       <c r="I118">
         <f>ABS(I96-'Group 6'!J18)</f>
-        <v>15.360778503224921</v>
+        <v>15.301392153025461</v>
       </c>
       <c r="J118">
         <f>ABS(J96-'Group 6'!K18)</f>
-        <v>1.0061966564856277</v>
+        <v>0.82055138582477127</v>
       </c>
       <c r="K118">
         <f>ABS(K96-'Group 6'!L18)</f>
-        <v>2.8140826271123345</v>
+        <v>1.4450470226558991</v>
       </c>
       <c r="L118">
         <f>ABS(L96-'Group 6'!M18)</f>
-        <v>5.0310285231724166</v>
+        <v>6.4753371647766329</v>
       </c>
       <c r="M118">
         <f>ABS(M96-'Group 6'!N18)</f>
-        <v>0.67601796741740827</v>
+        <v>3.1503499063656761</v>
       </c>
       <c r="N118">
         <f>ABS(N96-'Group 6'!O18)</f>
-        <v>2.2387936418911849</v>
+        <v>2.0736016663027144</v>
       </c>
       <c r="O118">
         <f>ABS(O96-'Group 6'!P18)</f>
-        <v>5.7455681923262105</v>
+        <v>0.24679419698301075</v>
       </c>
       <c r="P118">
         <f>ABS(P96-'Group 6'!Q18)</f>
-        <v>12.153565839591181</v>
+        <v>7.9458813935713692</v>
       </c>
       <c r="Q118">
         <f>ABS(Q96-'Group 6'!R18)</f>
-        <v>6.5058149322598595</v>
+        <v>3.4977767450471084</v>
       </c>
       <c r="R118">
         <f>ABS(R96-'Group 6'!S18)</f>
-        <v>2.1448426216962755</v>
+        <v>1.3508102080349058</v>
       </c>
       <c r="S118">
         <f>ABS(S96-'Group 6'!T18)</f>
-        <v>11.085069400536536</v>
+        <v>11.351371599391788</v>
       </c>
       <c r="T118">
         <f>ABS(T96-'Group 6'!U18)</f>
-        <v>7.8010416209965996</v>
+        <v>8.6125638254081736</v>
       </c>
       <c r="U118">
         <f>ABS(U96-'Group 6'!V18)</f>
-        <v>5.0255814544903021</v>
+        <v>5.6855084808802392</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -20106,15 +20128,15 @@
       </c>
       <c r="B119">
         <f>ABS(B97-'Group 6'!C19)</f>
-        <v>4.475101291529711</v>
+        <v>1.8054732661482831E-2</v>
       </c>
       <c r="C119">
         <f>ABS(C97-'Group 6'!D19)</f>
-        <v>10.611787767157324</v>
+        <v>20.634936644833658</v>
       </c>
       <c r="D119">
         <f>ABS(D97-'Group 6'!E19)</f>
-        <v>8.9959947393855657</v>
+        <v>2.0186747177214954</v>
       </c>
       <c r="E119">
         <f>ABS(E97-'Group 6'!F19)</f>
@@ -20122,67 +20144,67 @@
       </c>
       <c r="F119">
         <f>ABS(F97-'Group 6'!G19)</f>
-        <v>0.5892384851972281</v>
+        <v>1.8341272540848692</v>
       </c>
       <c r="G119">
         <f>ABS(G97-'Group 6'!H19)</f>
-        <v>17.118854837791652</v>
+        <v>14.083886117754616</v>
       </c>
       <c r="H119">
         <f>ABS(H97-'Group 6'!I19)</f>
-        <v>0.14328554581777553</v>
+        <v>17.948488577406124</v>
       </c>
       <c r="I119">
         <f>ABS(I97-'Group 6'!J19)</f>
-        <v>15.698578120908678</v>
+        <v>13.183588029452892</v>
       </c>
       <c r="J119">
         <f>ABS(J97-'Group 6'!K19)</f>
-        <v>9.9196035001968141</v>
+        <v>11.135111484434141</v>
       </c>
       <c r="K119">
         <f>ABS(K97-'Group 6'!L19)</f>
-        <v>1.0014569926474053</v>
+        <v>1.5515339776411068</v>
       </c>
       <c r="L119">
         <f>ABS(L97-'Group 6'!M19)</f>
-        <v>1.123039904462626</v>
+        <v>2.5890409933370524</v>
       </c>
       <c r="M119">
         <f>ABS(M97-'Group 6'!N19)</f>
-        <v>4.424727684457423</v>
+        <v>0.81880425547132063</v>
       </c>
       <c r="N119">
         <f>ABS(N97-'Group 6'!O19)</f>
-        <v>15.257327127835907</v>
+        <v>15.530809375968268</v>
       </c>
       <c r="O119">
         <f>ABS(O97-'Group 6'!P19)</f>
-        <v>8.3184682039076989</v>
+        <v>15.71591197590385</v>
       </c>
       <c r="P119">
         <f>ABS(P97-'Group 6'!Q19)</f>
-        <v>12.335469454308992</v>
+        <v>14.384925771529602</v>
       </c>
       <c r="Q119">
         <f>ABS(Q97-'Group 6'!R19)</f>
-        <v>6.8179075642547673</v>
+        <v>10.842688093111999</v>
       </c>
       <c r="R119">
         <f>ABS(R97-'Group 6'!S19)</f>
-        <v>6.7329964708816128</v>
+        <v>5.732078297148961</v>
       </c>
       <c r="S119">
         <f>ABS(S97-'Group 6'!T19)</f>
-        <v>10.530963643281199</v>
+        <v>10.402253504731052</v>
       </c>
       <c r="T119">
         <f>ABS(T97-'Group 6'!U19)</f>
-        <v>8.5315655406381481</v>
+        <v>10.174813636427821</v>
       </c>
       <c r="U119">
         <f>ABS(U97-'Group 6'!V19)</f>
-        <v>6.0178135430156905</v>
+        <v>5.3543233718274807</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -20191,19 +20213,19 @@
       </c>
       <c r="B120">
         <f>ABS(B98-'Group 6'!C20)</f>
-        <v>0.69094555044503636</v>
+        <v>8.4267295704663923</v>
       </c>
       <c r="C120">
         <f>ABS(C98-'Group 6'!D20)</f>
-        <v>10.821781276043481</v>
+        <v>8.5103046136430294</v>
       </c>
       <c r="D120">
         <f>ABS(D98-'Group 6'!E20)</f>
-        <v>12.893168119424558</v>
+        <v>13.274505492694345</v>
       </c>
       <c r="E120">
         <f>ABS(E98-'Group 6'!F20)</f>
-        <v>0.5892384851972281</v>
+        <v>1.8341272540848692</v>
       </c>
       <c r="F120">
         <f>ABS(F98-'Group 6'!G20)</f>
@@ -20211,63 +20233,63 @@
       </c>
       <c r="G120">
         <f>ABS(G98-'Group 6'!H20)</f>
-        <v>31.602701409160289</v>
+        <v>8.0782072912501235</v>
       </c>
       <c r="H120">
         <f>ABS(H98-'Group 6'!I20)</f>
-        <v>4.8528921778376457</v>
+        <v>4.7054579816376929</v>
       </c>
       <c r="I120">
         <f>ABS(I98-'Group 6'!J20)</f>
-        <v>11.43972664224431</v>
+        <v>9.117205619210452</v>
       </c>
       <c r="J120">
         <f>ABS(J98-'Group 6'!K20)</f>
-        <v>16.693221783684109</v>
+        <v>15.068549753834276</v>
       </c>
       <c r="K120">
         <f>ABS(K98-'Group 6'!L20)</f>
-        <v>2.1996925323922838</v>
+        <v>3.4474306009525222</v>
       </c>
       <c r="L120">
         <f>ABS(L98-'Group 6'!M20)</f>
-        <v>0.61513981180270605</v>
+        <v>18.361618772323098</v>
       </c>
       <c r="M120">
         <f>ABS(M98-'Group 6'!N20)</f>
-        <v>16.206618740018982</v>
+        <v>12.550023254195267</v>
       </c>
       <c r="N120">
         <f>ABS(N98-'Group 6'!O20)</f>
-        <v>5.4732425205900235</v>
+        <v>5.7266245663044657</v>
       </c>
       <c r="O120">
         <f>ABS(O98-'Group 6'!P20)</f>
-        <v>2.0323820407611031</v>
+        <v>1.2348542409786631</v>
       </c>
       <c r="P120">
         <f>ABS(P98-'Group 6'!Q20)</f>
-        <v>10.195459315582404</v>
+        <v>11.59349193526068</v>
       </c>
       <c r="Q120">
         <f>ABS(Q98-'Group 6'!R20)</f>
-        <v>6.0704314507726416</v>
+        <v>9.3415480030234157</v>
       </c>
       <c r="R120">
         <f>ABS(R98-'Group 6'!S20)</f>
-        <v>10.894805531966288</v>
+        <v>12.212573803825288</v>
       </c>
       <c r="S120">
         <f>ABS(S98-'Group 6'!T20)</f>
-        <v>3.1596509262129366</v>
+        <v>3.0112887812751499</v>
       </c>
       <c r="T120">
         <f>ABS(T98-'Group 6'!U20)</f>
-        <v>3.1897567054250899</v>
+        <v>5.9955633868980698</v>
       </c>
       <c r="U120">
         <f>ABS(U98-'Group 6'!V20)</f>
-        <v>1.9129869220952571</v>
+        <v>1.3079333370026269</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -20276,23 +20298,23 @@
       </c>
       <c r="B121">
         <f>ABS(B99-'Group 6'!C21)</f>
-        <v>8.7677937052447135</v>
+        <v>10.610081280701138</v>
       </c>
       <c r="C121">
         <f>ABS(C99-'Group 6'!D21)</f>
-        <v>11.546162257546413</v>
+        <v>5.7971084247087106</v>
       </c>
       <c r="D121">
         <f>ABS(D99-'Group 6'!E21)</f>
-        <v>14.731520202338338</v>
+        <v>12.871372617673572</v>
       </c>
       <c r="E121">
         <f>ABS(E99-'Group 6'!F21)</f>
-        <v>17.118854837791652</v>
+        <v>14.083886117754616</v>
       </c>
       <c r="F121">
         <f>ABS(F99-'Group 6'!G21)</f>
-        <v>31.602701409160289</v>
+        <v>8.0782072912501235</v>
       </c>
       <c r="G121">
         <f>ABS(G99-'Group 6'!H21)</f>
@@ -20300,59 +20322,59 @@
       </c>
       <c r="H121">
         <f>ABS(H99-'Group 6'!I21)</f>
-        <v>6.1323975602868757</v>
+        <v>3.5260135592308615</v>
       </c>
       <c r="I121">
         <f>ABS(I99-'Group 6'!J21)</f>
-        <v>7.9652045063414505</v>
+        <v>15.882826671521556</v>
       </c>
       <c r="J121">
         <f>ABS(J99-'Group 6'!K21)</f>
-        <v>4.7643345627996538</v>
+        <v>4.5089816516422871</v>
       </c>
       <c r="K121">
         <f>ABS(K99-'Group 6'!L21)</f>
-        <v>7.8902272019078268</v>
+        <v>8.144490597439475</v>
       </c>
       <c r="L121">
         <f>ABS(L99-'Group 6'!M21)</f>
-        <v>11.245702929497604</v>
+        <v>5.6126170435701681</v>
       </c>
       <c r="M121">
         <f>ABS(M99-'Group 6'!N21)</f>
-        <v>1.7320886972728857</v>
+        <v>2.4749122025861681</v>
       </c>
       <c r="N121">
         <f>ABS(N99-'Group 6'!O21)</f>
-        <v>11.161537568557868</v>
+        <v>10.860779894442196</v>
       </c>
       <c r="O121">
         <f>ABS(O99-'Group 6'!P21)</f>
-        <v>17.034380242342916</v>
+        <v>13.369806884610302</v>
       </c>
       <c r="P121">
         <f>ABS(P99-'Group 6'!Q21)</f>
-        <v>11.085097029482291</v>
+        <v>9.4739091496461718</v>
       </c>
       <c r="Q121">
         <f>ABS(Q99-'Group 6'!R21)</f>
-        <v>7.9840779924080962</v>
+        <v>11.62964251092674</v>
       </c>
       <c r="R121">
         <f>ABS(R99-'Group 6'!S21)</f>
-        <v>6.8434720762412624</v>
+        <v>8.2647512217590791</v>
       </c>
       <c r="S121">
         <f>ABS(S99-'Group 6'!T21)</f>
-        <v>0.63226108866296649</v>
+        <v>0.55309949897865351</v>
       </c>
       <c r="T121">
         <f>ABS(T99-'Group 6'!U21)</f>
-        <v>0.36220705926225349</v>
+        <v>5.2205518019257084</v>
       </c>
       <c r="U121">
         <f>ABS(U99-'Group 6'!V21)</f>
-        <v>12.049652174508662</v>
+        <v>10.270760748301337</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
@@ -20361,27 +20383,27 @@
       </c>
       <c r="B122">
         <f>ABS(B100-'Group 6'!C22)</f>
-        <v>13.774428530527416</v>
+        <v>0.14296574429528164</v>
       </c>
       <c r="C122">
         <f>ABS(C100-'Group 6'!D22)</f>
-        <v>3.7809948920187537</v>
+        <v>5.0663067331305172</v>
       </c>
       <c r="D122">
         <f>ABS(D100-'Group 6'!E22)</f>
-        <v>13.145823471466315</v>
+        <v>14.58701967692997</v>
       </c>
       <c r="E122">
         <f>ABS(E100-'Group 6'!F22)</f>
-        <v>0.14328554581777553</v>
+        <v>17.948488577406124</v>
       </c>
       <c r="F122">
         <f>ABS(F100-'Group 6'!G22)</f>
-        <v>4.8528921778376457</v>
+        <v>4.7054579816376929</v>
       </c>
       <c r="G122">
         <f>ABS(G100-'Group 6'!H22)</f>
-        <v>6.1323975602868757</v>
+        <v>3.5260135592308615</v>
       </c>
       <c r="H122">
         <f>ABS(H100-'Group 6'!I22)</f>
@@ -20389,55 +20411,55 @@
       </c>
       <c r="I122">
         <f>ABS(I100-'Group 6'!J22)</f>
-        <v>8.7046029628363044</v>
+        <v>5.408020212135483</v>
       </c>
       <c r="J122">
         <f>ABS(J100-'Group 6'!K22)</f>
-        <v>15.161863698735594</v>
+        <v>12.021079784030213</v>
       </c>
       <c r="K122">
         <f>ABS(K100-'Group 6'!L22)</f>
-        <v>0.3633751416745099</v>
+        <v>1.976452525463813</v>
       </c>
       <c r="L122">
         <f>ABS(L100-'Group 6'!M22)</f>
-        <v>7.6653306162651944</v>
+        <v>6.1923168232830292</v>
       </c>
       <c r="M122">
         <f>ABS(M100-'Group 6'!N22)</f>
-        <v>1.810611875418374</v>
+        <v>5.0190933393755017</v>
       </c>
       <c r="N122">
         <f>ABS(N100-'Group 6'!O22)</f>
-        <v>4.9438402362117557</v>
+        <v>5.4974867862883627</v>
       </c>
       <c r="O122">
         <f>ABS(O100-'Group 6'!P22)</f>
-        <v>11.379303782422383</v>
+        <v>0.3658605773888155</v>
       </c>
       <c r="P122">
         <f>ABS(P100-'Group 6'!Q22)</f>
-        <v>12.204710256874485</v>
+        <v>11.397378147851597</v>
       </c>
       <c r="Q122">
         <f>ABS(Q100-'Group 6'!R22)</f>
-        <v>1.9787682527453967</v>
+        <v>4.6944208305836383</v>
       </c>
       <c r="R122">
         <f>ABS(R100-'Group 6'!S22)</f>
-        <v>4.8213207579975244</v>
+        <v>3.3160750532008851</v>
       </c>
       <c r="S122">
         <f>ABS(S100-'Group 6'!T22)</f>
-        <v>3.748108331553027</v>
+        <v>4.2377034392458555</v>
       </c>
       <c r="T122">
         <f>ABS(T100-'Group 6'!U22)</f>
-        <v>7.2708962321025012</v>
+        <v>5.0698199992045829</v>
       </c>
       <c r="U122">
         <f>ABS(U100-'Group 6'!V22)</f>
-        <v>1.6693398054878319</v>
+        <v>2.3624990562701846</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
@@ -20446,31 +20468,31 @@
       </c>
       <c r="B123">
         <f>ABS(B101-'Group 6'!C23)</f>
-        <v>16.024999759326477</v>
+        <v>5.7920243590836549</v>
       </c>
       <c r="C123">
         <f>ABS(C101-'Group 6'!D23)</f>
-        <v>11.937443197650111</v>
+        <v>12.429794493058267</v>
       </c>
       <c r="D123">
         <f>ABS(D101-'Group 6'!E23)</f>
-        <v>15.360778503224921</v>
+        <v>15.301392153025461</v>
       </c>
       <c r="E123">
         <f>ABS(E101-'Group 6'!F23)</f>
-        <v>15.698578120908678</v>
+        <v>13.183588029452892</v>
       </c>
       <c r="F123">
         <f>ABS(F101-'Group 6'!G23)</f>
-        <v>11.43972664224431</v>
+        <v>9.117205619210452</v>
       </c>
       <c r="G123">
         <f>ABS(G101-'Group 6'!H23)</f>
-        <v>7.9652045063414505</v>
+        <v>15.882826671521556</v>
       </c>
       <c r="H123">
         <f>ABS(H101-'Group 6'!I23)</f>
-        <v>8.7046029628363044</v>
+        <v>5.408020212135483</v>
       </c>
       <c r="I123">
         <f>ABS(I101-'Group 6'!J23)</f>
@@ -20478,51 +20500,51 @@
       </c>
       <c r="J123">
         <f>ABS(J101-'Group 6'!K23)</f>
-        <v>11.092691999887769</v>
+        <v>13.475767494511864</v>
       </c>
       <c r="K123">
         <f>ABS(K101-'Group 6'!L23)</f>
-        <v>16.93928392748662</v>
+        <v>15.207660317887225</v>
       </c>
       <c r="L123">
         <f>ABS(L101-'Group 6'!M23)</f>
-        <v>7.046775350696592</v>
+        <v>9.5038241170684756</v>
       </c>
       <c r="M123">
         <f>ABS(M101-'Group 6'!N23)</f>
-        <v>10.885636446736669</v>
+        <v>5.9558746040250412</v>
       </c>
       <c r="N123">
         <f>ABS(N101-'Group 6'!O23)</f>
-        <v>1.1705759009842609</v>
+        <v>1.5128606298944618</v>
       </c>
       <c r="O123">
         <f>ABS(O101-'Group 6'!P23)</f>
-        <v>10.603125075094617</v>
+        <v>3.817078404218897</v>
       </c>
       <c r="P123">
         <f>ABS(P101-'Group 6'!Q23)</f>
-        <v>0.60089348954233657</v>
+        <v>1.282103796499996</v>
       </c>
       <c r="Q123">
         <f>ABS(Q101-'Group 6'!R23)</f>
-        <v>14.63266050099444</v>
+        <v>5.5842576019031185</v>
       </c>
       <c r="R123">
         <f>ABS(R101-'Group 6'!S23)</f>
-        <v>9.9560719756269904</v>
+        <v>6.768194478957092</v>
       </c>
       <c r="S123">
         <f>ABS(S101-'Group 6'!T23)</f>
-        <v>12.066957029537992</v>
+        <v>11.719954144814118</v>
       </c>
       <c r="T123">
         <f>ABS(T101-'Group 6'!U23)</f>
-        <v>0.22937067306918379</v>
+        <v>20.751243803603785</v>
       </c>
       <c r="U123">
         <f>ABS(U101-'Group 6'!V23)</f>
-        <v>5.8892607145273761</v>
+        <v>7.0269044806881844</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
@@ -20531,35 +20553,35 @@
       </c>
       <c r="B124">
         <f>ABS(B102-'Group 6'!C24)</f>
-        <v>25.234956888635736</v>
+        <v>3.6259229706098495</v>
       </c>
       <c r="C124">
         <f>ABS(C102-'Group 6'!D24)</f>
-        <v>2.3312431656496813</v>
+        <v>0.79175477000387673</v>
       </c>
       <c r="D124">
         <f>ABS(D102-'Group 6'!E24)</f>
-        <v>1.0061966564856277</v>
+        <v>0.82055138582477127</v>
       </c>
       <c r="E124">
         <f>ABS(E102-'Group 6'!F24)</f>
-        <v>9.9196035001968141</v>
+        <v>11.135111484434141</v>
       </c>
       <c r="F124">
         <f>ABS(F102-'Group 6'!G24)</f>
-        <v>16.693221783684109</v>
+        <v>15.068549753834276</v>
       </c>
       <c r="G124">
         <f>ABS(G102-'Group 6'!H24)</f>
-        <v>4.7643345627996538</v>
+        <v>4.5089816516422871</v>
       </c>
       <c r="H124">
         <f>ABS(H102-'Group 6'!I24)</f>
-        <v>15.161863698735594</v>
+        <v>12.021079784030213</v>
       </c>
       <c r="I124">
         <f>ABS(I102-'Group 6'!J24)</f>
-        <v>11.092691999887769</v>
+        <v>13.475767494511864</v>
       </c>
       <c r="J124">
         <f>ABS(J102-'Group 6'!K24)</f>
@@ -20567,47 +20589,47 @@
       </c>
       <c r="K124">
         <f>ABS(K102-'Group 6'!L24)</f>
-        <v>11.618476830113217</v>
+        <v>14.532311776898922</v>
       </c>
       <c r="L124">
         <f>ABS(L102-'Group 6'!M24)</f>
-        <v>2.7787980918588957</v>
+        <v>3.9169132971881595</v>
       </c>
       <c r="M124">
         <f>ABS(M102-'Group 6'!N24)</f>
-        <v>1.408684841066858</v>
+        <v>6.1645471582338587</v>
       </c>
       <c r="N124">
         <f>ABS(N102-'Group 6'!O24)</f>
-        <v>16.780402634684474</v>
+        <v>15.533814895040649</v>
       </c>
       <c r="O124">
         <f>ABS(O102-'Group 6'!P24)</f>
-        <v>0.39721091113231566</v>
+        <v>2.1038514110927586</v>
       </c>
       <c r="P124">
         <f>ABS(P102-'Group 6'!Q24)</f>
-        <v>13.809744394633384</v>
+        <v>22.778875178571639</v>
       </c>
       <c r="Q124">
         <f>ABS(Q102-'Group 6'!R24)</f>
-        <v>3.6848308324675827</v>
+        <v>2.4175533365751889</v>
       </c>
       <c r="R124">
         <f>ABS(R102-'Group 6'!S24)</f>
-        <v>2.2908520714587937</v>
+        <v>1.9035111338849333</v>
       </c>
       <c r="S124">
         <f>ABS(S102-'Group 6'!T24)</f>
-        <v>8.7815838068372258</v>
+        <v>9.5101165633808655</v>
       </c>
       <c r="T124">
         <f>ABS(T102-'Group 6'!U24)</f>
-        <v>15.71999103222171</v>
+        <v>15.464746380619626</v>
       </c>
       <c r="U124">
         <f>ABS(U102-'Group 6'!V24)</f>
-        <v>8.0818013547228613</v>
+        <v>7.5446054350690268</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
@@ -20616,39 +20638,39 @@
       </c>
       <c r="B125">
         <f>ABS(B103-'Group 6'!C25)</f>
-        <v>4.5879513472307849</v>
+        <v>15.758859212990671</v>
       </c>
       <c r="C125">
         <f>ABS(C103-'Group 6'!D25)</f>
-        <v>6.1466779961711921</v>
+        <v>8.5988592320498327</v>
       </c>
       <c r="D125">
         <f>ABS(D103-'Group 6'!E25)</f>
-        <v>2.8140826271123345</v>
+        <v>1.4450470226558991</v>
       </c>
       <c r="E125">
         <f>ABS(E103-'Group 6'!F25)</f>
-        <v>1.0014569926474053</v>
+        <v>1.5515339776411068</v>
       </c>
       <c r="F125">
         <f>ABS(F103-'Group 6'!G25)</f>
-        <v>2.1996925323922838</v>
+        <v>3.4474306009525222</v>
       </c>
       <c r="G125">
         <f>ABS(G103-'Group 6'!H25)</f>
-        <v>7.8902272019078268</v>
+        <v>8.144490597439475</v>
       </c>
       <c r="H125">
         <f>ABS(H103-'Group 6'!I25)</f>
-        <v>0.3633751416745099</v>
+        <v>1.976452525463813</v>
       </c>
       <c r="I125">
         <f>ABS(I103-'Group 6'!J25)</f>
-        <v>16.93928392748662</v>
+        <v>15.207660317887225</v>
       </c>
       <c r="J125">
         <f>ABS(J103-'Group 6'!K25)</f>
-        <v>11.618476830113217</v>
+        <v>14.532311776898922</v>
       </c>
       <c r="K125">
         <f>ABS(K103-'Group 6'!L25)</f>
@@ -20656,43 +20678,43 @@
       </c>
       <c r="L125">
         <f>ABS(L103-'Group 6'!M25)</f>
-        <v>10.116369598536528</v>
+        <v>9.5944241911446166</v>
       </c>
       <c r="M125">
         <f>ABS(M103-'Group 6'!N25)</f>
-        <v>11.657410228004039</v>
+        <v>4.3871196958819496</v>
       </c>
       <c r="N125">
         <f>ABS(N103-'Group 6'!O25)</f>
-        <v>10.491484431499828</v>
+        <v>3.1937040446339893</v>
       </c>
       <c r="O125">
         <f>ABS(O103-'Group 6'!P25)</f>
-        <v>19.272199790641466</v>
+        <v>11.421471240050273</v>
       </c>
       <c r="P125">
         <f>ABS(P103-'Group 6'!Q25)</f>
-        <v>1.1132477554597031</v>
+        <v>1.5499564109355859</v>
       </c>
       <c r="Q125">
         <f>ABS(Q103-'Group 6'!R25)</f>
-        <v>12.07249265712996</v>
+        <v>9.1055677436991012</v>
       </c>
       <c r="R125">
         <f>ABS(R103-'Group 6'!S25)</f>
-        <v>3.8796604630899605</v>
+        <v>3.2316164059805628</v>
       </c>
       <c r="S125">
         <f>ABS(S103-'Group 6'!T25)</f>
-        <v>0.55715340989934958</v>
+        <v>3.952532368498396E-2</v>
       </c>
       <c r="T125">
         <f>ABS(T103-'Group 6'!U25)</f>
-        <v>11.797357607249982</v>
+        <v>11.78205142061875</v>
       </c>
       <c r="U125">
         <f>ABS(U103-'Group 6'!V25)</f>
-        <v>4.8079147895038234</v>
+        <v>4.4867402247857315</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -20701,43 +20723,43 @@
       </c>
       <c r="B126">
         <f>ABS(B104-'Group 6'!C26)</f>
-        <v>17.655235484517192</v>
+        <v>15.006535304094221</v>
       </c>
       <c r="C126">
         <f>ABS(C104-'Group 6'!D26)</f>
-        <v>6.208818102880997</v>
+        <v>9.1522665293500225</v>
       </c>
       <c r="D126">
         <f>ABS(D104-'Group 6'!E26)</f>
-        <v>5.0310285231724166</v>
+        <v>6.4753371647766329</v>
       </c>
       <c r="E126">
         <f>ABS(E104-'Group 6'!F26)</f>
-        <v>1.123039904462626</v>
+        <v>2.5890409933370524</v>
       </c>
       <c r="F126">
         <f>ABS(F104-'Group 6'!G26)</f>
-        <v>0.61513981180270605</v>
+        <v>18.361618772323098</v>
       </c>
       <c r="G126">
         <f>ABS(G104-'Group 6'!H26)</f>
-        <v>11.245702929497604</v>
+        <v>5.6126170435701681</v>
       </c>
       <c r="H126">
         <f>ABS(H104-'Group 6'!I26)</f>
-        <v>7.6653306162651944</v>
+        <v>6.1923168232830292</v>
       </c>
       <c r="I126">
         <f>ABS(I104-'Group 6'!J26)</f>
-        <v>7.046775350696592</v>
+        <v>9.5038241170684756</v>
       </c>
       <c r="J126">
         <f>ABS(J104-'Group 6'!K26)</f>
-        <v>2.7787980918588957</v>
+        <v>3.9169132971881595</v>
       </c>
       <c r="K126">
         <f>ABS(K104-'Group 6'!L26)</f>
-        <v>10.116369598536528</v>
+        <v>9.5944241911446166</v>
       </c>
       <c r="L126">
         <f>ABS(L104-'Group 6'!M26)</f>
@@ -20745,39 +20767,39 @@
       </c>
       <c r="M126">
         <f>ABS(M104-'Group 6'!N26)</f>
-        <v>8.6850004137638024</v>
+        <v>7.6176080736333702</v>
       </c>
       <c r="N126">
         <f>ABS(N104-'Group 6'!O26)</f>
-        <v>0.60311660981486437</v>
+        <v>7.4087666972349808E-2</v>
       </c>
       <c r="O126">
         <f>ABS(O104-'Group 6'!P26)</f>
-        <v>8.0021229044917366</v>
+        <v>6.4364822934569483</v>
       </c>
       <c r="P126">
         <f>ABS(P104-'Group 6'!Q26)</f>
-        <v>0.79956155062855849</v>
+        <v>0.53764389262177659</v>
       </c>
       <c r="Q126">
         <f>ABS(Q104-'Group 6'!R26)</f>
-        <v>11.465319372831585</v>
+        <v>12.921317998921218</v>
       </c>
       <c r="R126">
         <f>ABS(R104-'Group 6'!S26)</f>
-        <v>11.996188258548951</v>
+        <v>12.590514079136764</v>
       </c>
       <c r="S126">
         <f>ABS(S104-'Group 6'!T26)</f>
-        <v>3.9174235926081238</v>
+        <v>3.5536190603805444</v>
       </c>
       <c r="T126">
         <f>ABS(T104-'Group 6'!U26)</f>
-        <v>6.5153037998913099</v>
+        <v>8.1060026708795601</v>
       </c>
       <c r="U126">
         <f>ABS(U104-'Group 6'!V26)</f>
-        <v>11.40513962790931</v>
+        <v>14.576399396262556</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
@@ -20786,47 +20808,47 @@
       </c>
       <c r="B127">
         <f>ABS(B105-'Group 6'!C27)</f>
-        <v>35.371832564719682</v>
+        <v>2.8015089070682393</v>
       </c>
       <c r="C127">
         <f>ABS(C105-'Group 6'!D27)</f>
-        <v>20.669326902445363</v>
+        <v>13.766011252024839</v>
       </c>
       <c r="D127">
         <f>ABS(D105-'Group 6'!E27)</f>
-        <v>0.67601796741740827</v>
+        <v>3.1503499063656761</v>
       </c>
       <c r="E127">
         <f>ABS(E105-'Group 6'!F27)</f>
-        <v>4.424727684457423</v>
+        <v>0.81880425547132063</v>
       </c>
       <c r="F127">
         <f>ABS(F105-'Group 6'!G27)</f>
-        <v>16.206618740018982</v>
+        <v>12.550023254195267</v>
       </c>
       <c r="G127">
         <f>ABS(G105-'Group 6'!H27)</f>
-        <v>1.7320886972728857</v>
+        <v>2.4749122025861681</v>
       </c>
       <c r="H127">
         <f>ABS(H105-'Group 6'!I27)</f>
-        <v>1.810611875418374</v>
+        <v>5.0190933393755017</v>
       </c>
       <c r="I127">
         <f>ABS(I105-'Group 6'!J27)</f>
-        <v>10.885636446736669</v>
+        <v>5.9558746040250412</v>
       </c>
       <c r="J127">
         <f>ABS(J105-'Group 6'!K27)</f>
-        <v>1.408684841066858</v>
+        <v>6.1645471582338587</v>
       </c>
       <c r="K127">
         <f>ABS(K105-'Group 6'!L27)</f>
-        <v>11.657410228004039</v>
+        <v>4.3871196958819496</v>
       </c>
       <c r="L127">
         <f>ABS(L105-'Group 6'!M27)</f>
-        <v>8.6850004137638024</v>
+        <v>7.6176080736333702</v>
       </c>
       <c r="M127">
         <f>ABS(M105-'Group 6'!N27)</f>
@@ -20834,35 +20856,35 @@
       </c>
       <c r="N127">
         <f>ABS(N105-'Group 6'!O27)</f>
-        <v>13.920482800176529</v>
+        <v>11.513303689855505</v>
       </c>
       <c r="O127">
         <f>ABS(O105-'Group 6'!P27)</f>
-        <v>17.221616322955612</v>
+        <v>7.7849023933780472</v>
       </c>
       <c r="P127">
         <f>ABS(P105-'Group 6'!Q27)</f>
-        <v>0.18647766041671332</v>
+        <v>0.26115165259835749</v>
       </c>
       <c r="Q127">
         <f>ABS(Q105-'Group 6'!R27)</f>
-        <v>2.7392395406178878</v>
+        <v>9.9419685067957602</v>
       </c>
       <c r="R127">
         <f>ABS(R105-'Group 6'!S27)</f>
-        <v>4.360590467635717</v>
+        <v>2.9329135581846675</v>
       </c>
       <c r="S127">
         <f>ABS(S105-'Group 6'!T27)</f>
-        <v>15.697833878478573</v>
+        <v>14.336204466845562</v>
       </c>
       <c r="T127">
         <f>ABS(T105-'Group 6'!U27)</f>
-        <v>10.790472278272425</v>
+        <v>10.784204899648955</v>
       </c>
       <c r="U127">
         <f>ABS(U105-'Group 6'!V27)</f>
-        <v>0.73323144238936955</v>
+        <v>0.15871843602134206</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
@@ -20871,51 +20893,51 @@
       </c>
       <c r="B128">
         <f>ABS(B106-'Group 6'!C28)</f>
-        <v>1.7221262472696424</v>
+        <v>6.7495959201691988</v>
       </c>
       <c r="C128">
         <f>ABS(C106-'Group 6'!D28)</f>
-        <v>6.9595955615230878</v>
+        <v>7.6472914603057944</v>
       </c>
       <c r="D128">
         <f>ABS(D106-'Group 6'!E28)</f>
-        <v>2.2387936418911849</v>
+        <v>2.0736016663027144</v>
       </c>
       <c r="E128">
         <f>ABS(E106-'Group 6'!F28)</f>
-        <v>15.257327127835907</v>
+        <v>15.530809375968268</v>
       </c>
       <c r="F128">
         <f>ABS(F106-'Group 6'!G28)</f>
-        <v>5.4732425205900235</v>
+        <v>5.7266245663044657</v>
       </c>
       <c r="G128">
         <f>ABS(G106-'Group 6'!H28)</f>
-        <v>11.161537568557868</v>
+        <v>10.860779894442196</v>
       </c>
       <c r="H128">
         <f>ABS(H106-'Group 6'!I28)</f>
-        <v>4.9438402362117557</v>
+        <v>5.4974867862883627</v>
       </c>
       <c r="I128">
         <f>ABS(I106-'Group 6'!J28)</f>
-        <v>1.1705759009842609</v>
+        <v>1.5128606298944618</v>
       </c>
       <c r="J128">
         <f>ABS(J106-'Group 6'!K28)</f>
-        <v>16.780402634684474</v>
+        <v>15.533814895040649</v>
       </c>
       <c r="K128">
         <f>ABS(K106-'Group 6'!L28)</f>
-        <v>10.491484431499828</v>
+        <v>3.1937040446339893</v>
       </c>
       <c r="L128">
         <f>ABS(L106-'Group 6'!M28)</f>
-        <v>0.60311660981486437</v>
+        <v>7.4087666972349808E-2</v>
       </c>
       <c r="M128">
         <f>ABS(M106-'Group 6'!N28)</f>
-        <v>13.920482800176529</v>
+        <v>11.513303689855505</v>
       </c>
       <c r="N128">
         <f>ABS(N106-'Group 6'!O28)</f>
@@ -20923,31 +20945,31 @@
       </c>
       <c r="O128">
         <f>ABS(O106-'Group 6'!P28)</f>
-        <v>6.8231049552871852</v>
+        <v>0.2464738769883752</v>
       </c>
       <c r="P128">
         <f>ABS(P106-'Group 6'!Q28)</f>
-        <v>13.197163070826683</v>
+        <v>13.821506235583882</v>
       </c>
       <c r="Q128">
         <f>ABS(Q106-'Group 6'!R28)</f>
-        <v>4.8993797391222174</v>
+        <v>7.8073817358305959</v>
       </c>
       <c r="R128">
         <f>ABS(R106-'Group 6'!S28)</f>
-        <v>2.3230146575767909</v>
+        <v>1.6850968157059167</v>
       </c>
       <c r="S128">
         <f>ABS(S106-'Group 6'!T28)</f>
-        <v>8.6852821852823752</v>
+        <v>8.8015596087248671</v>
       </c>
       <c r="T128">
         <f>ABS(T106-'Group 6'!U28)</f>
-        <v>11.209458316559385</v>
+        <v>10.83596714466943</v>
       </c>
       <c r="U128">
         <f>ABS(U106-'Group 6'!V28)</f>
-        <v>3.082204735171941</v>
+        <v>2.760995368738163</v>
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.25">
@@ -20956,55 +20978,55 @@
       </c>
       <c r="B129">
         <f>ABS(B107-'Group 6'!C29)</f>
-        <v>5.6143978271544626</v>
+        <v>0.10195345577145076</v>
       </c>
       <c r="C129">
         <f>ABS(C107-'Group 6'!D29)</f>
-        <v>9.0934837984025236</v>
+        <v>14.828194365950928</v>
       </c>
       <c r="D129">
         <f>ABS(D107-'Group 6'!E29)</f>
-        <v>5.7455681923262105</v>
+        <v>0.24679419698301075</v>
       </c>
       <c r="E129">
         <f>ABS(E107-'Group 6'!F29)</f>
-        <v>8.3184682039076989</v>
+        <v>15.71591197590385</v>
       </c>
       <c r="F129">
         <f>ABS(F107-'Group 6'!G29)</f>
-        <v>2.0323820407611031</v>
+        <v>1.2348542409786631</v>
       </c>
       <c r="G129">
         <f>ABS(G107-'Group 6'!H29)</f>
-        <v>17.034380242342916</v>
+        <v>13.369806884610302</v>
       </c>
       <c r="H129">
         <f>ABS(H107-'Group 6'!I29)</f>
-        <v>11.379303782422383</v>
+        <v>0.3658605773888155</v>
       </c>
       <c r="I129">
         <f>ABS(I107-'Group 6'!J29)</f>
-        <v>10.603125075094617</v>
+        <v>3.817078404218897</v>
       </c>
       <c r="J129">
         <f>ABS(J107-'Group 6'!K29)</f>
-        <v>0.39721091113231566</v>
+        <v>2.1038514110927586</v>
       </c>
       <c r="K129">
         <f>ABS(K107-'Group 6'!L29)</f>
-        <v>19.272199790641466</v>
+        <v>11.421471240050273</v>
       </c>
       <c r="L129">
         <f>ABS(L107-'Group 6'!M29)</f>
-        <v>8.0021229044917366</v>
+        <v>6.4364822934569483</v>
       </c>
       <c r="M129">
         <f>ABS(M107-'Group 6'!N29)</f>
-        <v>17.221616322955612</v>
+        <v>7.7849023933780472</v>
       </c>
       <c r="N129">
         <f>ABS(N107-'Group 6'!O29)</f>
-        <v>6.8231049552871852</v>
+        <v>0.2464738769883752</v>
       </c>
       <c r="O129">
         <f>ABS(O107-'Group 6'!P29)</f>
@@ -21012,27 +21034,27 @@
       </c>
       <c r="P129">
         <f>ABS(P107-'Group 6'!Q29)</f>
-        <v>10.357559879074369</v>
+        <v>13.209253265772091</v>
       </c>
       <c r="Q129">
         <f>ABS(Q107-'Group 6'!R29)</f>
-        <v>13.546815524732153</v>
+        <v>2.9319007324215178</v>
       </c>
       <c r="R129">
         <f>ABS(R107-'Group 6'!S29)</f>
-        <v>2.745203121113061</v>
+        <v>1.0052711290055285</v>
       </c>
       <c r="S129">
         <f>ABS(S107-'Group 6'!T29)</f>
-        <v>13.267436230396928</v>
+        <v>13.947232749611663</v>
       </c>
       <c r="T129">
         <f>ABS(T107-'Group 6'!U29)</f>
-        <v>13.242732892670578</v>
+        <v>10.026197568110565</v>
       </c>
       <c r="U129">
         <f>ABS(U107-'Group 6'!V29)</f>
-        <v>7.4618988881804205</v>
+        <v>8.2789358049023249</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.25">
@@ -21041,59 +21063,59 @@
       </c>
       <c r="B130">
         <f>ABS(B108-'Group 6'!C30)</f>
-        <v>8.8487862941703952</v>
+        <v>3.6043748308399017</v>
       </c>
       <c r="C130">
         <f>ABS(C108-'Group 6'!D30)</f>
-        <v>13.866104952359649</v>
+        <v>10.525768446251021</v>
       </c>
       <c r="D130">
         <f>ABS(D108-'Group 6'!E30)</f>
-        <v>12.153565839591181</v>
+        <v>7.9458813935713692</v>
       </c>
       <c r="E130">
         <f>ABS(E108-'Group 6'!F30)</f>
-        <v>12.335469454308992</v>
+        <v>14.384925771529602</v>
       </c>
       <c r="F130">
         <f>ABS(F108-'Group 6'!G30)</f>
-        <v>10.195459315582404</v>
+        <v>11.59349193526068</v>
       </c>
       <c r="G130">
         <f>ABS(G108-'Group 6'!H30)</f>
-        <v>11.085097029482291</v>
+        <v>9.4739091496461718</v>
       </c>
       <c r="H130">
         <f>ABS(H108-'Group 6'!I30)</f>
-        <v>12.204710256874485</v>
+        <v>11.397378147851597</v>
       </c>
       <c r="I130">
         <f>ABS(I108-'Group 6'!J30)</f>
-        <v>0.60089348954233657</v>
+        <v>1.282103796499996</v>
       </c>
       <c r="J130">
         <f>ABS(J108-'Group 6'!K30)</f>
-        <v>13.809744394633384</v>
+        <v>22.778875178571639</v>
       </c>
       <c r="K130">
         <f>ABS(K108-'Group 6'!L30)</f>
-        <v>1.1132477554597031</v>
+        <v>1.5499564109355859</v>
       </c>
       <c r="L130">
         <f>ABS(L108-'Group 6'!M30)</f>
-        <v>0.79956155062855849</v>
+        <v>0.53764389262177659</v>
       </c>
       <c r="M130">
         <f>ABS(M108-'Group 6'!N30)</f>
-        <v>0.18647766041671332</v>
+        <v>0.26115165259835749</v>
       </c>
       <c r="N130">
         <f>ABS(N108-'Group 6'!O30)</f>
-        <v>13.197163070826683</v>
+        <v>13.821506235583882</v>
       </c>
       <c r="O130">
         <f>ABS(O108-'Group 6'!P30)</f>
-        <v>10.357559879074369</v>
+        <v>13.209253265772091</v>
       </c>
       <c r="P130">
         <f>ABS(P108-'Group 6'!Q30)</f>
@@ -21101,23 +21123,23 @@
       </c>
       <c r="Q130">
         <f>ABS(Q108-'Group 6'!R30)</f>
-        <v>0.43133875081952944</v>
+        <v>2.1934691955634005</v>
       </c>
       <c r="R130">
         <f>ABS(R108-'Group 6'!S30)</f>
-        <v>2.8055489773610582</v>
+        <v>2.2875021701373579</v>
       </c>
       <c r="S130">
         <f>ABS(S108-'Group 6'!T30)</f>
-        <v>0.50608702037547104</v>
+        <v>1.0745384322207805</v>
       </c>
       <c r="T130">
         <f>ABS(T108-'Group 6'!U30)</f>
-        <v>10.705603433455906</v>
+        <v>11.42393358303798</v>
       </c>
       <c r="U130">
         <f>ABS(U108-'Group 6'!V30)</f>
-        <v>4.5960074057233724</v>
+        <v>3.9365193993400904</v>
       </c>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.25">
@@ -21126,63 +21148,63 @@
       </c>
       <c r="B131">
         <f>ABS(B109-'Group 6'!C31)</f>
-        <v>9.4411095288388083</v>
+        <v>13.521484310336632</v>
       </c>
       <c r="C131">
         <f>ABS(C109-'Group 6'!D31)</f>
-        <v>2.2706261860064316</v>
+        <v>1.7534619648755765</v>
       </c>
       <c r="D131">
         <f>ABS(D109-'Group 6'!E31)</f>
-        <v>6.5058149322598595</v>
+        <v>3.4977767450471084</v>
       </c>
       <c r="E131">
         <f>ABS(E109-'Group 6'!F31)</f>
-        <v>6.8179075642547673</v>
+        <v>10.842688093111999</v>
       </c>
       <c r="F131">
         <f>ABS(F109-'Group 6'!G31)</f>
-        <v>6.0704314507726416</v>
+        <v>9.3415480030234157</v>
       </c>
       <c r="G131">
         <f>ABS(G109-'Group 6'!H31)</f>
-        <v>7.9840779924080962</v>
+        <v>11.62964251092674</v>
       </c>
       <c r="H131">
         <f>ABS(H109-'Group 6'!I31)</f>
-        <v>1.9787682527453967</v>
+        <v>4.6944208305836383</v>
       </c>
       <c r="I131">
         <f>ABS(I109-'Group 6'!J31)</f>
-        <v>14.63266050099444</v>
+        <v>5.5842576019031185</v>
       </c>
       <c r="J131">
         <f>ABS(J109-'Group 6'!K31)</f>
-        <v>3.6848308324675827</v>
+        <v>2.4175533365751889</v>
       </c>
       <c r="K131">
         <f>ABS(K109-'Group 6'!L31)</f>
-        <v>12.07249265712996</v>
+        <v>9.1055677436991012</v>
       </c>
       <c r="L131">
         <f>ABS(L109-'Group 6'!M31)</f>
-        <v>11.465319372831585</v>
+        <v>12.921317998921218</v>
       </c>
       <c r="M131">
         <f>ABS(M109-'Group 6'!N31)</f>
-        <v>2.7392395406178878</v>
+        <v>9.9419685067957602</v>
       </c>
       <c r="N131">
         <f>ABS(N109-'Group 6'!O31)</f>
-        <v>4.8993797391222174</v>
+        <v>7.8073817358305959</v>
       </c>
       <c r="O131">
         <f>ABS(O109-'Group 6'!P31)</f>
-        <v>13.546815524732153</v>
+        <v>2.9319007324215178</v>
       </c>
       <c r="P131">
         <f>ABS(P109-'Group 6'!Q31)</f>
-        <v>0.43133875081952944</v>
+        <v>2.1934691955634005</v>
       </c>
       <c r="Q131">
         <f>ABS(Q109-'Group 6'!R31)</f>
@@ -21190,19 +21212,19 @@
       </c>
       <c r="R131">
         <f>ABS(R109-'Group 6'!S31)</f>
-        <v>8.5266270574647134</v>
+        <v>12.370216274275357</v>
       </c>
       <c r="S131">
         <f>ABS(S109-'Group 6'!T31)</f>
-        <v>4.1509133320046896</v>
+        <v>3.6282171186038203</v>
       </c>
       <c r="T131">
         <f>ABS(T109-'Group 6'!U31)</f>
-        <v>7.2872913947426348</v>
+        <v>12.196918859926008</v>
       </c>
       <c r="U131">
         <f>ABS(U109-'Group 6'!V31)</f>
-        <v>5.0700675632173287</v>
+        <v>5.857049979467055</v>
       </c>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.25">
@@ -21211,67 +21233,67 @@
       </c>
       <c r="B132">
         <f>ABS(B110-'Group 6'!C32)</f>
-        <v>1.7885960968444969</v>
+        <v>2.9623078316091416</v>
       </c>
       <c r="C132">
         <f>ABS(C110-'Group 6'!D32)</f>
-        <v>13.229724874304424</v>
+        <v>14.416440974861507</v>
       </c>
       <c r="D132">
         <f>ABS(D110-'Group 6'!E32)</f>
-        <v>2.1448426216962755</v>
+        <v>1.3508102080349058</v>
       </c>
       <c r="E132">
         <f>ABS(E110-'Group 6'!F32)</f>
-        <v>6.7329964708816128</v>
+        <v>5.732078297148961</v>
       </c>
       <c r="F132">
         <f>ABS(F110-'Group 6'!G32)</f>
-        <v>10.894805531966288</v>
+        <v>12.212573803825288</v>
       </c>
       <c r="G132">
         <f>ABS(G110-'Group 6'!H32)</f>
-        <v>6.8434720762412624</v>
+        <v>8.2647512217590791</v>
       </c>
       <c r="H132">
         <f>ABS(H110-'Group 6'!I32)</f>
-        <v>4.8213207579975244</v>
+        <v>3.3160750532008851</v>
       </c>
       <c r="I132">
         <f>ABS(I110-'Group 6'!J32)</f>
-        <v>9.9560719756269904</v>
+        <v>6.768194478957092</v>
       </c>
       <c r="J132">
         <f>ABS(J110-'Group 6'!K32)</f>
-        <v>2.2908520714587937</v>
+        <v>1.9035111338849333</v>
       </c>
       <c r="K132">
         <f>ABS(K110-'Group 6'!L32)</f>
-        <v>3.8796604630899605</v>
+        <v>3.2316164059805628</v>
       </c>
       <c r="L132">
         <f>ABS(L110-'Group 6'!M32)</f>
-        <v>11.996188258548951</v>
+        <v>12.590514079136764</v>
       </c>
       <c r="M132">
         <f>ABS(M110-'Group 6'!N32)</f>
-        <v>4.360590467635717</v>
+        <v>2.9329135581846675</v>
       </c>
       <c r="N132">
         <f>ABS(N110-'Group 6'!O32)</f>
-        <v>2.3230146575767909</v>
+        <v>1.6850968157059167</v>
       </c>
       <c r="O132">
         <f>ABS(O110-'Group 6'!P32)</f>
-        <v>2.745203121113061</v>
+        <v>1.0052711290055285</v>
       </c>
       <c r="P132">
         <f>ABS(P110-'Group 6'!Q32)</f>
-        <v>2.8055489773610582</v>
+        <v>2.2875021701373579</v>
       </c>
       <c r="Q132">
         <f>ABS(Q110-'Group 6'!R32)</f>
-        <v>8.5266270574647134</v>
+        <v>12.370216274275357</v>
       </c>
       <c r="R132">
         <f>ABS(R110-'Group 6'!S32)</f>
@@ -21279,15 +21301,15 @@
       </c>
       <c r="S132">
         <f>ABS(S110-'Group 6'!T32)</f>
-        <v>0.67923604884662514</v>
+        <v>0.51172156903520638</v>
       </c>
       <c r="T132">
         <f>ABS(T110-'Group 6'!U32)</f>
-        <v>2.3897607679861679</v>
+        <v>4.95305238440619</v>
       </c>
       <c r="U132">
         <f>ABS(U110-'Group 6'!V32)</f>
-        <v>12.360252069269139</v>
+        <v>12.698380315321668</v>
       </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.25">
@@ -21296,71 +21318,71 @@
       </c>
       <c r="B133">
         <f>ABS(B111-'Group 6'!C33)</f>
-        <v>2.6211716322900429</v>
+        <v>0.18680117659146589</v>
       </c>
       <c r="C133">
         <f>ABS(C111-'Group 6'!D33)</f>
-        <v>13.792891043364659</v>
+        <v>13.319957743204146</v>
       </c>
       <c r="D133">
         <f>ABS(D111-'Group 6'!E33)</f>
-        <v>11.085069400536536</v>
+        <v>11.351371599391788</v>
       </c>
       <c r="E133">
         <f>ABS(E111-'Group 6'!F33)</f>
-        <v>10.530963643281199</v>
+        <v>10.402253504731052</v>
       </c>
       <c r="F133">
         <f>ABS(F111-'Group 6'!G33)</f>
-        <v>3.1596509262129366</v>
+        <v>3.0112887812751499</v>
       </c>
       <c r="G133">
         <f>ABS(G111-'Group 6'!H33)</f>
-        <v>0.63226108866296649</v>
+        <v>0.55309949897865351</v>
       </c>
       <c r="H133">
         <f>ABS(H111-'Group 6'!I33)</f>
-        <v>3.748108331553027</v>
+        <v>4.2377034392458555</v>
       </c>
       <c r="I133">
         <f>ABS(I111-'Group 6'!J33)</f>
-        <v>12.066957029537992</v>
+        <v>11.719954144814118</v>
       </c>
       <c r="J133">
         <f>ABS(J111-'Group 6'!K33)</f>
-        <v>8.7815838068372258</v>
+        <v>9.5101165633808655</v>
       </c>
       <c r="K133">
         <f>ABS(K111-'Group 6'!L33)</f>
-        <v>0.55715340989934958</v>
+        <v>3.952532368498396E-2</v>
       </c>
       <c r="L133">
         <f>ABS(L111-'Group 6'!M33)</f>
-        <v>3.9174235926081238</v>
+        <v>3.5536190603805444</v>
       </c>
       <c r="M133">
         <f>ABS(M111-'Group 6'!N33)</f>
-        <v>15.697833878478573</v>
+        <v>14.336204466845562</v>
       </c>
       <c r="N133">
         <f>ABS(N111-'Group 6'!O33)</f>
-        <v>8.6852821852823752</v>
+        <v>8.8015596087248671</v>
       </c>
       <c r="O133">
         <f>ABS(O111-'Group 6'!P33)</f>
-        <v>13.267436230396928</v>
+        <v>13.947232749611663</v>
       </c>
       <c r="P133">
         <f>ABS(P111-'Group 6'!Q33)</f>
-        <v>0.50608702037547104</v>
+        <v>1.0745384322207805</v>
       </c>
       <c r="Q133">
         <f>ABS(Q111-'Group 6'!R33)</f>
-        <v>4.1509133320046896</v>
+        <v>3.6282171186038203</v>
       </c>
       <c r="R133">
         <f>ABS(R111-'Group 6'!S33)</f>
-        <v>0.67923604884662514</v>
+        <v>0.51172156903520638</v>
       </c>
       <c r="S133">
         <f>ABS(S111-'Group 6'!T33)</f>
@@ -21368,11 +21390,11 @@
       </c>
       <c r="T133">
         <f>ABS(T111-'Group 6'!U33)</f>
-        <v>13.814307862685446</v>
+        <v>13.863926357933755</v>
       </c>
       <c r="U133">
         <f>ABS(U111-'Group 6'!V33)</f>
-        <v>2.1294386309964701</v>
+        <v>2.376183276897355</v>
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.25">
@@ -21381,75 +21403,75 @@
       </c>
       <c r="B134">
         <f>ABS(B112-'Group 6'!C34)</f>
-        <v>4.0632008086945746</v>
+        <v>5.4956595086602675</v>
       </c>
       <c r="C134">
         <f>ABS(C112-'Group 6'!D34)</f>
-        <v>3.2397755796405932</v>
+        <v>1.7031040292068127</v>
       </c>
       <c r="D134">
         <f>ABS(D112-'Group 6'!E34)</f>
-        <v>7.8010416209965996</v>
+        <v>8.6125638254081736</v>
       </c>
       <c r="E134">
         <f>ABS(E112-'Group 6'!F34)</f>
-        <v>8.5315655406381481</v>
+        <v>10.174813636427821</v>
       </c>
       <c r="F134">
         <f>ABS(F112-'Group 6'!G34)</f>
-        <v>3.1897567054250899</v>
+        <v>5.9955633868980698</v>
       </c>
       <c r="G134">
         <f>ABS(G112-'Group 6'!H34)</f>
-        <v>0.36220705926225349</v>
+        <v>5.2205518019257084</v>
       </c>
       <c r="H134">
         <f>ABS(H112-'Group 6'!I34)</f>
-        <v>7.2708962321025012</v>
+        <v>5.0698199992045829</v>
       </c>
       <c r="I134">
         <f>ABS(I112-'Group 6'!J34)</f>
-        <v>0.22937067306918379</v>
+        <v>20.751243803603785</v>
       </c>
       <c r="J134">
         <f>ABS(J112-'Group 6'!K34)</f>
-        <v>15.71999103222171</v>
+        <v>15.464746380619626</v>
       </c>
       <c r="K134">
         <f>ABS(K112-'Group 6'!L34)</f>
-        <v>11.797357607249982</v>
+        <v>11.78205142061875</v>
       </c>
       <c r="L134">
         <f>ABS(L112-'Group 6'!M34)</f>
-        <v>6.5153037998913099</v>
+        <v>8.1060026708795601</v>
       </c>
       <c r="M134">
         <f>ABS(M112-'Group 6'!N34)</f>
-        <v>10.790472278272425</v>
+        <v>10.784204899648955</v>
       </c>
       <c r="N134">
         <f>ABS(N112-'Group 6'!O34)</f>
-        <v>11.209458316559385</v>
+        <v>10.83596714466943</v>
       </c>
       <c r="O134">
         <f>ABS(O112-'Group 6'!P34)</f>
-        <v>13.242732892670578</v>
+        <v>10.026197568110565</v>
       </c>
       <c r="P134">
         <f>ABS(P112-'Group 6'!Q34)</f>
-        <v>10.705603433455906</v>
+        <v>11.42393358303798</v>
       </c>
       <c r="Q134">
         <f>ABS(Q112-'Group 6'!R34)</f>
-        <v>7.2872913947426348</v>
+        <v>12.196918859926008</v>
       </c>
       <c r="R134">
         <f>ABS(R112-'Group 6'!S34)</f>
-        <v>2.3897607679861679</v>
+        <v>4.95305238440619</v>
       </c>
       <c r="S134">
         <f>ABS(S112-'Group 6'!T34)</f>
-        <v>13.814307862685446</v>
+        <v>13.863926357933755</v>
       </c>
       <c r="T134">
         <f>ABS(T112-'Group 6'!U34)</f>
@@ -21457,7 +21479,7 @@
       </c>
       <c r="U134">
         <f>ABS(U112-'Group 6'!V34)</f>
-        <v>4.9216850839352722</v>
+        <v>4.1408087117419266</v>
       </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.25">
@@ -21466,79 +21488,79 @@
       </c>
       <c r="B135">
         <f>ABS(B113-'Group 6'!C35)</f>
-        <v>13.91071944094892</v>
+        <v>12.784804033730619</v>
       </c>
       <c r="C135">
         <f>ABS(C113-'Group 6'!D35)</f>
-        <v>9.4683101312378355</v>
+        <v>10.630703108552483</v>
       </c>
       <c r="D135">
         <f>ABS(D113-'Group 6'!E35)</f>
-        <v>5.0255814544903021</v>
+        <v>5.6855084808802392</v>
       </c>
       <c r="E135">
         <f>ABS(E113-'Group 6'!F35)</f>
-        <v>6.0178135430156905</v>
+        <v>5.3543233718274807</v>
       </c>
       <c r="F135">
         <f>ABS(F113-'Group 6'!G35)</f>
-        <v>1.9129869220952571</v>
+        <v>1.3079333370026269</v>
       </c>
       <c r="G135">
         <f>ABS(G113-'Group 6'!H35)</f>
-        <v>12.049652174508662</v>
+        <v>10.270760748301337</v>
       </c>
       <c r="H135">
         <f>ABS(H113-'Group 6'!I35)</f>
-        <v>1.6693398054878319</v>
+        <v>2.3624990562701846</v>
       </c>
       <c r="I135">
         <f>ABS(I113-'Group 6'!J35)</f>
-        <v>5.8892607145273761</v>
+        <v>7.0269044806881844</v>
       </c>
       <c r="J135">
         <f>ABS(J113-'Group 6'!K35)</f>
-        <v>8.0818013547228613</v>
+        <v>7.5446054350690268</v>
       </c>
       <c r="K135">
         <f>ABS(K113-'Group 6'!L35)</f>
-        <v>4.8079147895038234</v>
+        <v>4.4867402247857315</v>
       </c>
       <c r="L135">
         <f>ABS(L113-'Group 6'!M35)</f>
-        <v>11.40513962790931</v>
+        <v>14.576399396262556</v>
       </c>
       <c r="M135">
         <f>ABS(M113-'Group 6'!N35)</f>
-        <v>0.73323144238936955</v>
+        <v>0.15871843602134206</v>
       </c>
       <c r="N135">
         <f>ABS(N113-'Group 6'!O35)</f>
-        <v>3.082204735171941</v>
+        <v>2.760995368738163</v>
       </c>
       <c r="O135">
         <f>ABS(O113-'Group 6'!P35)</f>
-        <v>7.4618988881804205</v>
+        <v>8.2789358049023249</v>
       </c>
       <c r="P135">
         <f>ABS(P113-'Group 6'!Q35)</f>
-        <v>4.5960074057233724</v>
+        <v>3.9365193993400904</v>
       </c>
       <c r="Q135">
         <f>ABS(Q113-'Group 6'!R35)</f>
-        <v>5.0700675632173287</v>
+        <v>5.857049979467055</v>
       </c>
       <c r="R135">
         <f>ABS(R113-'Group 6'!S35)</f>
-        <v>12.360252069269139</v>
+        <v>12.698380315321668</v>
       </c>
       <c r="S135">
         <f>ABS(S113-'Group 6'!T35)</f>
-        <v>2.1294386309964701</v>
+        <v>2.376183276897355</v>
       </c>
       <c r="T135">
         <f>ABS(T113-'Group 6'!U35)</f>
-        <v>4.9216850839352722</v>
+        <v>4.1408087117419266</v>
       </c>
       <c r="U135">
         <f>ABS(U113-'Group 6'!V35)</f>
@@ -21551,7 +21573,7 @@
       </c>
       <c r="B137">
         <f>MAX(B116:U135)</f>
-        <v>35.371832564719682</v>
+        <v>22.778875178571639</v>
       </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.25">
@@ -21560,7 +21582,7 @@
       </c>
       <c r="B138">
         <f>SMALL(B116:U135,COUNTIF($B$116:$U$135,0)+1)</f>
-        <v>3.8221781233005458E-4</v>
+        <v>1.8054732661482831E-2</v>
       </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.25">
@@ -28577,95 +28599,95 @@
       </c>
       <c r="C219">
         <f t="shared" ref="C219:U233" si="20">IF(C193&gt;0,ROUND(($G$2*((C141^$H$2)*(C167^$I$2))/(($L$2*C193)^$J$2)),0),0)</f>
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="D219">
         <f t="shared" si="20"/>
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="E219">
         <f t="shared" si="20"/>
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F219">
         <f t="shared" si="20"/>
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G219">
         <f t="shared" si="20"/>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H219">
         <f t="shared" si="20"/>
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="I219">
         <f t="shared" si="20"/>
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="J219">
         <f t="shared" si="20"/>
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="K219">
         <f t="shared" si="20"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L219">
         <f t="shared" si="20"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M219">
         <f t="shared" si="20"/>
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="N219">
         <f t="shared" si="20"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O219">
         <f t="shared" si="20"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P219">
         <f t="shared" si="20"/>
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q219">
         <f t="shared" si="20"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R219">
         <f t="shared" si="20"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S219">
         <f t="shared" si="20"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="T219">
         <f t="shared" si="20"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U219">
         <f t="shared" si="20"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V219">
         <f>IF(V193&gt;0,ROUND(($K$2*((V141^$H$2)*(V167^$I$2))/(($L$2*V193)^$J$2)),0),0)</f>
-        <v>870</v>
+        <v>1108</v>
       </c>
       <c r="W219">
         <f t="shared" ref="W219:Y219" si="21">IF(W193&gt;0,ROUND(($K$2*((W141^$H$2)*(W167^$I$2))/(($L$2*W193)^$J$2)),0),0)</f>
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="X219">
         <f t="shared" si="21"/>
-        <v>353</v>
+        <v>448</v>
       </c>
       <c r="Y219">
         <f t="shared" si="21"/>
-        <v>419</v>
+        <v>519</v>
       </c>
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.25">
@@ -28674,27 +28696,27 @@
       </c>
       <c r="B220">
         <f t="shared" ref="B220:B238" si="22">IF(B194&gt;0,ROUND(($G$2*((B142^$H$2)*(B168^$I$2))/(($L$2*B194)^$J$2)),0),0)</f>
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="C220">
-        <f t="shared" ref="B220:Q238" si="23">IF(C194&gt;0,ROUND(($G$2*((C142^$H$2)*(C168^$I$2))/(($L$2*C194)^$J$2)),0),0)</f>
+        <f t="shared" ref="C220:Q220" si="23">IF(C194&gt;0,ROUND(($G$2*((C142^$H$2)*(C168^$I$2))/(($L$2*C194)^$J$2)),0),0)</f>
         <v>0</v>
       </c>
       <c r="D220">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E220">
         <f t="shared" si="23"/>
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F220">
         <f t="shared" si="23"/>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G220">
         <f t="shared" si="23"/>
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H220">
         <f t="shared" si="23"/>
@@ -28702,23 +28724,23 @@
       </c>
       <c r="I220">
         <f t="shared" si="23"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J220">
         <f t="shared" si="23"/>
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K220">
         <f t="shared" si="23"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L220">
         <f t="shared" si="23"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M220">
         <f t="shared" si="23"/>
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N220">
         <f t="shared" si="23"/>
@@ -28726,31 +28748,31 @@
       </c>
       <c r="O220">
         <f t="shared" si="23"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P220">
         <f t="shared" si="23"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q220">
         <f t="shared" si="23"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R220">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S220">
         <f t="shared" si="20"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T220">
         <f t="shared" si="20"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U220">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V220">
         <v>0</v>
@@ -28771,11 +28793,11 @@
       </c>
       <c r="B221">
         <f t="shared" si="22"/>
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C221">
         <f t="shared" si="20"/>
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D221">
         <f t="shared" si="20"/>
@@ -28783,15 +28805,15 @@
       </c>
       <c r="E221">
         <f t="shared" si="20"/>
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F221">
         <f t="shared" si="20"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G221">
         <f t="shared" si="20"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H221">
         <f t="shared" si="20"/>
@@ -28803,35 +28825,35 @@
       </c>
       <c r="J221">
         <f t="shared" si="20"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K221">
         <f t="shared" si="20"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L221">
         <f t="shared" si="20"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M221">
         <f t="shared" si="20"/>
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="N221">
         <f t="shared" si="20"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O221">
         <f t="shared" si="20"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P221">
         <f t="shared" si="20"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q221">
         <f t="shared" si="20"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R221">
         <f t="shared" si="20"/>
@@ -28839,15 +28861,15 @@
       </c>
       <c r="S221">
         <f t="shared" si="20"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T221">
         <f t="shared" si="20"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U221">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V221">
         <v>0</v>
@@ -28868,15 +28890,15 @@
       </c>
       <c r="B222">
         <f t="shared" si="22"/>
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C222">
         <f t="shared" si="20"/>
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D222">
         <f t="shared" si="20"/>
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E222">
         <f t="shared" si="20"/>
@@ -28884,31 +28906,31 @@
       </c>
       <c r="F222">
         <f t="shared" si="20"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G222">
         <f t="shared" si="20"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H222">
         <f t="shared" si="20"/>
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="I222">
         <f t="shared" si="20"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J222">
         <f t="shared" si="20"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K222">
         <f t="shared" si="20"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L222">
         <f t="shared" si="20"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M222">
         <f t="shared" si="20"/>
@@ -28916,23 +28938,23 @@
       </c>
       <c r="N222">
         <f t="shared" si="20"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O222">
         <f t="shared" si="20"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P222">
         <f t="shared" si="20"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q222">
         <f t="shared" si="20"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R222">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S222">
         <f t="shared" si="20"/>
@@ -28940,7 +28962,7 @@
       </c>
       <c r="T222">
         <f t="shared" si="20"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U222">
         <f t="shared" si="20"/>
@@ -28965,19 +28987,19 @@
       </c>
       <c r="B223">
         <f t="shared" si="22"/>
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C223">
         <f t="shared" si="20"/>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D223">
         <f t="shared" si="20"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E223">
         <f t="shared" si="20"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F223">
         <f t="shared" si="20"/>
@@ -28985,7 +29007,7 @@
       </c>
       <c r="G223">
         <f t="shared" si="20"/>
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="H223">
         <f t="shared" si="20"/>
@@ -28993,23 +29015,23 @@
       </c>
       <c r="I223">
         <f t="shared" si="20"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J223">
         <f t="shared" si="20"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K223">
         <f t="shared" si="20"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L223">
         <f t="shared" si="20"/>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="M223">
         <f t="shared" si="20"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N223">
         <f t="shared" si="20"/>
@@ -29017,31 +29039,31 @@
       </c>
       <c r="O223">
         <f t="shared" si="20"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P223">
         <f t="shared" si="20"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q223">
         <f t="shared" si="20"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R223">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S223">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T223">
         <f t="shared" si="20"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U223">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V223">
         <v>0</v>
@@ -29062,23 +29084,23 @@
       </c>
       <c r="B224">
         <f t="shared" si="22"/>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C224">
         <f t="shared" si="20"/>
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D224">
         <f t="shared" si="20"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E224">
         <f t="shared" si="20"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F224">
         <f t="shared" si="20"/>
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G224">
         <f t="shared" si="20"/>
@@ -29086,15 +29108,15 @@
       </c>
       <c r="H224">
         <f t="shared" si="20"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I224">
         <f t="shared" si="20"/>
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J224">
         <f t="shared" si="20"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K224">
         <f t="shared" si="20"/>
@@ -29102,11 +29124,11 @@
       </c>
       <c r="L224">
         <f t="shared" si="20"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M224">
         <f t="shared" si="20"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N224">
         <f t="shared" si="20"/>
@@ -29114,19 +29136,19 @@
       </c>
       <c r="O224">
         <f t="shared" si="20"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P224">
         <f t="shared" si="20"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q224">
         <f t="shared" si="20"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R224">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S224">
         <f t="shared" si="20"/>
@@ -29134,11 +29156,11 @@
       </c>
       <c r="T224">
         <f t="shared" si="20"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U224">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V224">
         <v>0</v>
@@ -29159,7 +29181,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="22"/>
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C225">
         <f t="shared" si="20"/>
@@ -29171,7 +29193,7 @@
       </c>
       <c r="E225">
         <f t="shared" si="20"/>
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F225">
         <f t="shared" si="20"/>
@@ -29179,7 +29201,7 @@
       </c>
       <c r="G225">
         <f t="shared" si="20"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H225">
         <f t="shared" si="20"/>
@@ -29187,31 +29209,31 @@
       </c>
       <c r="I225">
         <f t="shared" si="20"/>
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J225">
         <f t="shared" si="20"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K225">
         <f t="shared" si="20"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L225">
         <f t="shared" si="20"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M225">
         <f t="shared" si="20"/>
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="N225">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O225">
         <f t="shared" si="20"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="P225">
         <f t="shared" si="20"/>
@@ -29219,19 +29241,19 @@
       </c>
       <c r="Q225">
         <f t="shared" si="20"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R225">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S225">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T225">
         <f t="shared" si="20"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U225">
         <f t="shared" si="20"/>
@@ -29256,11 +29278,11 @@
       </c>
       <c r="B226">
         <f t="shared" si="22"/>
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C226">
         <f t="shared" si="20"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D226">
         <f t="shared" si="20"/>
@@ -29268,19 +29290,19 @@
       </c>
       <c r="E226">
         <f t="shared" si="20"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F226">
         <f t="shared" si="20"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G226">
         <f t="shared" si="20"/>
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H226">
         <f t="shared" si="20"/>
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I226">
         <f t="shared" si="20"/>
@@ -29288,19 +29310,19 @@
       </c>
       <c r="J226">
         <f t="shared" si="20"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K226">
         <f t="shared" si="20"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L226">
         <f t="shared" si="20"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M226">
         <f t="shared" si="20"/>
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="N226">
         <f t="shared" si="20"/>
@@ -29308,19 +29330,19 @@
       </c>
       <c r="O226">
         <f t="shared" si="20"/>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P226">
         <f t="shared" si="20"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q226">
         <f t="shared" si="20"/>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="R226">
         <f t="shared" si="20"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S226">
         <f t="shared" si="20"/>
@@ -29328,11 +29350,11 @@
       </c>
       <c r="T226">
         <f t="shared" si="20"/>
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="U226">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V226">
         <v>0</v>
@@ -29353,35 +29375,35 @@
       </c>
       <c r="B227">
         <f t="shared" si="22"/>
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="C227">
         <f t="shared" si="20"/>
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D227">
         <f t="shared" si="20"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E227">
         <f t="shared" si="20"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F227">
         <f t="shared" si="20"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G227">
         <f t="shared" si="20"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H227">
         <f t="shared" si="20"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I227">
         <f t="shared" si="20"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J227">
         <f t="shared" si="20"/>
@@ -29389,27 +29411,27 @@
       </c>
       <c r="K227">
         <f t="shared" si="20"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L227">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M227">
         <f t="shared" si="20"/>
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N227">
         <f t="shared" si="20"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O227">
         <f t="shared" si="20"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P227">
         <f t="shared" si="20"/>
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q227">
         <f t="shared" si="20"/>
@@ -29421,15 +29443,15 @@
       </c>
       <c r="S227">
         <f t="shared" si="20"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T227">
         <f t="shared" si="20"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U227">
         <f t="shared" si="20"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V227">
         <v>0</v>
@@ -29450,23 +29472,23 @@
       </c>
       <c r="B228">
         <f t="shared" si="22"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C228">
         <f t="shared" si="20"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D228">
         <f t="shared" si="20"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E228">
         <f t="shared" si="20"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F228">
         <f t="shared" si="20"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G228">
         <f t="shared" si="20"/>
@@ -29474,15 +29496,15 @@
       </c>
       <c r="H228">
         <f t="shared" si="20"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I228">
         <f t="shared" si="20"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J228">
         <f t="shared" si="20"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K228">
         <f t="shared" si="20"/>
@@ -29494,15 +29516,15 @@
       </c>
       <c r="M228">
         <f t="shared" si="20"/>
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="N228">
         <f t="shared" si="20"/>
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O228">
         <f t="shared" si="20"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P228">
         <f t="shared" si="20"/>
@@ -29510,7 +29532,7 @@
       </c>
       <c r="Q228">
         <f t="shared" si="20"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R228">
         <f t="shared" si="20"/>
@@ -29518,7 +29540,7 @@
       </c>
       <c r="S228">
         <f t="shared" si="20"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T228">
         <f t="shared" si="20"/>
@@ -29547,39 +29569,39 @@
       </c>
       <c r="B229">
         <f t="shared" si="22"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C229">
         <f t="shared" si="20"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D229">
         <f t="shared" si="20"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E229">
         <f t="shared" si="20"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F229">
         <f t="shared" si="20"/>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G229">
         <f t="shared" si="20"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H229">
         <f t="shared" si="20"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I229">
         <f t="shared" si="20"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J229">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K229">
         <f t="shared" si="20"/>
@@ -29595,19 +29617,19 @@
       </c>
       <c r="N229">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O229">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P229">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q229">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R229">
         <f t="shared" si="20"/>
@@ -29619,11 +29641,11 @@
       </c>
       <c r="T229">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U229">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V229">
         <v>0</v>
@@ -29644,15 +29666,15 @@
       </c>
       <c r="B230">
         <f t="shared" si="22"/>
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="C230">
         <f t="shared" si="20"/>
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D230">
         <f t="shared" si="20"/>
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E230">
         <f t="shared" si="20"/>
@@ -29660,27 +29682,27 @@
       </c>
       <c r="F230">
         <f t="shared" si="20"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G230">
         <f t="shared" si="20"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H230">
         <f t="shared" si="20"/>
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="I230">
         <f t="shared" si="20"/>
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J230">
         <f t="shared" si="20"/>
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="K230">
         <f t="shared" si="20"/>
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="L230">
         <f t="shared" si="20"/>
@@ -29692,27 +29714,27 @@
       </c>
       <c r="N230">
         <f t="shared" si="20"/>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O230">
         <f t="shared" si="20"/>
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="P230">
         <f t="shared" si="20"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q230">
         <f t="shared" si="20"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="R230">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S230">
         <f t="shared" si="20"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T230">
         <f t="shared" si="20"/>
@@ -29741,7 +29763,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="22"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C231">
         <f t="shared" si="20"/>
@@ -29749,11 +29771,11 @@
       </c>
       <c r="D231">
         <f t="shared" si="20"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E231">
         <f t="shared" si="20"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F231">
         <f t="shared" si="20"/>
@@ -29765,7 +29787,7 @@
       </c>
       <c r="H231">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I231">
         <f t="shared" si="20"/>
@@ -29773,19 +29795,19 @@
       </c>
       <c r="J231">
         <f t="shared" si="20"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K231">
         <f t="shared" si="20"/>
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L231">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M231">
         <f t="shared" si="20"/>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N231">
         <f t="shared" si="20"/>
@@ -29793,19 +29815,19 @@
       </c>
       <c r="O231">
         <f t="shared" si="20"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P231">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q231">
         <f t="shared" si="20"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R231">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S231">
         <f t="shared" si="20"/>
@@ -29838,55 +29860,55 @@
       </c>
       <c r="B232">
         <f t="shared" si="22"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C232">
         <f t="shared" si="20"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D232">
         <f t="shared" si="20"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E232">
         <f t="shared" si="20"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F232">
         <f t="shared" si="20"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G232">
         <f t="shared" si="20"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H232">
         <f t="shared" si="20"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I232">
         <f t="shared" si="20"/>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J232">
         <f t="shared" si="20"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K232">
         <f t="shared" si="20"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L232">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M232">
         <f t="shared" si="20"/>
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="N232">
         <f t="shared" si="20"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O232">
         <f t="shared" si="20"/>
@@ -29894,15 +29916,15 @@
       </c>
       <c r="P232">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q232">
         <f t="shared" si="20"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="R232">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S232">
         <f t="shared" si="20"/>
@@ -29910,11 +29932,11 @@
       </c>
       <c r="T232">
         <f t="shared" si="20"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U232">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V232">
         <v>0</v>
@@ -29935,27 +29957,27 @@
       </c>
       <c r="B233">
         <f t="shared" si="22"/>
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C233">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D233">
         <f t="shared" si="20"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E233">
         <f t="shared" si="20"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F233">
         <f t="shared" si="20"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G233">
         <f t="shared" ref="C233:U238" si="24">IF(G207&gt;0,ROUND(($G$2*((G155^$H$2)*(G181^$I$2))/(($L$2*G207)^$J$2)),0),0)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H233">
         <f t="shared" si="24"/>
@@ -29963,11 +29985,11 @@
       </c>
       <c r="I233">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J233">
         <f t="shared" si="24"/>
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K233">
         <f t="shared" si="24"/>
@@ -29975,19 +29997,19 @@
       </c>
       <c r="L233">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M233">
         <f t="shared" si="24"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N233">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O233">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P233">
         <f t="shared" si="24"/>
@@ -29995,11 +30017,11 @@
       </c>
       <c r="Q233">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R233">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S233">
         <f t="shared" si="24"/>
@@ -30011,7 +30033,7 @@
       </c>
       <c r="U233">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V233">
         <v>0</v>
@@ -30032,35 +30054,35 @@
       </c>
       <c r="B234">
         <f t="shared" si="22"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C234">
         <f t="shared" si="24"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D234">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E234">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F234">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G234">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H234">
         <f t="shared" si="24"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I234">
         <f t="shared" si="24"/>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J234">
         <f t="shared" si="24"/>
@@ -30068,27 +30090,27 @@
       </c>
       <c r="K234">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L234">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M234">
         <f t="shared" si="24"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N234">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O234">
         <f t="shared" si="24"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P234">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q234">
         <f t="shared" si="24"/>
@@ -30096,7 +30118,7 @@
       </c>
       <c r="R234">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S234">
         <f t="shared" si="24"/>
@@ -30104,7 +30126,7 @@
       </c>
       <c r="T234">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U234">
         <f t="shared" si="24"/>
@@ -30129,11 +30151,11 @@
       </c>
       <c r="B235">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C235">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D235">
         <f t="shared" si="24"/>
@@ -30141,23 +30163,23 @@
       </c>
       <c r="E235">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F235">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G235">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H235">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I235">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J235">
         <f t="shared" si="24"/>
@@ -30173,23 +30195,23 @@
       </c>
       <c r="M235">
         <f t="shared" si="24"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N235">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O235">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P235">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q235">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R235">
         <f t="shared" si="24"/>
@@ -30201,7 +30223,7 @@
       </c>
       <c r="T235">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U235">
         <f t="shared" si="24"/>
@@ -30226,15 +30248,15 @@
       </c>
       <c r="B236">
         <f t="shared" si="22"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C236">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D236">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E236">
         <f t="shared" si="24"/>
@@ -30242,7 +30264,7 @@
       </c>
       <c r="F236">
         <f t="shared" si="24"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G236">
         <f t="shared" si="24"/>
@@ -30250,7 +30272,7 @@
       </c>
       <c r="H236">
         <f t="shared" si="24"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I236">
         <f t="shared" si="24"/>
@@ -30258,11 +30280,11 @@
       </c>
       <c r="J236">
         <f t="shared" si="24"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K236">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L236">
         <f t="shared" si="24"/>
@@ -30270,7 +30292,7 @@
       </c>
       <c r="M236">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N236">
         <f t="shared" si="24"/>
@@ -30323,39 +30345,39 @@
       </c>
       <c r="B237">
         <f t="shared" si="22"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C237">
         <f t="shared" si="24"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D237">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E237">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F237">
         <f t="shared" si="24"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G237">
         <f t="shared" si="24"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H237">
         <f t="shared" si="24"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I237">
         <f t="shared" si="24"/>
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="J237">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K237">
         <f t="shared" si="24"/>
@@ -30363,7 +30385,7 @@
       </c>
       <c r="L237">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M237">
         <f t="shared" si="24"/>
@@ -30375,7 +30397,7 @@
       </c>
       <c r="O237">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P237">
         <f t="shared" si="24"/>
@@ -30383,11 +30405,11 @@
       </c>
       <c r="Q237">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R237">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S237">
         <f t="shared" si="24"/>
@@ -30399,7 +30421,7 @@
       </c>
       <c r="U237">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V237">
         <v>0</v>
@@ -30420,15 +30442,15 @@
       </c>
       <c r="B238">
         <f t="shared" si="22"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C238">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D238">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E238">
         <f t="shared" si="24"/>
@@ -30436,11 +30458,11 @@
       </c>
       <c r="F238">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G238">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H238">
         <f t="shared" si="24"/>
@@ -30448,11 +30470,11 @@
       </c>
       <c r="I238">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J238">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K238">
         <f t="shared" si="24"/>
@@ -30460,7 +30482,7 @@
       </c>
       <c r="L238">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M238">
         <f t="shared" si="24"/>
@@ -30472,11 +30494,11 @@
       </c>
       <c r="O238">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P238">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q238">
         <f t="shared" si="24"/>
@@ -30492,7 +30514,7 @@
       </c>
       <c r="T238">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U238">
         <f t="shared" si="24"/>
@@ -30517,7 +30539,7 @@
       </c>
       <c r="B239">
         <f>IF(B213&gt;0,ROUND(($K$2*((B161^$H$2)*(B187^$I$2))/(($L$2*B213)^$J$2)),0),0)</f>
-        <v>870</v>
+        <v>1108</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -30595,7 +30617,7 @@
       </c>
       <c r="B240">
         <f t="shared" ref="B240:B242" si="25">IF(B214&gt;0,ROUND(($K$2*((B162^$H$2)*(B188^$I$2))/(($L$2*B214)^$J$2)),0),0)</f>
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -30673,7 +30695,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="25"/>
-        <v>353</v>
+        <v>448</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -30751,7 +30773,7 @@
       </c>
       <c r="B242">
         <f t="shared" si="25"/>
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -30910,79 +30932,79 @@
       </c>
       <c r="C245" s="16">
         <f t="shared" ref="C245:U245" si="26">C219-C50</f>
-        <v>-115</v>
+        <v>-108</v>
       </c>
       <c r="D245" s="16">
         <f t="shared" si="26"/>
-        <v>-69</v>
+        <v>-63</v>
       </c>
       <c r="E245" s="16">
         <f t="shared" si="26"/>
-        <v>-23</v>
+        <v>-15</v>
       </c>
       <c r="F245" s="16">
         <f t="shared" si="26"/>
-        <v>-29</v>
+        <v>-22</v>
       </c>
       <c r="G245" s="16">
         <f t="shared" si="26"/>
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="H245" s="16">
         <f t="shared" si="26"/>
-        <v>-30</v>
+        <v>-13</v>
       </c>
       <c r="I245" s="16">
         <f t="shared" si="26"/>
-        <v>-40</v>
+        <v>-31</v>
       </c>
       <c r="J245" s="16">
         <f t="shared" si="26"/>
-        <v>-20</v>
+        <v>19</v>
       </c>
       <c r="K245" s="16">
         <f t="shared" si="26"/>
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="L245" s="16">
         <f t="shared" si="26"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M245" s="16">
         <f t="shared" si="26"/>
-        <v>-60</v>
+        <v>-23</v>
       </c>
       <c r="N245" s="16">
         <f t="shared" si="26"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="O245" s="16">
         <f t="shared" si="26"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="P245" s="16">
         <f t="shared" si="26"/>
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="Q245" s="16">
         <f t="shared" si="26"/>
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="R245" s="16">
         <f t="shared" si="26"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="S245" s="16">
         <f t="shared" si="26"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="T245" s="16">
         <f t="shared" si="26"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="U245" s="16">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.25">
@@ -30991,7 +31013,7 @@
       </c>
       <c r="B246" s="16">
         <f t="shared" ref="B246:U246" si="27">B220-B51</f>
-        <v>-115</v>
+        <v>-108</v>
       </c>
       <c r="C246" s="16">
         <f t="shared" si="27"/>
@@ -30999,19 +31021,19 @@
       </c>
       <c r="D246" s="16">
         <f t="shared" si="27"/>
-        <v>-24</v>
+        <v>-33</v>
       </c>
       <c r="E246" s="16">
         <f t="shared" si="27"/>
-        <v>-35</v>
+        <v>-43</v>
       </c>
       <c r="F246" s="16">
         <f t="shared" si="27"/>
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="G246" s="16">
         <f t="shared" si="27"/>
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="H246" s="16">
         <f t="shared" si="27"/>
@@ -31019,23 +31041,23 @@
       </c>
       <c r="I246" s="16">
         <f t="shared" si="27"/>
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="J246" s="16">
         <f t="shared" si="27"/>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="K246" s="16">
         <f t="shared" si="27"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="L246" s="16">
         <f t="shared" si="27"/>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="M246" s="16">
         <f t="shared" si="27"/>
-        <v>-45</v>
+        <v>-37</v>
       </c>
       <c r="N246" s="16">
         <f t="shared" si="27"/>
@@ -31043,31 +31065,31 @@
       </c>
       <c r="O246" s="16">
         <f t="shared" si="27"/>
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="P246" s="16">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q246" s="16">
         <f t="shared" si="27"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="R246" s="16">
         <f t="shared" si="27"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="S246" s="16">
         <f t="shared" si="27"/>
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="T246" s="16">
         <f t="shared" si="27"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="U246" s="16">
         <f t="shared" si="27"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.25">
@@ -31076,11 +31098,11 @@
       </c>
       <c r="B247" s="16">
         <f t="shared" ref="B247:U247" si="28">B221-B52</f>
-        <v>-69</v>
+        <v>-63</v>
       </c>
       <c r="C247" s="16">
         <f t="shared" si="28"/>
-        <v>-24</v>
+        <v>-33</v>
       </c>
       <c r="D247" s="16">
         <f t="shared" si="28"/>
@@ -31088,15 +31110,15 @@
       </c>
       <c r="E247" s="16">
         <f t="shared" si="28"/>
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="F247" s="16">
         <f t="shared" si="28"/>
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="G247" s="16">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H247" s="16">
         <f t="shared" si="28"/>
@@ -31108,35 +31130,35 @@
       </c>
       <c r="J247" s="16">
         <f t="shared" si="28"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K247" s="16">
         <f t="shared" si="28"/>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="L247" s="16">
         <f t="shared" si="28"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="M247" s="16">
         <f t="shared" si="28"/>
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="N247" s="16">
         <f t="shared" si="28"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="O247" s="16">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="P247" s="16">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q247" s="16">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R247" s="16">
         <f t="shared" si="28"/>
@@ -31144,15 +31166,15 @@
       </c>
       <c r="S247" s="16">
         <f t="shared" si="28"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T247" s="16">
         <f t="shared" si="28"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="U247" s="16">
         <f t="shared" si="28"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.25">
@@ -31161,15 +31183,15 @@
       </c>
       <c r="B248" s="16">
         <f t="shared" ref="B248:U248" si="29">B222-B53</f>
-        <v>-23</v>
+        <v>-15</v>
       </c>
       <c r="C248" s="16">
         <f t="shared" si="29"/>
-        <v>-35</v>
+        <v>-43</v>
       </c>
       <c r="D248" s="16">
         <f t="shared" si="29"/>
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="E248" s="16">
         <f t="shared" si="29"/>
@@ -31177,31 +31199,31 @@
       </c>
       <c r="F248" s="16">
         <f t="shared" si="29"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="G248" s="16">
         <f t="shared" si="29"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H248" s="16">
         <f t="shared" si="29"/>
-        <v>-16</v>
+        <v>-28</v>
       </c>
       <c r="I248" s="16">
         <f t="shared" si="29"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J248" s="16">
         <f t="shared" si="29"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K248" s="16">
         <f t="shared" si="29"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L248" s="16">
         <f t="shared" si="29"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="M248" s="16">
         <f t="shared" si="29"/>
@@ -31209,23 +31231,23 @@
       </c>
       <c r="N248" s="16">
         <f t="shared" si="29"/>
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="O248" s="16">
         <f t="shared" si="29"/>
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="P248" s="16">
         <f t="shared" si="29"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="Q248" s="16">
         <f t="shared" si="29"/>
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="R248" s="16">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S248" s="16">
         <f t="shared" si="29"/>
@@ -31233,7 +31255,7 @@
       </c>
       <c r="T248" s="16">
         <f t="shared" si="29"/>
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="U248" s="16">
         <f t="shared" si="29"/>
@@ -31246,19 +31268,19 @@
       </c>
       <c r="B249" s="16">
         <f t="shared" ref="B249:U249" si="30">B223-B54</f>
-        <v>-29</v>
+        <v>-22</v>
       </c>
       <c r="C249" s="16">
         <f t="shared" si="30"/>
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="D249" s="16">
         <f t="shared" si="30"/>
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="E249" s="16">
         <f t="shared" si="30"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F249" s="16">
         <f t="shared" si="30"/>
@@ -31266,7 +31288,7 @@
       </c>
       <c r="G249" s="16">
         <f t="shared" si="30"/>
-        <v>-16</v>
+        <v>-37</v>
       </c>
       <c r="H249" s="16">
         <f t="shared" si="30"/>
@@ -31274,23 +31296,23 @@
       </c>
       <c r="I249" s="16">
         <f t="shared" si="30"/>
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="J249" s="16">
         <f t="shared" si="30"/>
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="K249" s="16">
         <f t="shared" si="30"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="L249" s="16">
         <f t="shared" si="30"/>
-        <v>-19</v>
+        <v>-35</v>
       </c>
       <c r="M249" s="16">
         <f t="shared" si="30"/>
-        <v>-28</v>
+        <v>-24</v>
       </c>
       <c r="N249" s="16">
         <f t="shared" si="30"/>
@@ -31298,31 +31320,31 @@
       </c>
       <c r="O249" s="16">
         <f t="shared" si="30"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="P249" s="16">
         <f t="shared" si="30"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="Q249" s="16">
         <f t="shared" si="30"/>
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="R249" s="16">
         <f t="shared" si="30"/>
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="S249" s="16">
         <f t="shared" si="30"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="T249" s="16">
         <f t="shared" si="30"/>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="U249" s="16">
         <f t="shared" si="30"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.25">
@@ -31331,23 +31353,23 @@
       </c>
       <c r="B250" s="16">
         <f t="shared" ref="B250:U250" si="31">B224-B55</f>
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="C250" s="16">
         <f t="shared" si="31"/>
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="D250" s="16">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E250" s="16">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F250" s="16">
         <f t="shared" si="31"/>
-        <v>-16</v>
+        <v>-37</v>
       </c>
       <c r="G250" s="16">
         <f t="shared" si="31"/>
@@ -31355,15 +31377,15 @@
       </c>
       <c r="H250" s="16">
         <f t="shared" si="31"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="I250" s="16">
         <f t="shared" si="31"/>
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="J250" s="16">
         <f t="shared" si="31"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="K250" s="16">
         <f t="shared" si="31"/>
@@ -31371,11 +31393,11 @@
       </c>
       <c r="L250" s="16">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M250" s="16">
         <f t="shared" si="31"/>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="N250" s="16">
         <f t="shared" si="31"/>
@@ -31383,19 +31405,19 @@
       </c>
       <c r="O250" s="16">
         <f t="shared" si="31"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P250" s="16">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q250" s="16">
         <f t="shared" si="31"/>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="R250" s="16">
         <f t="shared" si="31"/>
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="S250" s="16">
         <f t="shared" si="31"/>
@@ -31403,11 +31425,11 @@
       </c>
       <c r="T250" s="16">
         <f t="shared" si="31"/>
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="U250" s="16">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.25">
@@ -31416,7 +31438,7 @@
       </c>
       <c r="B251" s="16">
         <f t="shared" ref="B251:U251" si="32">B225-B56</f>
-        <v>-30</v>
+        <v>-13</v>
       </c>
       <c r="C251" s="16">
         <f t="shared" si="32"/>
@@ -31428,7 +31450,7 @@
       </c>
       <c r="E251" s="16">
         <f t="shared" si="32"/>
-        <v>-16</v>
+        <v>-28</v>
       </c>
       <c r="F251" s="16">
         <f t="shared" si="32"/>
@@ -31436,7 +31458,7 @@
       </c>
       <c r="G251" s="16">
         <f t="shared" si="32"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="H251" s="16">
         <f t="shared" si="32"/>
@@ -31444,31 +31466,31 @@
       </c>
       <c r="I251" s="16">
         <f t="shared" si="32"/>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="J251" s="16">
         <f t="shared" si="32"/>
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="K251" s="16">
         <f t="shared" si="32"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="L251" s="16">
         <f t="shared" si="32"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M251" s="16">
         <f t="shared" si="32"/>
-        <v>-16</v>
+        <v>-6</v>
       </c>
       <c r="N251" s="16">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O251" s="16">
         <f t="shared" si="32"/>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="P251" s="16">
         <f t="shared" si="32"/>
@@ -31476,19 +31498,19 @@
       </c>
       <c r="Q251" s="16">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="R251" s="16">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S251" s="16">
         <f t="shared" si="32"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T251" s="16">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U251" s="16">
         <f t="shared" si="32"/>
@@ -31501,11 +31523,11 @@
       </c>
       <c r="B252" s="16">
         <f t="shared" ref="B252:U252" si="33">B226-B57</f>
-        <v>-40</v>
+        <v>-31</v>
       </c>
       <c r="C252" s="16">
         <f t="shared" si="33"/>
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="D252" s="16">
         <f t="shared" si="33"/>
@@ -31513,19 +31535,19 @@
       </c>
       <c r="E252" s="16">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F252" s="16">
         <f t="shared" si="33"/>
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="G252" s="16">
         <f t="shared" si="33"/>
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="H252" s="16">
         <f t="shared" si="33"/>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="I252" s="16">
         <f t="shared" si="33"/>
@@ -31533,19 +31555,19 @@
       </c>
       <c r="J252" s="16">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K252" s="16">
         <f t="shared" si="33"/>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="L252" s="16">
         <f t="shared" si="33"/>
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="M252" s="16">
         <f t="shared" si="33"/>
-        <v>-29</v>
+        <v>-24</v>
       </c>
       <c r="N252" s="16">
         <f t="shared" si="33"/>
@@ -31553,19 +31575,19 @@
       </c>
       <c r="O252" s="16">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="P252" s="16">
         <f t="shared" si="33"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="Q252" s="16">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R252" s="16">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S252" s="16">
         <f t="shared" si="33"/>
@@ -31573,11 +31595,11 @@
       </c>
       <c r="T252" s="16">
         <f t="shared" si="33"/>
-        <v>-38</v>
+        <v>-57</v>
       </c>
       <c r="U252" s="16">
         <f t="shared" si="33"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.25">
@@ -31586,35 +31608,35 @@
       </c>
       <c r="B253" s="16">
         <f t="shared" ref="B253:U253" si="34">B227-B58</f>
-        <v>-20</v>
+        <v>19</v>
       </c>
       <c r="C253" s="16">
         <f t="shared" si="34"/>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="D253" s="16">
         <f t="shared" si="34"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E253" s="16">
         <f t="shared" si="34"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F253" s="16">
         <f t="shared" si="34"/>
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="G253" s="16">
         <f t="shared" si="34"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="H253" s="16">
         <f t="shared" si="34"/>
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="I253" s="16">
         <f t="shared" si="34"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J253" s="16">
         <f t="shared" si="34"/>
@@ -31622,27 +31644,27 @@
       </c>
       <c r="K253" s="16">
         <f t="shared" si="34"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L253" s="16">
         <f t="shared" si="34"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="M253" s="16">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N253" s="16">
         <f t="shared" si="34"/>
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="O253" s="16">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P253" s="16">
         <f t="shared" si="34"/>
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="Q253" s="16">
         <f t="shared" si="34"/>
@@ -31654,15 +31676,15 @@
       </c>
       <c r="S253" s="16">
         <f t="shared" si="34"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T253" s="16">
         <f t="shared" si="34"/>
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="U253" s="16">
         <f t="shared" si="34"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.25">
@@ -31671,23 +31693,23 @@
       </c>
       <c r="B254" s="16">
         <f t="shared" ref="B254:U254" si="35">B228-B59</f>
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="C254" s="16">
         <f t="shared" si="35"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D254" s="16">
         <f t="shared" si="35"/>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E254" s="16">
         <f t="shared" si="35"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F254" s="16">
         <f t="shared" si="35"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G254" s="16">
         <f t="shared" si="35"/>
@@ -31695,15 +31717,15 @@
       </c>
       <c r="H254" s="16">
         <f t="shared" si="35"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="I254" s="16">
         <f t="shared" si="35"/>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="J254" s="16">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K254" s="16">
         <f t="shared" si="35"/>
@@ -31715,15 +31737,15 @@
       </c>
       <c r="M254" s="16">
         <f t="shared" si="35"/>
-        <v>-22</v>
+        <v>-13</v>
       </c>
       <c r="N254" s="16">
         <f t="shared" si="35"/>
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="O254" s="16">
         <f t="shared" si="35"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P254" s="16">
         <f t="shared" si="35"/>
@@ -31731,7 +31753,7 @@
       </c>
       <c r="Q254" s="16">
         <f t="shared" si="35"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R254" s="16">
         <f t="shared" si="35"/>
@@ -31739,7 +31761,7 @@
       </c>
       <c r="S254" s="16">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T254" s="16">
         <f t="shared" si="35"/>
@@ -31756,39 +31778,39 @@
       </c>
       <c r="B255" s="16">
         <f t="shared" ref="B255:U255" si="36">B229-B60</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C255" s="16">
         <f t="shared" si="36"/>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="D255" s="16">
         <f t="shared" si="36"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E255" s="16">
         <f t="shared" si="36"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F255" s="16">
         <f t="shared" si="36"/>
-        <v>-19</v>
+        <v>-35</v>
       </c>
       <c r="G255" s="16">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H255" s="16">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I255" s="16">
         <f t="shared" si="36"/>
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="J255" s="16">
         <f t="shared" si="36"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="K255" s="16">
         <f t="shared" si="36"/>
@@ -31804,19 +31826,19 @@
       </c>
       <c r="N255" s="16">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O255" s="16">
         <f t="shared" si="36"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P255" s="16">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q255" s="16">
         <f t="shared" si="36"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="R255" s="16">
         <f t="shared" si="36"/>
@@ -31828,11 +31850,11 @@
       </c>
       <c r="T255" s="16">
         <f t="shared" si="36"/>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="U255" s="16">
         <f t="shared" si="36"/>
-        <v>-14</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.25">
@@ -31841,15 +31863,15 @@
       </c>
       <c r="B256" s="16">
         <f t="shared" ref="B256:U256" si="37">B230-B61</f>
-        <v>-60</v>
+        <v>-23</v>
       </c>
       <c r="C256" s="16">
         <f t="shared" si="37"/>
-        <v>-45</v>
+        <v>-37</v>
       </c>
       <c r="D256" s="16">
         <f t="shared" si="37"/>
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="E256" s="16">
         <f t="shared" si="37"/>
@@ -31857,27 +31879,27 @@
       </c>
       <c r="F256" s="16">
         <f t="shared" si="37"/>
-        <v>-28</v>
+        <v>-24</v>
       </c>
       <c r="G256" s="16">
         <f t="shared" si="37"/>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="H256" s="16">
         <f t="shared" si="37"/>
-        <v>-16</v>
+        <v>-6</v>
       </c>
       <c r="I256" s="16">
         <f t="shared" si="37"/>
-        <v>-29</v>
+        <v>-24</v>
       </c>
       <c r="J256" s="16">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K256" s="16">
         <f t="shared" si="37"/>
-        <v>-22</v>
+        <v>-13</v>
       </c>
       <c r="L256" s="16">
         <f t="shared" si="37"/>
@@ -31889,27 +31911,27 @@
       </c>
       <c r="N256" s="16">
         <f t="shared" si="37"/>
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="O256" s="16">
         <f t="shared" si="37"/>
-        <v>4</v>
+        <v>-16</v>
       </c>
       <c r="P256" s="16">
         <f t="shared" si="37"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="Q256" s="16">
         <f t="shared" si="37"/>
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="R256" s="16">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S256" s="16">
         <f t="shared" si="37"/>
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="T256" s="16">
         <f t="shared" si="37"/>
@@ -31926,7 +31948,7 @@
       </c>
       <c r="B257" s="16">
         <f t="shared" ref="B257:U257" si="38">B231-B62</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C257" s="16">
         <f t="shared" si="38"/>
@@ -31934,11 +31956,11 @@
       </c>
       <c r="D257" s="16">
         <f t="shared" si="38"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E257" s="16">
         <f t="shared" si="38"/>
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="F257" s="16">
         <f t="shared" si="38"/>
@@ -31950,7 +31972,7 @@
       </c>
       <c r="H257" s="16">
         <f t="shared" si="38"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I257" s="16">
         <f t="shared" si="38"/>
@@ -31958,19 +31980,19 @@
       </c>
       <c r="J257" s="16">
         <f t="shared" si="38"/>
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="K257" s="16">
         <f t="shared" si="38"/>
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="L257" s="16">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M257" s="16">
         <f t="shared" si="38"/>
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="N257" s="16">
         <f t="shared" si="38"/>
@@ -31978,19 +32000,19 @@
       </c>
       <c r="O257" s="16">
         <f t="shared" si="38"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="P257" s="16">
         <f t="shared" si="38"/>
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="Q257" s="16">
         <f t="shared" si="38"/>
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="R257" s="16">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S257" s="16">
         <f t="shared" si="38"/>
@@ -32011,55 +32033,55 @@
       </c>
       <c r="B258" s="16">
         <f t="shared" ref="B258:U258" si="39">B232-B63</f>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="C258" s="16">
         <f t="shared" si="39"/>
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="D258" s="16">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E258" s="16">
         <f t="shared" si="39"/>
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="F258" s="16">
         <f t="shared" si="39"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="G258" s="16">
         <f t="shared" si="39"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H258" s="16">
         <f t="shared" si="39"/>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="I258" s="16">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J258" s="16">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K258" s="16">
         <f t="shared" si="39"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L258" s="16">
         <f t="shared" si="39"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M258" s="16">
         <f t="shared" si="39"/>
-        <v>4</v>
+        <v>-16</v>
       </c>
       <c r="N258" s="16">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="O258" s="16">
         <f t="shared" si="39"/>
@@ -32067,15 +32089,15 @@
       </c>
       <c r="P258" s="16">
         <f t="shared" si="39"/>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="Q258" s="16">
         <f t="shared" si="39"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R258" s="16">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S258" s="16">
         <f t="shared" si="39"/>
@@ -32083,11 +32105,11 @@
       </c>
       <c r="T258" s="16">
         <f t="shared" si="39"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U258" s="16">
         <f t="shared" si="39"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -32096,27 +32118,27 @@
       </c>
       <c r="B259" s="16">
         <f t="shared" ref="B259:U259" si="40">B233-B64</f>
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="C259" s="16">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D259" s="16">
         <f t="shared" si="40"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E259" s="16">
         <f t="shared" si="40"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="F259" s="16">
         <f t="shared" si="40"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="G259" s="16">
         <f t="shared" si="40"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H259" s="16">
         <f t="shared" si="40"/>
@@ -32124,11 +32146,11 @@
       </c>
       <c r="I259" s="16">
         <f t="shared" si="40"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="J259" s="16">
         <f t="shared" si="40"/>
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="K259" s="16">
         <f t="shared" si="40"/>
@@ -32136,19 +32158,19 @@
       </c>
       <c r="L259" s="16">
         <f t="shared" si="40"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M259" s="16">
         <f t="shared" si="40"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="N259" s="16">
         <f t="shared" si="40"/>
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="O259" s="16">
         <f t="shared" si="40"/>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="P259" s="16">
         <f t="shared" si="40"/>
@@ -32156,11 +32178,11 @@
       </c>
       <c r="Q259" s="16">
         <f t="shared" si="40"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="R259" s="16">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S259" s="16">
         <f t="shared" si="40"/>
@@ -32172,7 +32194,7 @@
       </c>
       <c r="U259" s="16">
         <f t="shared" si="40"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
@@ -32181,35 +32203,35 @@
       </c>
       <c r="B260" s="16">
         <f t="shared" ref="B260:U260" si="41">B234-B65</f>
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="C260" s="16">
         <f t="shared" si="41"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D260" s="16">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E260" s="16">
         <f t="shared" si="41"/>
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F260" s="16">
         <f t="shared" si="41"/>
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="G260" s="16">
         <f t="shared" si="41"/>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="H260" s="16">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="I260" s="16">
         <f t="shared" si="41"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J260" s="16">
         <f t="shared" si="41"/>
@@ -32217,27 +32239,27 @@
       </c>
       <c r="K260" s="16">
         <f t="shared" si="41"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L260" s="16">
         <f t="shared" si="41"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="M260" s="16">
         <f t="shared" si="41"/>
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="N260" s="16">
         <f t="shared" si="41"/>
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="O260" s="16">
         <f t="shared" si="41"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P260" s="16">
         <f t="shared" si="41"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="Q260" s="16">
         <f t="shared" si="41"/>
@@ -32245,7 +32267,7 @@
       </c>
       <c r="R260" s="16">
         <f t="shared" si="41"/>
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="S260" s="16">
         <f t="shared" si="41"/>
@@ -32253,7 +32275,7 @@
       </c>
       <c r="T260" s="16">
         <f t="shared" si="41"/>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="U260" s="16">
         <f t="shared" si="41"/>
@@ -32266,11 +32288,11 @@
       </c>
       <c r="B261" s="16">
         <f t="shared" ref="B261:U261" si="42">B235-B66</f>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="C261" s="16">
         <f t="shared" si="42"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="D261" s="16">
         <f t="shared" si="42"/>
@@ -32278,23 +32300,23 @@
       </c>
       <c r="E261" s="16">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F261" s="16">
         <f t="shared" si="42"/>
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="G261" s="16">
         <f t="shared" si="42"/>
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="H261" s="16">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" s="16">
         <f t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J261" s="16">
         <f t="shared" si="42"/>
@@ -32310,23 +32332,23 @@
       </c>
       <c r="M261" s="16">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N261" s="16">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O261" s="16">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P261" s="16">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q261" s="16">
         <f t="shared" si="42"/>
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="R261" s="16">
         <f t="shared" si="42"/>
@@ -32338,7 +32360,7 @@
       </c>
       <c r="T261" s="16">
         <f t="shared" si="42"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="U261" s="16">
         <f t="shared" si="42"/>
@@ -32351,15 +32373,15 @@
       </c>
       <c r="B262" s="16">
         <f t="shared" ref="B262:U262" si="43">B236-B67</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="C262" s="16">
         <f t="shared" si="43"/>
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="D262" s="16">
         <f t="shared" si="43"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E262" s="16">
         <f t="shared" si="43"/>
@@ -32367,7 +32389,7 @@
       </c>
       <c r="F262" s="16">
         <f t="shared" si="43"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G262" s="16">
         <f t="shared" si="43"/>
@@ -32375,7 +32397,7 @@
       </c>
       <c r="H262" s="16">
         <f t="shared" si="43"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I262" s="16">
         <f t="shared" si="43"/>
@@ -32383,11 +32405,11 @@
       </c>
       <c r="J262" s="16">
         <f t="shared" si="43"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K262" s="16">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L262" s="16">
         <f t="shared" si="43"/>
@@ -32395,7 +32417,7 @@
       </c>
       <c r="M262" s="16">
         <f t="shared" si="43"/>
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="N262" s="16">
         <f t="shared" si="43"/>
@@ -32436,39 +32458,39 @@
       </c>
       <c r="B263" s="16">
         <f t="shared" ref="B263:U263" si="44">B237-B68</f>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="C263" s="16">
         <f t="shared" si="44"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D263" s="16">
         <f t="shared" si="44"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="E263" s="16">
         <f t="shared" si="44"/>
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="F263" s="16">
         <f t="shared" si="44"/>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="G263" s="16">
         <f t="shared" si="44"/>
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="H263" s="16">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I263" s="16">
         <f t="shared" si="44"/>
-        <v>-38</v>
+        <v>-57</v>
       </c>
       <c r="J263" s="16">
         <f t="shared" si="44"/>
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="K263" s="16">
         <f t="shared" si="44"/>
@@ -32476,7 +32498,7 @@
       </c>
       <c r="L263" s="16">
         <f t="shared" si="44"/>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="M263" s="16">
         <f t="shared" si="44"/>
@@ -32488,7 +32510,7 @@
       </c>
       <c r="O263" s="16">
         <f t="shared" si="44"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P263" s="16">
         <f t="shared" si="44"/>
@@ -32496,11 +32518,11 @@
       </c>
       <c r="Q263" s="16">
         <f t="shared" si="44"/>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="R263" s="16">
         <f t="shared" si="44"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="S263" s="16">
         <f t="shared" si="44"/>
@@ -32512,7 +32534,7 @@
       </c>
       <c r="U263" s="16">
         <f t="shared" si="44"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
@@ -32521,15 +32543,15 @@
       </c>
       <c r="B264" s="16">
         <f t="shared" ref="B264:U264" si="45">B238-B69</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C264" s="16">
         <f t="shared" si="45"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="D264" s="16">
         <f t="shared" si="45"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E264" s="16">
         <f t="shared" si="45"/>
@@ -32537,11 +32559,11 @@
       </c>
       <c r="F264" s="16">
         <f t="shared" si="45"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="G264" s="16">
         <f t="shared" si="45"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H264" s="16">
         <f t="shared" si="45"/>
@@ -32549,11 +32571,11 @@
       </c>
       <c r="I264" s="16">
         <f t="shared" si="45"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="J264" s="16">
         <f t="shared" si="45"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K264" s="16">
         <f t="shared" si="45"/>
@@ -32561,7 +32583,7 @@
       </c>
       <c r="L264" s="16">
         <f t="shared" si="45"/>
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="M264" s="16">
         <f t="shared" si="45"/>
@@ -32573,11 +32595,11 @@
       </c>
       <c r="O264" s="16">
         <f t="shared" si="45"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="P264" s="16">
         <f t="shared" si="45"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q264" s="16">
         <f t="shared" si="45"/>
@@ -32593,7 +32615,7 @@
       </c>
       <c r="T264" s="16">
         <f t="shared" si="45"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U264" s="16">
         <f t="shared" si="45"/>
@@ -32618,7 +32640,7 @@
       </c>
       <c r="B267">
         <f>SUM(B219:U238)</f>
-        <v>25510</v>
+        <v>25344</v>
       </c>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.25">
@@ -32626,5 +32648,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datasheet.xlsx
+++ b/Datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\AirlinePlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009E4C79-4547-4B00-BE42-3BAFBFA48483}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA46A3A-C992-4537-82F8-555A884292E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="125">
   <si>
     <t>Population data per city</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>k=0,0007196</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
   </si>
 </sst>
 </file>
@@ -11665,8 +11671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A7E274-3790-4FC3-A361-86E6193B7861}">
   <dimension ref="A1:Y268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21575,6 +21581,13 @@
         <f>MAX(B116:U135)</f>
         <v>22.778875178571639</v>
       </c>
+      <c r="C137" t="s">
+        <v>123</v>
+      </c>
+      <c r="D137">
+        <f>AVERAGE(B116:U135)</f>
+        <v>7.1215554581247398</v>
+      </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -21583,6 +21596,13 @@
       <c r="B138">
         <f>SMALL(B116:U135,COUNTIF($B$116:$U$135,0)+1)</f>
         <v>1.8054732661482831E-2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>124</v>
+      </c>
+      <c r="D138">
+        <f>MEDIAN(B116:U135)</f>
+        <v>5.9757189954615555</v>
       </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.25">

--- a/Datasheet.xlsx
+++ b/Datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\AirlinePlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA46A3A-C992-4537-82F8-555A884292E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E38612-12A3-4510-8049-0EBAD4A41A68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -967,7 +967,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1994,8 +1994,8 @@
   </sheetPr>
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10076,7 +10076,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11671,8 +11671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A7E274-3790-4FC3-A361-86E6193B7861}">
   <dimension ref="A1:Y268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" topLeftCell="N216" workbookViewId="0">
+      <selection activeCell="Z241" sqref="Z241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28795,16 +28795,20 @@
         <v>10</v>
       </c>
       <c r="V220">
-        <v>0</v>
+        <f t="shared" ref="V220:Y220" si="24">IF(V194&gt;0,ROUND(($K$2*((V142^$H$2)*(V168^$I$2))/(($L$2*V194)^$J$2)),0),0)</f>
+        <v>481</v>
       </c>
       <c r="W220">
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>173</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>198</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>226</v>
       </c>
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.25">
@@ -28892,16 +28896,20 @@
         <v>6</v>
       </c>
       <c r="V221">
-        <v>0</v>
+        <f t="shared" ref="V221:Y221" si="25">IF(V195&gt;0,ROUND(($K$2*((V143^$H$2)*(V169^$I$2))/(($L$2*V195)^$J$2)),0),0)</f>
+        <v>345</v>
       </c>
       <c r="W221">
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>125</v>
       </c>
       <c r="X221">
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>145</v>
       </c>
       <c r="Y221">
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>164</v>
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.25">
@@ -28989,16 +28997,20 @@
         <v>6</v>
       </c>
       <c r="V222">
-        <v>0</v>
+        <f t="shared" ref="V222:Y222" si="26">IF(V196&gt;0,ROUND(($K$2*((V144^$H$2)*(V170^$I$2))/(($L$2*V196)^$J$2)),0),0)</f>
+        <v>297</v>
       </c>
       <c r="W222">
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>109</v>
       </c>
       <c r="X222">
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>127</v>
       </c>
       <c r="Y222">
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>141</v>
       </c>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.25">
@@ -29086,16 +29098,20 @@
         <v>17</v>
       </c>
       <c r="V223">
-        <v>0</v>
+        <f t="shared" ref="V223:Y223" si="27">IF(V197&gt;0,ROUND(($K$2*((V145^$H$2)*(V171^$I$2))/(($L$2*V197)^$J$2)),0),0)</f>
+        <v>476</v>
       </c>
       <c r="W223">
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>170</v>
       </c>
       <c r="X223">
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>186</v>
       </c>
       <c r="Y223">
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>218</v>
       </c>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.25">
@@ -29183,16 +29199,20 @@
         <v>9</v>
       </c>
       <c r="V224">
-        <v>0</v>
+        <f t="shared" ref="V224:Y224" si="28">IF(V198&gt;0,ROUND(($K$2*((V146^$H$2)*(V172^$I$2))/(($L$2*V198)^$J$2)),0),0)</f>
+        <v>313</v>
       </c>
       <c r="W224">
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>114</v>
       </c>
       <c r="X224">
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>128</v>
       </c>
       <c r="Y224">
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>146</v>
       </c>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.25">
@@ -29280,16 +29300,20 @@
         <v>8</v>
       </c>
       <c r="V225">
-        <v>0</v>
+        <f t="shared" ref="V225:Y225" si="29">IF(V199&gt;0,ROUND(($K$2*((V147^$H$2)*(V173^$I$2))/(($L$2*V199)^$J$2)),0),0)</f>
+        <v>402</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>149</v>
       </c>
       <c r="X225">
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>174</v>
       </c>
       <c r="Y225">
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>192</v>
       </c>
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.25">
@@ -29377,16 +29401,20 @@
         <v>9</v>
       </c>
       <c r="V226">
-        <v>0</v>
+        <f t="shared" ref="V226:Y226" si="30">IF(V200&gt;0,ROUND(($K$2*((V148^$H$2)*(V174^$I$2))/(($L$2*V200)^$J$2)),0),0)</f>
+        <v>404</v>
       </c>
       <c r="W226">
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>152</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>175</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>192</v>
       </c>
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.25">
@@ -29474,16 +29502,20 @@
         <v>8</v>
       </c>
       <c r="V227">
-        <v>0</v>
+        <f t="shared" ref="V227:Y227" si="31">IF(V201&gt;0,ROUND(($K$2*((V149^$H$2)*(V175^$I$2))/(($L$2*V201)^$J$2)),0),0)</f>
+        <v>463</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>160</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>181</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>214</v>
       </c>
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.25">
@@ -29571,16 +29603,20 @@
         <v>5</v>
       </c>
       <c r="V228">
-        <v>0</v>
+        <f t="shared" ref="V228:Y228" si="32">IF(V202&gt;0,ROUND(($K$2*((V150^$H$2)*(V176^$I$2))/(($L$2*V202)^$J$2)),0),0)</f>
+        <v>357</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>135</v>
       </c>
       <c r="X228">
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>164</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>177</v>
       </c>
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.25">
@@ -29668,16 +29704,20 @@
         <v>10</v>
       </c>
       <c r="V229">
-        <v>0</v>
+        <f t="shared" ref="V229:Y229" si="33">IF(V203&gt;0,ROUND(($K$2*((V151^$H$2)*(V177^$I$2))/(($L$2*V203)^$J$2)),0),0)</f>
+        <v>177</v>
       </c>
       <c r="W229">
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>62</v>
       </c>
       <c r="X229">
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>66</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>79</v>
       </c>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.25">
@@ -29765,16 +29805,20 @@
         <v>11</v>
       </c>
       <c r="V230">
-        <v>0</v>
+        <f t="shared" ref="V230:Y230" si="34">IF(V204&gt;0,ROUND(($K$2*((V152^$H$2)*(V178^$I$2))/(($L$2*V204)^$J$2)),0),0)</f>
+        <v>646</v>
       </c>
       <c r="W230">
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>241</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>285</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>312</v>
       </c>
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.25">
@@ -29862,16 +29906,20 @@
         <v>3</v>
       </c>
       <c r="V231">
-        <v>0</v>
+        <f t="shared" ref="V231:Y231" si="35">IF(V205&gt;0,ROUND(($K$2*((V153^$H$2)*(V179^$I$2))/(($L$2*V205)^$J$2)),0),0)</f>
+        <v>253</v>
       </c>
       <c r="W231">
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>97</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>121</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>127</v>
       </c>
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.25">
@@ -29959,16 +30007,20 @@
         <v>3</v>
       </c>
       <c r="V232">
-        <v>0</v>
+        <f t="shared" ref="V232:Y232" si="36">IF(V206&gt;0,ROUND(($K$2*((V154^$H$2)*(V180^$I$2))/(($L$2*V206)^$J$2)),0),0)</f>
+        <v>208</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>79</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>96</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>102</v>
       </c>
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.25">
@@ -29996,76 +30048,80 @@
         <v>31</v>
       </c>
       <c r="G233">
-        <f t="shared" ref="C233:U238" si="24">IF(G207&gt;0,ROUND(($G$2*((G155^$H$2)*(G181^$I$2))/(($L$2*G207)^$J$2)),0),0)</f>
+        <f t="shared" ref="C233:U238" si="37">IF(G207&gt;0,ROUND(($G$2*((G155^$H$2)*(G181^$I$2))/(($L$2*G207)^$J$2)),0),0)</f>
         <v>23</v>
       </c>
       <c r="H233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>40</v>
       </c>
       <c r="I233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>28</v>
       </c>
       <c r="J233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>162</v>
       </c>
       <c r="K233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>34</v>
       </c>
       <c r="L233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="M233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>74</v>
       </c>
       <c r="N233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>19</v>
       </c>
       <c r="O233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>17</v>
       </c>
       <c r="P233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="R233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="S233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="T233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="U233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="V233">
-        <v>0</v>
+        <f t="shared" ref="V233:Y233" si="38">IF(V207&gt;0,ROUND(($K$2*((V155^$H$2)*(V181^$I$2))/(($L$2*V207)^$J$2)),0),0)</f>
+        <v>265</v>
       </c>
       <c r="W233">
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>93</v>
       </c>
       <c r="X233">
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>107</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>124</v>
       </c>
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.25">
@@ -30077,92 +30133,96 @@
         <v>54</v>
       </c>
       <c r="C234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>29</v>
       </c>
       <c r="D234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>21</v>
       </c>
       <c r="E234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>25</v>
       </c>
       <c r="F234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="G234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>18</v>
       </c>
       <c r="H234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>45</v>
       </c>
       <c r="I234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>49</v>
       </c>
       <c r="J234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>17</v>
       </c>
       <c r="K234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>24</v>
       </c>
       <c r="L234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="M234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>63</v>
       </c>
       <c r="N234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>18</v>
       </c>
       <c r="O234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>32</v>
       </c>
       <c r="P234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="Q234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="S234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="T234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>21</v>
       </c>
       <c r="U234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="V234">
-        <v>0</v>
+        <f t="shared" ref="V234:Y234" si="39">IF(V208&gt;0,ROUND(($K$2*((V156^$H$2)*(V182^$I$2))/(($L$2*V208)^$J$2)),0),0)</f>
+        <v>170</v>
       </c>
       <c r="W234">
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>66</v>
       </c>
       <c r="X234">
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>79</v>
       </c>
       <c r="Y234">
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>83</v>
       </c>
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.25">
@@ -30174,92 +30234,96 @@
         <v>13</v>
       </c>
       <c r="C235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>7</v>
       </c>
       <c r="D235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="E235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="F235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="G235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="H235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="I235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>13</v>
       </c>
       <c r="J235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="K235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="L235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="M235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="N235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="O235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="P235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="Q235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="R235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="T235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="U235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="V235">
-        <v>0</v>
+        <f t="shared" ref="V235:Y235" si="40">IF(V209&gt;0,ROUND(($K$2*((V157^$H$2)*(V183^$I$2))/(($L$2*V209)^$J$2)),0),0)</f>
+        <v>49</v>
       </c>
       <c r="W235">
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>19</v>
       </c>
       <c r="X235">
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>23</v>
       </c>
       <c r="Y235">
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>24</v>
       </c>
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.25">
@@ -30271,92 +30335,96 @@
         <v>49</v>
       </c>
       <c r="C236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>19</v>
       </c>
       <c r="D236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="E236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="F236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
       <c r="G236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="H236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
       <c r="I236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
       <c r="J236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>24</v>
       </c>
       <c r="K236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="L236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="M236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>26</v>
       </c>
       <c r="N236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="O236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="P236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="Q236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="R236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="S236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="U236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="V236">
-        <v>0</v>
+        <f t="shared" ref="V236:Y236" si="41">IF(V210&gt;0,ROUND(($K$2*((V158^$H$2)*(V184^$I$2))/(($L$2*V210)^$J$2)),0),0)</f>
+        <v>271</v>
       </c>
       <c r="W236">
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>90</v>
       </c>
       <c r="X236">
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>103</v>
       </c>
       <c r="Y236">
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>128</v>
       </c>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.25">
@@ -30368,92 +30436,96 @@
         <v>63</v>
       </c>
       <c r="C237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>37</v>
       </c>
       <c r="D237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>22</v>
       </c>
       <c r="E237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>26</v>
       </c>
       <c r="F237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>36</v>
       </c>
       <c r="G237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>38</v>
       </c>
       <c r="H237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>46</v>
       </c>
       <c r="I237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>151</v>
       </c>
       <c r="J237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>19</v>
       </c>
       <c r="K237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>17</v>
       </c>
       <c r="L237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="M237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
       <c r="N237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
       <c r="O237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>17</v>
       </c>
       <c r="P237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="Q237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>21</v>
       </c>
       <c r="R237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="S237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="T237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="V237">
-        <v>0</v>
+        <f t="shared" ref="V237:Y237" si="42">IF(V211&gt;0,ROUND(($K$2*((V159^$H$2)*(V185^$I$2))/(($L$2*V211)^$J$2)),0),0)</f>
+        <v>182</v>
       </c>
       <c r="W237">
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>69</v>
       </c>
       <c r="X237">
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>80</v>
       </c>
       <c r="Y237">
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>87</v>
       </c>
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.25">
@@ -30465,92 +30537,96 @@
         <v>21</v>
       </c>
       <c r="C238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="D238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="E238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="F238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>17</v>
       </c>
       <c r="G238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="H238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="I238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="J238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="K238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="L238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="M238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="N238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="O238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="P238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="Q238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="R238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="S238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="T238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="U238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V238">
-        <v>0</v>
+        <f t="shared" ref="V238:Y238" si="43">IF(V212&gt;0,ROUND(($K$2*((V160^$H$2)*(V186^$I$2))/(($L$2*V212)^$J$2)),0),0)</f>
+        <v>128</v>
       </c>
       <c r="W238">
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>44</v>
       </c>
       <c r="X238">
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>46</v>
       </c>
       <c r="Y238">
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>56</v>
       </c>
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.25">
@@ -30562,73 +30638,96 @@
         <v>1108</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <f t="shared" ref="C239:Y242" si="44">IF(C213&gt;0,ROUND(($K$2*((C161^$H$2)*(C187^$I$2))/(($L$2*C213)^$J$2)),0),0)</f>
+        <v>481</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>345</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>297</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>476</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>313</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>402</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>404</v>
       </c>
       <c r="J239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>463</v>
       </c>
       <c r="K239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>357</v>
       </c>
       <c r="L239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>177</v>
       </c>
       <c r="M239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>646</v>
       </c>
       <c r="N239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>253</v>
       </c>
       <c r="O239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>208</v>
       </c>
       <c r="P239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>265</v>
       </c>
       <c r="Q239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>170</v>
       </c>
       <c r="R239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>49</v>
       </c>
       <c r="S239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>271</v>
       </c>
       <c r="T239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>182</v>
       </c>
       <c r="U239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>128</v>
       </c>
       <c r="V239">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>2055</v>
       </c>
       <c r="X239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>1439</v>
       </c>
       <c r="Y239">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>4477</v>
       </c>
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.25">
@@ -30636,77 +30735,100 @@
         <v>81</v>
       </c>
       <c r="B240">
-        <f t="shared" ref="B240:B242" si="25">IF(B214&gt;0,ROUND(($K$2*((B162^$H$2)*(B188^$I$2))/(($L$2*B214)^$J$2)),0),0)</f>
+        <f t="shared" ref="B240:Q242" si="45">IF(B214&gt;0,ROUND(($K$2*((B162^$H$2)*(B188^$I$2))/(($L$2*B214)^$J$2)),0),0)</f>
         <v>393</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>173</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>125</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>109</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>170</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>114</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>149</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>152</v>
       </c>
       <c r="J240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>160</v>
       </c>
       <c r="K240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>135</v>
       </c>
       <c r="L240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>62</v>
       </c>
       <c r="M240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>241</v>
       </c>
       <c r="N240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>97</v>
       </c>
       <c r="O240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>79</v>
       </c>
       <c r="P240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>93</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>66</v>
       </c>
       <c r="R240">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>19</v>
       </c>
       <c r="S240">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>90</v>
       </c>
       <c r="T240">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>69</v>
       </c>
       <c r="U240">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>44</v>
       </c>
       <c r="V240">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>2055</v>
       </c>
       <c r="W240">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="X240">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>1429</v>
       </c>
       <c r="Y240">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>1797</v>
       </c>
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.25">
@@ -30714,77 +30836,100 @@
         <v>82</v>
       </c>
       <c r="B241">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>448</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>198</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>145</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>127</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>186</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>128</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>174</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>175</v>
       </c>
       <c r="J241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>181</v>
       </c>
       <c r="K241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>164</v>
       </c>
       <c r="L241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>66</v>
       </c>
       <c r="M241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>285</v>
       </c>
       <c r="N241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>121</v>
       </c>
       <c r="O241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>96</v>
       </c>
       <c r="P241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>107</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>79</v>
       </c>
       <c r="R241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>23</v>
       </c>
       <c r="S241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>103</v>
       </c>
       <c r="T241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>80</v>
       </c>
       <c r="U241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>46</v>
       </c>
       <c r="V241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>1439</v>
       </c>
       <c r="W241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>1429</v>
       </c>
       <c r="X241">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Y241">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>1158</v>
       </c>
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.25">
@@ -30792,76 +30937,99 @@
         <v>83</v>
       </c>
       <c r="B242">
-        <f t="shared" si="25"/>
+        <f t="shared" si="45"/>
         <v>519</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>226</v>
       </c>
       <c r="D242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>164</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>141</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>218</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>146</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>192</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>192</v>
       </c>
       <c r="J242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>214</v>
       </c>
       <c r="K242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>177</v>
       </c>
       <c r="L242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>79</v>
       </c>
       <c r="M242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>312</v>
       </c>
       <c r="N242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>127</v>
       </c>
       <c r="O242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>102</v>
       </c>
       <c r="P242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>124</v>
       </c>
       <c r="Q242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>83</v>
       </c>
       <c r="R242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>24</v>
       </c>
       <c r="S242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>128</v>
       </c>
       <c r="T242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>87</v>
       </c>
       <c r="U242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>56</v>
       </c>
       <c r="V242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>4477</v>
       </c>
       <c r="W242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>1797</v>
       </c>
       <c r="X242">
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>1158</v>
       </c>
       <c r="Y242">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -30951,79 +31119,79 @@
         <v>0</v>
       </c>
       <c r="C245" s="16">
-        <f t="shared" ref="C245:U245" si="26">C219-C50</f>
+        <f t="shared" ref="C245:U245" si="46">C219-C50</f>
         <v>-108</v>
       </c>
       <c r="D245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>-63</v>
       </c>
       <c r="E245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>-15</v>
       </c>
       <c r="F245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>-22</v>
       </c>
       <c r="G245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>-13</v>
       </c>
       <c r="H245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>-13</v>
       </c>
       <c r="I245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>-31</v>
       </c>
       <c r="J245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>19</v>
       </c>
       <c r="K245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
       <c r="L245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="M245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>-23</v>
       </c>
       <c r="N245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>-5</v>
       </c>
       <c r="P245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>-19</v>
       </c>
       <c r="Q245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>-15</v>
       </c>
       <c r="R245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>-7</v>
       </c>
       <c r="S245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="T245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>-4</v>
       </c>
       <c r="U245" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
     </row>
@@ -31032,83 +31200,83 @@
         <v>58</v>
       </c>
       <c r="B246" s="16">
-        <f t="shared" ref="B246:U246" si="27">B220-B51</f>
+        <f t="shared" ref="B246:U246" si="47">B220-B51</f>
         <v>-108</v>
       </c>
       <c r="C246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="D246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-33</v>
       </c>
       <c r="E246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-43</v>
       </c>
       <c r="F246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-16</v>
       </c>
       <c r="G246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-16</v>
       </c>
       <c r="H246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-24</v>
       </c>
       <c r="I246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-36</v>
       </c>
       <c r="J246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="K246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="L246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-14</v>
       </c>
       <c r="M246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-37</v>
       </c>
       <c r="N246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="O246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-20</v>
       </c>
       <c r="P246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="R246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-17</v>
       </c>
       <c r="S246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-13</v>
       </c>
       <c r="T246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-6</v>
       </c>
       <c r="U246" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>-13</v>
       </c>
     </row>
@@ -31117,83 +31285,83 @@
         <v>60</v>
       </c>
       <c r="B247" s="16">
-        <f t="shared" ref="B247:U247" si="28">B221-B52</f>
+        <f t="shared" ref="B247:U247" si="48">B221-B52</f>
         <v>-63</v>
       </c>
       <c r="C247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-33</v>
       </c>
       <c r="D247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-15</v>
       </c>
       <c r="F247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-23</v>
       </c>
       <c r="G247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="H247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-23</v>
       </c>
       <c r="I247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-26</v>
       </c>
       <c r="J247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="K247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-7</v>
       </c>
       <c r="L247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-8</v>
       </c>
       <c r="M247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-13</v>
       </c>
       <c r="N247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-5</v>
       </c>
       <c r="O247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-3</v>
       </c>
       <c r="P247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="Q247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="R247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="S247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>12</v>
       </c>
       <c r="T247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-13</v>
       </c>
       <c r="U247" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>-7</v>
       </c>
     </row>
@@ -31202,83 +31370,83 @@
         <v>62</v>
       </c>
       <c r="B248" s="16">
-        <f t="shared" ref="B248:U248" si="29">B222-B53</f>
+        <f t="shared" ref="B248:U248" si="49">B222-B53</f>
         <v>-15</v>
       </c>
       <c r="C248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-43</v>
       </c>
       <c r="D248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-15</v>
       </c>
       <c r="E248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-9</v>
       </c>
       <c r="G248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>7</v>
       </c>
       <c r="H248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-28</v>
       </c>
       <c r="I248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="J248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>14</v>
       </c>
       <c r="K248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-1</v>
       </c>
       <c r="L248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-4</v>
       </c>
       <c r="M248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-11</v>
       </c>
       <c r="N248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-17</v>
       </c>
       <c r="O248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-18</v>
       </c>
       <c r="P248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-17</v>
       </c>
       <c r="Q248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-11</v>
       </c>
       <c r="R248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>4</v>
       </c>
       <c r="S248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-10</v>
       </c>
       <c r="T248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>-14</v>
       </c>
       <c r="U248" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>5</v>
       </c>
     </row>
@@ -31287,83 +31455,83 @@
         <v>64</v>
       </c>
       <c r="B249" s="16">
-        <f t="shared" ref="B249:U249" si="30">B223-B54</f>
+        <f t="shared" ref="B249:U249" si="50">B223-B54</f>
         <v>-22</v>
       </c>
       <c r="C249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-16</v>
       </c>
       <c r="D249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-23</v>
       </c>
       <c r="E249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-9</v>
       </c>
       <c r="F249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-37</v>
       </c>
       <c r="H249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-14</v>
       </c>
       <c r="I249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-11</v>
       </c>
       <c r="J249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-17</v>
       </c>
       <c r="K249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-2</v>
       </c>
       <c r="L249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-35</v>
       </c>
       <c r="M249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-24</v>
       </c>
       <c r="N249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="O249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-5</v>
       </c>
       <c r="P249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-17</v>
       </c>
       <c r="Q249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-12</v>
       </c>
       <c r="R249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-15</v>
       </c>
       <c r="S249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-3</v>
       </c>
       <c r="T249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-15</v>
       </c>
       <c r="U249" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>-6</v>
       </c>
     </row>
@@ -31372,83 +31540,83 @@
         <v>65</v>
       </c>
       <c r="B250" s="16">
-        <f t="shared" ref="B250:U250" si="31">B224-B55</f>
+        <f t="shared" ref="B250:U250" si="51">B224-B55</f>
         <v>-13</v>
       </c>
       <c r="C250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>-16</v>
       </c>
       <c r="D250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="E250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>7</v>
       </c>
       <c r="F250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>-37</v>
       </c>
       <c r="G250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="H250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>-6</v>
       </c>
       <c r="I250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>-40</v>
       </c>
       <c r="J250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>-6</v>
       </c>
       <c r="K250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>4</v>
       </c>
       <c r="L250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>-8</v>
       </c>
       <c r="N250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>8</v>
       </c>
       <c r="O250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="P250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>6</v>
       </c>
       <c r="Q250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>-14</v>
       </c>
       <c r="R250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>-11</v>
       </c>
       <c r="S250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="T250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>-15</v>
       </c>
       <c r="U250" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>8</v>
       </c>
     </row>
@@ -31457,83 +31625,83 @@
         <v>66</v>
       </c>
       <c r="B251" s="16">
-        <f t="shared" ref="B251:U251" si="32">B225-B56</f>
+        <f t="shared" ref="B251:U251" si="52">B225-B56</f>
         <v>-13</v>
       </c>
       <c r="C251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-24</v>
       </c>
       <c r="D251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-23</v>
       </c>
       <c r="E251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-28</v>
       </c>
       <c r="F251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-14</v>
       </c>
       <c r="G251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-6</v>
       </c>
       <c r="H251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-15</v>
       </c>
       <c r="J251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-8</v>
       </c>
       <c r="K251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-1</v>
       </c>
       <c r="L251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
       <c r="M251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-6</v>
       </c>
       <c r="N251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="O251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-3</v>
       </c>
       <c r="P251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="Q251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-5</v>
       </c>
       <c r="R251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="S251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
       <c r="T251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-1</v>
       </c>
       <c r="U251" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>-3</v>
       </c>
     </row>
@@ -31542,83 +31710,83 @@
         <v>67</v>
       </c>
       <c r="B252" s="16">
-        <f t="shared" ref="B252:U252" si="33">B226-B57</f>
+        <f t="shared" ref="B252:U252" si="53">B226-B57</f>
         <v>-31</v>
       </c>
       <c r="C252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-36</v>
       </c>
       <c r="D252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-26</v>
       </c>
       <c r="E252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>2</v>
       </c>
       <c r="F252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-11</v>
       </c>
       <c r="G252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-40</v>
       </c>
       <c r="H252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-15</v>
       </c>
       <c r="I252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="J252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>12</v>
       </c>
       <c r="K252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-22</v>
       </c>
       <c r="L252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-13</v>
       </c>
       <c r="M252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-24</v>
       </c>
       <c r="N252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-3</v>
       </c>
       <c r="O252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-2</v>
       </c>
       <c r="P252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-6</v>
       </c>
       <c r="Q252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="R252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="S252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-12</v>
       </c>
       <c r="T252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-57</v>
       </c>
       <c r="U252" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>-9</v>
       </c>
     </row>
@@ -31627,83 +31795,83 @@
         <v>68</v>
       </c>
       <c r="B253" s="16">
-        <f t="shared" ref="B253:U253" si="34">B227-B58</f>
+        <f t="shared" ref="B253:U253" si="54">B227-B58</f>
         <v>19</v>
       </c>
       <c r="C253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>-1</v>
       </c>
       <c r="D253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="E253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="F253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>-17</v>
       </c>
       <c r="G253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>-6</v>
       </c>
       <c r="H253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>-8</v>
       </c>
       <c r="I253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>12</v>
       </c>
       <c r="J253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>17</v>
       </c>
       <c r="L253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>-4</v>
       </c>
       <c r="M253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>13</v>
       </c>
       <c r="N253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>-15</v>
       </c>
       <c r="O253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>-1</v>
       </c>
       <c r="P253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>-19</v>
       </c>
       <c r="Q253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>4</v>
       </c>
       <c r="R253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="S253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>13</v>
       </c>
       <c r="T253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>-16</v>
       </c>
       <c r="U253" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>7</v>
       </c>
     </row>
@@ -31712,83 +31880,83 @@
         <v>69</v>
       </c>
       <c r="B254" s="16">
-        <f t="shared" ref="B254:U254" si="35">B228-B59</f>
+        <f t="shared" ref="B254:U254" si="55">B228-B59</f>
         <v>6</v>
       </c>
       <c r="C254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="D254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>-7</v>
       </c>
       <c r="E254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>-1</v>
       </c>
       <c r="F254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>-2</v>
       </c>
       <c r="G254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>4</v>
       </c>
       <c r="H254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>-1</v>
       </c>
       <c r="I254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>-22</v>
       </c>
       <c r="J254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>17</v>
       </c>
       <c r="K254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="L254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>9</v>
       </c>
       <c r="M254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>-13</v>
       </c>
       <c r="N254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>-10</v>
       </c>
       <c r="O254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>8</v>
       </c>
       <c r="P254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>-5</v>
       </c>
       <c r="Q254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>8</v>
       </c>
       <c r="R254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="S254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="T254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>9</v>
       </c>
       <c r="U254" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>4</v>
       </c>
     </row>
@@ -31797,83 +31965,83 @@
         <v>70</v>
       </c>
       <c r="B255" s="16">
-        <f t="shared" ref="B255:U255" si="36">B229-B60</f>
+        <f t="shared" ref="B255:U255" si="56">B229-B60</f>
         <v>9</v>
       </c>
       <c r="C255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>-14</v>
       </c>
       <c r="D255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>-8</v>
       </c>
       <c r="E255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>-4</v>
       </c>
       <c r="F255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>-35</v>
       </c>
       <c r="G255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>5</v>
       </c>
       <c r="I255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>-13</v>
       </c>
       <c r="J255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>-4</v>
       </c>
       <c r="K255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>9</v>
       </c>
       <c r="L255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="N255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>-1</v>
       </c>
       <c r="O255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="P255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>-2</v>
       </c>
       <c r="Q255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>-13</v>
       </c>
       <c r="R255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>-13</v>
       </c>
       <c r="S255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>4</v>
       </c>
       <c r="T255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>-10</v>
       </c>
       <c r="U255" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>-16</v>
       </c>
     </row>
@@ -31882,83 +32050,83 @@
         <v>71</v>
       </c>
       <c r="B256" s="16">
-        <f t="shared" ref="B256:U256" si="37">B230-B61</f>
+        <f t="shared" ref="B256:U256" si="57">B230-B61</f>
         <v>-23</v>
       </c>
       <c r="C256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-37</v>
       </c>
       <c r="D256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-13</v>
       </c>
       <c r="E256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-11</v>
       </c>
       <c r="F256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-24</v>
       </c>
       <c r="G256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-8</v>
       </c>
       <c r="H256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-6</v>
       </c>
       <c r="I256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-24</v>
       </c>
       <c r="J256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>13</v>
       </c>
       <c r="K256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-13</v>
       </c>
       <c r="L256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="M256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-17</v>
       </c>
       <c r="O256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-16</v>
       </c>
       <c r="P256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-5</v>
       </c>
       <c r="Q256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-11</v>
       </c>
       <c r="R256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-1</v>
       </c>
       <c r="S256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-12</v>
       </c>
       <c r="T256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-17</v>
       </c>
       <c r="U256" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-1</v>
       </c>
     </row>
@@ -31967,83 +32135,83 @@
         <v>72</v>
       </c>
       <c r="B257" s="16">
-        <f t="shared" ref="B257:U257" si="38">B231-B62</f>
+        <f t="shared" ref="B257:U257" si="58">B231-B62</f>
         <v>0</v>
       </c>
       <c r="C257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="D257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-5</v>
       </c>
       <c r="E257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-17</v>
       </c>
       <c r="F257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="G257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>8</v>
       </c>
       <c r="H257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>3</v>
       </c>
       <c r="I257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-3</v>
       </c>
       <c r="J257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-15</v>
       </c>
       <c r="K257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-10</v>
       </c>
       <c r="L257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-1</v>
       </c>
       <c r="M257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-17</v>
       </c>
       <c r="N257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-3</v>
       </c>
       <c r="P257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-16</v>
       </c>
       <c r="Q257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>-9</v>
       </c>
       <c r="R257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="S257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>9</v>
       </c>
       <c r="T257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>9</v>
       </c>
       <c r="U257" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
     </row>
@@ -32052,83 +32220,83 @@
         <v>73</v>
       </c>
       <c r="B258" s="16">
-        <f t="shared" ref="B258:U258" si="39">B232-B63</f>
+        <f t="shared" ref="B258:U258" si="59">B232-B63</f>
         <v>-5</v>
       </c>
       <c r="C258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>-20</v>
       </c>
       <c r="D258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>-3</v>
       </c>
       <c r="E258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>-18</v>
       </c>
       <c r="F258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>-5</v>
       </c>
       <c r="G258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="H258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>-3</v>
       </c>
       <c r="I258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>-2</v>
       </c>
       <c r="J258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="K258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>8</v>
       </c>
       <c r="L258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="M258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>-16</v>
       </c>
       <c r="N258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>-3</v>
       </c>
       <c r="O258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="P258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>-15</v>
       </c>
       <c r="Q258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="R258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="S258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>-13</v>
       </c>
       <c r="T258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>8</v>
       </c>
       <c r="U258" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>-9</v>
       </c>
     </row>
@@ -32137,83 +32305,83 @@
         <v>74</v>
       </c>
       <c r="B259" s="16">
-        <f t="shared" ref="B259:U259" si="40">B233-B64</f>
+        <f t="shared" ref="B259:U259" si="60">B233-B64</f>
         <v>-19</v>
       </c>
       <c r="C259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="D259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="E259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>-17</v>
       </c>
       <c r="F259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>-17</v>
       </c>
       <c r="G259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>6</v>
       </c>
       <c r="H259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>9</v>
       </c>
       <c r="I259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>-6</v>
       </c>
       <c r="J259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>-19</v>
       </c>
       <c r="K259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>-5</v>
       </c>
       <c r="L259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>-2</v>
       </c>
       <c r="M259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>-5</v>
       </c>
       <c r="N259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>-16</v>
       </c>
       <c r="O259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>-15</v>
       </c>
       <c r="P259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>-3</v>
       </c>
       <c r="R259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="S259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>-13</v>
       </c>
       <c r="U259" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>3</v>
       </c>
     </row>
@@ -32222,83 +32390,83 @@
         <v>75</v>
       </c>
       <c r="B260" s="16">
-        <f t="shared" ref="B260:U260" si="41">B234-B65</f>
+        <f t="shared" ref="B260:U260" si="61">B234-B65</f>
         <v>-15</v>
       </c>
       <c r="C260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>-4</v>
       </c>
       <c r="D260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>2</v>
       </c>
       <c r="E260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>-11</v>
       </c>
       <c r="F260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>-12</v>
       </c>
       <c r="G260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>-14</v>
       </c>
       <c r="H260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>-5</v>
       </c>
       <c r="I260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="J260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>4</v>
       </c>
       <c r="K260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>8</v>
       </c>
       <c r="L260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>-13</v>
       </c>
       <c r="M260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>-11</v>
       </c>
       <c r="N260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>-9</v>
       </c>
       <c r="O260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>2</v>
       </c>
       <c r="P260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>-3</v>
       </c>
       <c r="Q260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>-15</v>
       </c>
       <c r="S260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>4</v>
       </c>
       <c r="T260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>-14</v>
       </c>
       <c r="U260" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>-6</v>
       </c>
     </row>
@@ -32307,83 +32475,83 @@
         <v>76</v>
       </c>
       <c r="B261" s="16">
-        <f t="shared" ref="B261:U261" si="42">B235-B66</f>
+        <f t="shared" ref="B261:U261" si="62">B235-B66</f>
         <v>-7</v>
       </c>
       <c r="C261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>-17</v>
       </c>
       <c r="D261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="E261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>4</v>
       </c>
       <c r="F261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>-15</v>
       </c>
       <c r="G261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>-11</v>
       </c>
       <c r="H261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="I261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="J261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="K261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>2</v>
       </c>
       <c r="L261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>-13</v>
       </c>
       <c r="M261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>-1</v>
       </c>
       <c r="N261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="P261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="Q261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>-15</v>
       </c>
       <c r="R261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="S261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>-8</v>
       </c>
       <c r="U261" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>-13</v>
       </c>
     </row>
@@ -32392,83 +32560,83 @@
         <v>77</v>
       </c>
       <c r="B262" s="16">
-        <f t="shared" ref="B262:U262" si="43">B236-B67</f>
+        <f t="shared" ref="B262:U262" si="63">B236-B67</f>
         <v>3</v>
       </c>
       <c r="C262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>-13</v>
       </c>
       <c r="D262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>12</v>
       </c>
       <c r="E262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>-10</v>
       </c>
       <c r="F262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>-3</v>
       </c>
       <c r="G262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="H262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="I262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>-12</v>
       </c>
       <c r="J262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>13</v>
       </c>
       <c r="K262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="L262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>4</v>
       </c>
       <c r="M262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>-12</v>
       </c>
       <c r="N262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>9</v>
       </c>
       <c r="O262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>-13</v>
       </c>
       <c r="P262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Q262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>4</v>
       </c>
       <c r="R262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="S262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>-14</v>
       </c>
       <c r="U262" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>-2</v>
       </c>
     </row>
@@ -32477,83 +32645,83 @@
         <v>78</v>
       </c>
       <c r="B263" s="16">
-        <f t="shared" ref="B263:U263" si="44">B237-B68</f>
+        <f t="shared" ref="B263:U263" si="64">B237-B68</f>
         <v>-4</v>
       </c>
       <c r="C263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-6</v>
       </c>
       <c r="D263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-13</v>
       </c>
       <c r="E263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-14</v>
       </c>
       <c r="F263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-15</v>
       </c>
       <c r="G263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-15</v>
       </c>
       <c r="H263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="I263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-57</v>
       </c>
       <c r="J263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-16</v>
       </c>
       <c r="K263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>9</v>
       </c>
       <c r="L263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-10</v>
       </c>
       <c r="M263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-17</v>
       </c>
       <c r="N263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>9</v>
       </c>
       <c r="O263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>8</v>
       </c>
       <c r="P263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-13</v>
       </c>
       <c r="Q263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-14</v>
       </c>
       <c r="R263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-8</v>
       </c>
       <c r="S263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>-14</v>
       </c>
       <c r="T263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="U263" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
     </row>
@@ -32562,83 +32730,83 @@
         <v>79</v>
       </c>
       <c r="B264" s="16">
-        <f t="shared" ref="B264:U264" si="45">B238-B69</f>
+        <f t="shared" ref="B264:U264" si="65">B238-B69</f>
         <v>9</v>
       </c>
       <c r="C264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>-13</v>
       </c>
       <c r="D264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>-7</v>
       </c>
       <c r="E264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="F264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>-6</v>
       </c>
       <c r="G264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>8</v>
       </c>
       <c r="H264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>-3</v>
       </c>
       <c r="I264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>-9</v>
       </c>
       <c r="J264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>7</v>
       </c>
       <c r="K264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>4</v>
       </c>
       <c r="L264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>-16</v>
       </c>
       <c r="M264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="N264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="O264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>-9</v>
       </c>
       <c r="P264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="Q264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>-6</v>
       </c>
       <c r="R264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>-13</v>
       </c>
       <c r="S264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>-2</v>
       </c>
       <c r="T264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="U264" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>

--- a/Datasheet.xlsx
+++ b/Datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\AirlinePlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E38612-12A3-4510-8049-0EBAD4A41A68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB10868-C297-4360-BBC2-E9CB7BCC5AC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -1994,8 +1994,8 @@
   </sheetPr>
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10076,7 +10076,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11671,7 +11671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A7E274-3790-4FC3-A361-86E6193B7861}">
   <dimension ref="A1:Y268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N216" workbookViewId="0">
+    <sheetView topLeftCell="N216" workbookViewId="0">
       <selection activeCell="Z241" sqref="Z241"/>
     </sheetView>
   </sheetViews>

--- a/Datasheet.xlsx
+++ b/Datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\AirlinePlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB10868-C297-4360-BBC2-E9CB7BCC5AC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829FE955-705D-478A-848D-16BA63FB55DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1995,7 +1995,7 @@
   <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10076,7 +10076,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
